--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -161,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -356,30 +370,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="dotted">
         <color indexed="64"/>
       </left>
@@ -578,6 +568,157 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,7 +731,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -606,55 +747,55 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,11 +810,41 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -684,25 +855,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -711,7 +885,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -720,6 +894,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -730,12 +910,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,40 +930,28 @@
     <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -807,28 +969,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="45" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1150,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="AT1" zoomScale="175" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="CD17" sqref="CD17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="Q1" zoomScale="280" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="280" workbookViewId="0">
+      <selection activeCell="AL5" sqref="AL5:AM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1161,31 +1332,31 @@
     <col min="92" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="9.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:86" ht="9.9499999999999993" customHeight="1">
+      <c r="A1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
       <c r="BG1" s="17"/>
       <c r="BH1" s="15"/>
       <c r="BI1" s="13"/>
@@ -1206,16 +1377,16 @@
       <c r="BX1" s="11"/>
       <c r="BY1" s="9"/>
       <c r="BZ1" s="11"/>
-      <c r="CA1" s="75"/>
-      <c r="CB1" s="76"/>
+      <c r="CA1" s="19"/>
+      <c r="CB1" s="20"/>
       <c r="CC1" s="9"/>
       <c r="CD1" s="11"/>
-      <c r="CE1" s="74"/>
-      <c r="CF1" s="76"/>
+      <c r="CE1" s="21"/>
+      <c r="CF1" s="20"/>
       <c r="CG1" s="9"/>
       <c r="CH1" s="10"/>
     </row>
-    <row r="2" spans="1:86" ht="9.75" customHeight="1">
+    <row r="2" spans="1:86" ht="9.9499999999999993" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -1262,22 +1433,22 @@
       <c r="BX2" s="11"/>
       <c r="BY2" s="9"/>
       <c r="BZ2" s="11"/>
-      <c r="CA2" s="75"/>
-      <c r="CB2" s="76"/>
+      <c r="CA2" s="19"/>
+      <c r="CB2" s="20"/>
       <c r="CC2" s="9"/>
       <c r="CD2" s="11"/>
-      <c r="CE2" s="74"/>
-      <c r="CF2" s="76"/>
+      <c r="CE2" s="21"/>
+      <c r="CF2" s="20"/>
       <c r="CG2" s="9"/>
       <c r="CH2" s="10"/>
     </row>
     <row r="3" spans="1:86" ht="9.75" customHeight="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1295,50 +1466,50 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:86" ht="9.75" customHeight="1">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:86" ht="9.9499999999999993" customHeight="1">
+      <c r="A4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="21"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="53"/>
       <c r="AI4" s="5"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75"/>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
@@ -1355,8 +1526,8 @@
       <c r="BA4" s="6"/>
       <c r="BB4" s="6"/>
       <c r="BC4" s="6"/>
-      <c r="BD4" s="19"/>
-      <c r="BE4" s="19"/>
+      <c r="BD4" s="75"/>
+      <c r="BE4" s="75"/>
       <c r="BG4" s="17"/>
       <c r="BH4" s="15"/>
       <c r="BI4" s="13"/>
@@ -1377,57 +1548,57 @@
       <c r="BX4" s="11"/>
       <c r="BY4" s="9"/>
       <c r="BZ4" s="11"/>
-      <c r="CA4" s="75"/>
-      <c r="CB4" s="76"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="20"/>
       <c r="CC4" s="9"/>
       <c r="CD4" s="11"/>
-      <c r="CE4" s="74"/>
-      <c r="CF4" s="76"/>
+      <c r="CE4" s="21"/>
+      <c r="CF4" s="20"/>
       <c r="CG4" s="9"/>
       <c r="CH4" s="10"/>
     </row>
-    <row r="5" spans="1:86" ht="9.75" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="20" t="s">
+    <row r="5" spans="1:86" ht="9.9499999999999993" customHeight="1">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="21"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="53"/>
       <c r="AI5" s="5"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="75"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
@@ -1444,8 +1615,8 @@
       <c r="BA5" s="6"/>
       <c r="BB5" s="6"/>
       <c r="BC5" s="6"/>
-      <c r="BD5" s="19"/>
-      <c r="BE5" s="19"/>
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="75"/>
       <c r="BG5" s="18"/>
       <c r="BH5" s="16"/>
       <c r="BI5" s="13"/>
@@ -1466,40 +1637,40 @@
       <c r="BX5" s="11"/>
       <c r="BY5" s="9"/>
       <c r="BZ5" s="11"/>
-      <c r="CA5" s="75"/>
-      <c r="CB5" s="76"/>
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="20"/>
       <c r="CC5" s="9"/>
       <c r="CD5" s="11"/>
-      <c r="CE5" s="74"/>
-      <c r="CF5" s="76"/>
+      <c r="CE5" s="21"/>
+      <c r="CF5" s="20"/>
       <c r="CG5" s="9"/>
       <c r="CH5" s="10"/>
     </row>
     <row r="6" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="22"/>
-      <c r="D6" s="37"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="37"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="37"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="22"/>
-      <c r="J6" s="37"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="37"/>
+      <c r="L6" s="47"/>
       <c r="M6" s="22"/>
-      <c r="N6" s="37"/>
+      <c r="N6" s="47"/>
       <c r="O6" s="22"/>
-      <c r="P6" s="37"/>
+      <c r="P6" s="47"/>
       <c r="Q6" s="22"/>
-      <c r="R6" s="37"/>
+      <c r="R6" s="47"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="37"/>
+      <c r="T6" s="47"/>
       <c r="U6" s="22"/>
-      <c r="V6" s="37"/>
+      <c r="V6" s="47"/>
       <c r="W6" s="22"/>
-      <c r="X6" s="37"/>
+      <c r="X6" s="47"/>
       <c r="Y6" s="22"/>
       <c r="Z6" s="23"/>
       <c r="AA6" s="22"/>
@@ -1511,10 +1682,10 @@
       <c r="AG6" s="22"/>
       <c r="AH6" s="23"/>
       <c r="AI6" s="5"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="75"/>
+      <c r="AM6" s="75"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
@@ -1531,34 +1702,34 @@
       <c r="BA6" s="6"/>
       <c r="BB6" s="6"/>
       <c r="BC6" s="6"/>
-      <c r="BD6" s="19"/>
-      <c r="BE6" s="19"/>
+      <c r="BD6" s="75"/>
+      <c r="BE6" s="75"/>
     </row>
     <row r="7" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="37"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="22"/>
-      <c r="F7" s="37"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="37"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="22"/>
-      <c r="J7" s="37"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="37"/>
+      <c r="L7" s="47"/>
       <c r="M7" s="22"/>
-      <c r="N7" s="37"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="22"/>
-      <c r="P7" s="37"/>
+      <c r="P7" s="47"/>
       <c r="Q7" s="22"/>
-      <c r="R7" s="37"/>
+      <c r="R7" s="47"/>
       <c r="S7" s="22"/>
-      <c r="T7" s="37"/>
+      <c r="T7" s="47"/>
       <c r="U7" s="22"/>
-      <c r="V7" s="37"/>
+      <c r="V7" s="47"/>
       <c r="W7" s="22"/>
-      <c r="X7" s="37"/>
+      <c r="X7" s="47"/>
       <c r="Y7" s="22"/>
       <c r="Z7" s="23"/>
       <c r="AA7" s="22"/>
@@ -1570,10 +1741,10 @@
       <c r="AG7" s="22"/>
       <c r="AH7" s="23"/>
       <c r="AI7" s="5"/>
-      <c r="AJ7" s="19"/>
-      <c r="AK7" s="19"/>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="75"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
@@ -1590,81 +1761,81 @@
       <c r="BA7" s="6"/>
       <c r="BB7" s="6"/>
       <c r="BC7" s="6"/>
-      <c r="BD7" s="19"/>
-      <c r="BE7" s="19"/>
-      <c r="BG7" s="51" t="s">
+      <c r="BD7" s="75"/>
+      <c r="BE7" s="75"/>
+      <c r="BG7" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="BH7" s="52"/>
-      <c r="BI7" s="53"/>
-      <c r="BJ7" s="53"/>
-      <c r="BK7" s="53"/>
-      <c r="BL7" s="53"/>
-      <c r="BM7" s="53"/>
-      <c r="BN7" s="51" t="s">
+      <c r="BH7" s="63"/>
+      <c r="BI7" s="64"/>
+      <c r="BJ7" s="64"/>
+      <c r="BK7" s="64"/>
+      <c r="BL7" s="64"/>
+      <c r="BM7" s="64"/>
+      <c r="BN7" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="BO7" s="52"/>
-      <c r="BP7" s="53"/>
-      <c r="BQ7" s="53"/>
-      <c r="BR7" s="53"/>
-      <c r="BS7" s="53"/>
-      <c r="BT7" s="53"/>
-      <c r="BU7" s="53"/>
-      <c r="BV7" s="53"/>
-      <c r="BW7" s="53"/>
-      <c r="BX7" s="53"/>
-      <c r="BY7" s="53"/>
-      <c r="BZ7" s="53"/>
-      <c r="CA7" s="53"/>
-      <c r="CB7" s="53"/>
-      <c r="CC7" s="53"/>
-      <c r="CD7" s="53"/>
-      <c r="CE7" s="53"/>
-      <c r="CF7" s="53"/>
-      <c r="CG7" s="53"/>
-      <c r="CH7" s="53"/>
+      <c r="BO7" s="63"/>
+      <c r="BP7" s="64"/>
+      <c r="BQ7" s="64"/>
+      <c r="BR7" s="64"/>
+      <c r="BS7" s="64"/>
+      <c r="BT7" s="64"/>
+      <c r="BU7" s="64"/>
+      <c r="BV7" s="64"/>
+      <c r="BW7" s="64"/>
+      <c r="BX7" s="64"/>
+      <c r="BY7" s="64"/>
+      <c r="BZ7" s="64"/>
+      <c r="CA7" s="64"/>
+      <c r="CB7" s="64"/>
+      <c r="CC7" s="64"/>
+      <c r="CD7" s="64"/>
+      <c r="CE7" s="64"/>
+      <c r="CF7" s="64"/>
+      <c r="CG7" s="64"/>
+      <c r="CH7" s="64"/>
     </row>
     <row r="8" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="1"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="70"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="72"/>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="72"/>
-      <c r="BC8" s="72"/>
-      <c r="BD8" s="73"/>
-      <c r="BE8" s="73"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="78"/>
+      <c r="AM8" s="79"/>
+      <c r="AN8" s="79"/>
+      <c r="AO8" s="79"/>
+      <c r="AP8" s="79"/>
+      <c r="AQ8" s="79"/>
+      <c r="AR8" s="79"/>
+      <c r="AS8" s="79"/>
+      <c r="AT8" s="79"/>
+      <c r="AU8" s="79"/>
+      <c r="AV8" s="79"/>
+      <c r="AW8" s="79"/>
+      <c r="AX8" s="79"/>
+      <c r="AY8" s="79"/>
+      <c r="AZ8" s="79"/>
+      <c r="BA8" s="79"/>
+      <c r="BB8" s="79"/>
+      <c r="BC8" s="79"/>
+      <c r="BD8" s="80"/>
+      <c r="BE8" s="80"/>
     </row>
-    <row r="9" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
       <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
@@ -1674,244 +1845,245 @@
       <c r="C9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="67"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="81"/>
       <c r="AD9" s="24" t="s">
         <v>7</v>
       </c>
       <c r="AE9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="28" t="s">
+      <c r="AF9" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="28"/>
-      <c r="AL9" s="28"/>
-      <c r="AM9" s="28"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AP9" s="28"/>
-      <c r="AQ9" s="28"/>
-      <c r="AR9" s="28"/>
-      <c r="AS9" s="28"/>
-      <c r="AT9" s="28"/>
-      <c r="AU9" s="28"/>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="67"/>
-      <c r="AX9" s="28"/>
-      <c r="AY9" s="67"/>
-      <c r="AZ9" s="28"/>
-      <c r="BA9" s="67"/>
-      <c r="BB9" s="28"/>
-      <c r="BC9" s="67"/>
-      <c r="BD9" s="28"/>
-      <c r="BE9" s="67"/>
-      <c r="BG9" s="51" t="s">
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="30"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="30"/>
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="84"/>
+      <c r="BG9" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="BH9" s="52"/>
-      <c r="BI9" s="53"/>
-      <c r="BJ9" s="53"/>
-      <c r="BK9" s="53"/>
-      <c r="BL9" s="51" t="s">
+      <c r="BH9" s="63"/>
+      <c r="BI9" s="64"/>
+      <c r="BJ9" s="64"/>
+      <c r="BK9" s="64"/>
+      <c r="BL9" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="BM9" s="52"/>
-      <c r="BN9" s="53"/>
-      <c r="BO9" s="53"/>
-      <c r="BP9" s="53"/>
-      <c r="BQ9" s="51" t="s">
+      <c r="BM9" s="63"/>
+      <c r="BN9" s="64"/>
+      <c r="BO9" s="64"/>
+      <c r="BP9" s="64"/>
+      <c r="BQ9" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="52"/>
-      <c r="BS9" s="52"/>
-      <c r="BT9" s="53"/>
-      <c r="BU9" s="53"/>
-      <c r="BV9" s="53"/>
-      <c r="BW9" s="51" t="s">
+      <c r="BR9" s="63"/>
+      <c r="BS9" s="63"/>
+      <c r="BT9" s="64"/>
+      <c r="BU9" s="64"/>
+      <c r="BV9" s="64"/>
+      <c r="BW9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="BX9" s="52"/>
-      <c r="BY9" s="52"/>
-      <c r="BZ9" s="52"/>
-      <c r="CA9" s="52"/>
-      <c r="CB9" s="52"/>
-      <c r="CC9" s="52"/>
-      <c r="CD9" s="52"/>
-      <c r="CE9" s="52"/>
-      <c r="CF9" s="52"/>
-      <c r="CG9" s="53"/>
-      <c r="CH9" s="53"/>
+      <c r="BX9" s="63"/>
+      <c r="BY9" s="63"/>
+      <c r="BZ9" s="63"/>
+      <c r="CA9" s="63"/>
+      <c r="CB9" s="63"/>
+      <c r="CC9" s="63"/>
+      <c r="CD9" s="63"/>
+      <c r="CE9" s="63"/>
+      <c r="CF9" s="63"/>
+      <c r="CG9" s="64"/>
+      <c r="CH9" s="64"/>
     </row>
-    <row r="10" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
+    <row r="10" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
       <c r="A10" s="25"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="68"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="68"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="82"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="27"/>
-      <c r="AF10" s="29" t="s">
+      <c r="AF10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="29"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="29"/>
-      <c r="AS10" s="29"/>
-      <c r="AT10" s="29"/>
-      <c r="AU10" s="29"/>
-      <c r="AV10" s="29"/>
-      <c r="AW10" s="68"/>
-      <c r="AX10" s="29"/>
-      <c r="AY10" s="68"/>
-      <c r="AZ10" s="29"/>
-      <c r="BA10" s="68"/>
-      <c r="BB10" s="29"/>
-      <c r="BC10" s="68"/>
-      <c r="BD10" s="29"/>
-      <c r="BE10" s="68"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="33"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="33"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="33"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="33"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="33"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="33"/>
+      <c r="AX10" s="32"/>
+      <c r="AY10" s="33"/>
+      <c r="AZ10" s="32"/>
+      <c r="BA10" s="33"/>
+      <c r="BB10" s="32"/>
+      <c r="BC10" s="33"/>
+      <c r="BD10" s="88"/>
+      <c r="BE10" s="88"/>
     </row>
     <row r="11" spans="1:86" ht="9.75" customHeight="1" thickTop="1">
-      <c r="BG11" s="42" t="s">
+      <c r="BG11" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="BH11" s="42"/>
+      <c r="BH11" s="89"/>
       <c r="BI11" s="7"/>
       <c r="BJ11" s="7"/>
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
       <c r="BM11" s="7"/>
       <c r="BN11" s="7"/>
-      <c r="BO11" s="58"/>
-      <c r="BP11" s="58"/>
-      <c r="BQ11" s="58"/>
-      <c r="BR11" s="58"/>
-      <c r="BS11" s="58"/>
-      <c r="BT11" s="59"/>
-      <c r="BU11" s="60"/>
-      <c r="BV11" s="61"/>
-      <c r="BW11" s="60"/>
-      <c r="BX11" s="61"/>
-      <c r="BY11" s="60"/>
-      <c r="BZ11" s="61"/>
-      <c r="CA11" s="60"/>
-      <c r="CB11" s="61"/>
-      <c r="CC11" s="60"/>
-      <c r="CD11" s="61"/>
-      <c r="CE11" s="77"/>
-      <c r="CF11" s="78"/>
-      <c r="CG11" s="60"/>
-      <c r="CH11" s="62"/>
+      <c r="BO11" s="69"/>
+      <c r="BP11" s="69"/>
+      <c r="BQ11" s="69"/>
+      <c r="BR11" s="69"/>
+      <c r="BS11" s="69"/>
+      <c r="BT11" s="90"/>
+      <c r="BU11" s="70"/>
+      <c r="BV11" s="71"/>
+      <c r="BW11" s="70"/>
+      <c r="BX11" s="71"/>
+      <c r="BY11" s="70"/>
+      <c r="BZ11" s="71"/>
+      <c r="CA11" s="70"/>
+      <c r="CB11" s="71"/>
+      <c r="CC11" s="70"/>
+      <c r="CD11" s="71"/>
+      <c r="CE11" s="73"/>
+      <c r="CF11" s="74"/>
+      <c r="CG11" s="70"/>
+      <c r="CH11" s="72"/>
     </row>
     <row r="12" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG12" s="54"/>
-      <c r="BH12" s="54"/>
+      <c r="BG12" s="65"/>
+      <c r="BH12" s="65"/>
       <c r="BI12" s="8"/>
       <c r="BJ12" s="8"/>
       <c r="BK12" s="8"/>
       <c r="BL12" s="8"/>
       <c r="BM12" s="8"/>
       <c r="BN12" s="8"/>
-      <c r="BO12" s="55"/>
-      <c r="BP12" s="55"/>
-      <c r="BQ12" s="55"/>
-      <c r="BR12" s="55"/>
-      <c r="BS12" s="55"/>
-      <c r="BT12" s="56"/>
-      <c r="BU12" s="57"/>
-      <c r="BV12" s="56"/>
-      <c r="BW12" s="57"/>
-      <c r="BX12" s="56"/>
-      <c r="BY12" s="57"/>
-      <c r="BZ12" s="56"/>
-      <c r="CA12" s="79"/>
-      <c r="CB12" s="81"/>
-      <c r="CC12" s="57"/>
-      <c r="CD12" s="56"/>
-      <c r="CE12" s="80"/>
-      <c r="CF12" s="81"/>
-      <c r="CG12" s="57"/>
-      <c r="CH12" s="55"/>
+      <c r="BO12" s="66"/>
+      <c r="BP12" s="66"/>
+      <c r="BQ12" s="66"/>
+      <c r="BR12" s="66"/>
+      <c r="BS12" s="66"/>
+      <c r="BT12" s="67"/>
+      <c r="BU12" s="68"/>
+      <c r="BV12" s="67"/>
+      <c r="BW12" s="68"/>
+      <c r="BX12" s="67"/>
+      <c r="BY12" s="68"/>
+      <c r="BZ12" s="67"/>
+      <c r="CA12" s="85"/>
+      <c r="CB12" s="86"/>
+      <c r="CC12" s="68"/>
+      <c r="CD12" s="67"/>
+      <c r="CE12" s="87"/>
+      <c r="CF12" s="86"/>
+      <c r="CG12" s="68"/>
+      <c r="CH12" s="66"/>
     </row>
     <row r="14" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG14" s="43"/>
-      <c r="BH14" s="44"/>
+      <c r="BG14" s="54"/>
+      <c r="BH14" s="55"/>
     </row>
-    <row r="15" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG15" s="45"/>
-      <c r="BH15" s="46"/>
+    <row r="15" spans="1:86" ht="11.45" customHeight="1">
+      <c r="BG15" s="56"/>
+      <c r="BH15" s="57"/>
     </row>
-    <row r="16" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG16" s="47"/>
-      <c r="BH16" s="48"/>
+    <row r="16" spans="1:86" ht="11.45" customHeight="1">
+      <c r="BG16" s="58"/>
+      <c r="BH16" s="59"/>
     </row>
-    <row r="17" spans="59:60" ht="9.75" customHeight="1">
-      <c r="BG17" s="49"/>
-      <c r="BH17" s="50"/>
+    <row r="17" spans="59:60" ht="11.45" customHeight="1">
+      <c r="BG17" s="60"/>
+      <c r="BH17" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="223">
+    <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="CA12:CB12"/>
     <mergeCell ref="CC12:CD12"/>
     <mergeCell ref="CE12:CF12"/>
@@ -1924,6 +2096,11 @@
     <mergeCell ref="AZ10:BA10"/>
     <mergeCell ref="BB10:BC10"/>
     <mergeCell ref="BD10:BE10"/>
+    <mergeCell ref="BY12:BZ12"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BQ11:BR11"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
     <mergeCell ref="AN9:AO9"/>
     <mergeCell ref="AP9:AQ9"/>
     <mergeCell ref="AR9:AS9"/>
@@ -1946,7 +2123,6 @@
     <mergeCell ref="AH10:AI10"/>
     <mergeCell ref="AJ10:AK10"/>
     <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="BY12:BZ12"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="U10:V10"/>
     <mergeCell ref="W9:X9"/>
@@ -1983,12 +2159,17 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AJ5:AK7"/>
     <mergeCell ref="AL5:AM7"/>
     <mergeCell ref="BD5:BE7"/>
     <mergeCell ref="AC7:AD7"/>
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O4:P4"/>
@@ -2010,11 +2191,6 @@
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BO11:BP11"/>
-    <mergeCell ref="BQ11:BR11"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
     <mergeCell ref="CG4:CH4"/>
     <mergeCell ref="BW11:BX11"/>
     <mergeCell ref="CG11:CH11"/>
@@ -2034,8 +2210,6 @@
     <mergeCell ref="CA11:CB11"/>
     <mergeCell ref="CC11:CD11"/>
     <mergeCell ref="CE11:CF11"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BO4:BP4"/>
     <mergeCell ref="BG14:BH14"/>
     <mergeCell ref="BG15:BH17"/>
     <mergeCell ref="BG4:BG5"/>
@@ -2058,6 +2232,8 @@
     <mergeCell ref="CG12:CH12"/>
     <mergeCell ref="BS5:BT5"/>
     <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BO11:BP11"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:T1"/>
     <mergeCell ref="V8:Z8"/>
@@ -2082,11 +2258,12 @@
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="U5:V5"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="CG1:CH1"/>
+    <mergeCell ref="BW1:BX1"/>
+    <mergeCell ref="BY1:BZ1"/>
+    <mergeCell ref="CA1:CB1"/>
+    <mergeCell ref="CC1:CD1"/>
+    <mergeCell ref="CE1:CF1"/>
     <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -2105,19 +2282,6 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="A4:B7"/>
-    <mergeCell ref="BU1:BV1"/>
-    <mergeCell ref="BS1:BT1"/>
-    <mergeCell ref="BQ1:BR1"/>
-    <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="CG1:CH1"/>
-    <mergeCell ref="BW1:BX1"/>
-    <mergeCell ref="BY1:BZ1"/>
-    <mergeCell ref="CA1:CB1"/>
-    <mergeCell ref="CC1:CD1"/>
-    <mergeCell ref="CE1:CF1"/>
     <mergeCell ref="CG2:CH2"/>
     <mergeCell ref="BW2:BX2"/>
     <mergeCell ref="BU2:BV2"/>
@@ -2135,6 +2299,13 @@
     <mergeCell ref="CA2:CB2"/>
     <mergeCell ref="CC2:CD2"/>
     <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="BU1:BV1"/>
+    <mergeCell ref="BS1:BT1"/>
+    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="BI1:BJ1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,14 +148,28 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +188,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="46">
     <border>
@@ -723,54 +743,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -783,69 +789,12 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -870,24 +819,9 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -921,36 +855,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -969,42 +873,160 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="45" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 10" xfId="2"/>
     <cellStyle name="標準 3" xfId="1"/>
@@ -1321,769 +1343,768 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="Q1" zoomScale="280" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="280" workbookViewId="0">
-      <selection activeCell="AL5" sqref="AL5:AM7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="205" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="205" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="57" width="2.42578125" style="2" customWidth="1"/>
-    <col min="58" max="91" width="2.7109375" style="2" customWidth="1"/>
-    <col min="92" max="16384" width="3.140625" style="2"/>
+    <col min="1" max="57" width="2.42578125" style="1" customWidth="1"/>
+    <col min="58" max="91" width="2.7109375" style="1" customWidth="1"/>
+    <col min="92" max="16384" width="3.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="40" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="15"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="14"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="14"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="9"/>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="9"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="9"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="9"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="19"/>
-      <c r="CB1" s="20"/>
-      <c r="CC1" s="9"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="21"/>
-      <c r="CF1" s="20"/>
-      <c r="CG1" s="9"/>
-      <c r="CH1" s="10"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="8"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="6"/>
+      <c r="CH1" s="7"/>
     </row>
     <row r="2" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="16"/>
-      <c r="BI2" s="13"/>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="13"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="9"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="11"/>
-      <c r="BQ2" s="9"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="9"/>
-      <c r="BV2" s="11"/>
-      <c r="BW2" s="9"/>
-      <c r="BX2" s="11"/>
-      <c r="BY2" s="9"/>
-      <c r="BZ2" s="11"/>
-      <c r="CA2" s="19"/>
-      <c r="CB2" s="20"/>
-      <c r="CC2" s="9"/>
-      <c r="CD2" s="11"/>
-      <c r="CE2" s="21"/>
-      <c r="CF2" s="20"/>
-      <c r="CG2" s="9"/>
-      <c r="CH2" s="10"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="BG2" s="13"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="8"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="8"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="8"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="8"/>
+      <c r="CE2" s="7"/>
+      <c r="CF2" s="8"/>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="7"/>
     </row>
     <row r="3" spans="1:86" ht="9.75" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="75"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="75"/>
-      <c r="BE4" s="75"/>
-      <c r="BG4" s="17"/>
-      <c r="BH4" s="15"/>
-      <c r="BI4" s="13"/>
-      <c r="BJ4" s="14"/>
-      <c r="BK4" s="13"/>
-      <c r="BL4" s="14"/>
-      <c r="BM4" s="9"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="9"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="9"/>
-      <c r="BR4" s="11"/>
-      <c r="BS4" s="9"/>
-      <c r="BT4" s="11"/>
-      <c r="BU4" s="9"/>
-      <c r="BV4" s="11"/>
-      <c r="BW4" s="9"/>
-      <c r="BX4" s="11"/>
-      <c r="BY4" s="9"/>
-      <c r="BZ4" s="11"/>
-      <c r="CA4" s="19"/>
-      <c r="CB4" s="20"/>
-      <c r="CC4" s="9"/>
-      <c r="CD4" s="11"/>
-      <c r="CE4" s="21"/>
-      <c r="CF4" s="20"/>
-      <c r="CG4" s="9"/>
-      <c r="CH4" s="10"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="44"/>
+      <c r="BI4" s="46"/>
+      <c r="BJ4" s="47"/>
+      <c r="BK4" s="46"/>
+      <c r="BL4" s="47"/>
+      <c r="BM4" s="46"/>
+      <c r="BN4" s="47"/>
+      <c r="BO4" s="46"/>
+      <c r="BP4" s="47"/>
+      <c r="BQ4" s="46"/>
+      <c r="BR4" s="47"/>
+      <c r="BS4" s="46"/>
+      <c r="BT4" s="47"/>
+      <c r="BU4" s="46"/>
+      <c r="BV4" s="47"/>
+      <c r="BW4" s="46"/>
+      <c r="BX4" s="47"/>
+      <c r="BY4" s="46"/>
+      <c r="BZ4" s="47"/>
+      <c r="CA4" s="46"/>
+      <c r="CB4" s="47"/>
+      <c r="CC4" s="46"/>
+      <c r="CD4" s="47"/>
+      <c r="CE4" s="48"/>
+      <c r="CF4" s="47"/>
+      <c r="CG4" s="46"/>
+      <c r="CH4" s="48"/>
     </row>
     <row r="5" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="50" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="75"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="6"/>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="6"/>
-      <c r="AY5" s="6"/>
-      <c r="AZ5" s="6"/>
-      <c r="BA5" s="6"/>
-      <c r="BB5" s="6"/>
-      <c r="BC5" s="6"/>
-      <c r="BD5" s="75"/>
-      <c r="BE5" s="75"/>
-      <c r="BG5" s="18"/>
-      <c r="BH5" s="16"/>
-      <c r="BI5" s="13"/>
-      <c r="BJ5" s="14"/>
-      <c r="BK5" s="13"/>
-      <c r="BL5" s="14"/>
-      <c r="BM5" s="9"/>
-      <c r="BN5" s="11"/>
-      <c r="BO5" s="9"/>
-      <c r="BP5" s="11"/>
-      <c r="BQ5" s="9"/>
-      <c r="BR5" s="11"/>
-      <c r="BS5" s="9"/>
-      <c r="BT5" s="11"/>
-      <c r="BU5" s="9"/>
-      <c r="BV5" s="11"/>
-      <c r="BW5" s="9"/>
-      <c r="BX5" s="11"/>
-      <c r="BY5" s="9"/>
-      <c r="BZ5" s="11"/>
-      <c r="CA5" s="19"/>
-      <c r="CB5" s="20"/>
-      <c r="CC5" s="9"/>
-      <c r="CD5" s="11"/>
-      <c r="CE5" s="21"/>
-      <c r="CF5" s="20"/>
-      <c r="CG5" s="9"/>
-      <c r="CH5" s="10"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="45"/>
+      <c r="BI5" s="46"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="46"/>
+      <c r="BL5" s="47"/>
+      <c r="BM5" s="46"/>
+      <c r="BN5" s="47"/>
+      <c r="BO5" s="46"/>
+      <c r="BP5" s="47"/>
+      <c r="BQ5" s="46"/>
+      <c r="BR5" s="47"/>
+      <c r="BS5" s="46"/>
+      <c r="BT5" s="47"/>
+      <c r="BU5" s="46"/>
+      <c r="BV5" s="47"/>
+      <c r="BW5" s="46"/>
+      <c r="BX5" s="47"/>
+      <c r="BY5" s="46"/>
+      <c r="BZ5" s="47"/>
+      <c r="CA5" s="46"/>
+      <c r="CB5" s="47"/>
+      <c r="CC5" s="46"/>
+      <c r="CD5" s="47"/>
+      <c r="CE5" s="48"/>
+      <c r="CF5" s="47"/>
+      <c r="CG5" s="46"/>
+      <c r="CH5" s="48"/>
     </row>
     <row r="6" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="75"/>
-      <c r="AM6" s="75"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="6"/>
-      <c r="AW6" s="6"/>
-      <c r="AX6" s="6"/>
-      <c r="AY6" s="6"/>
-      <c r="AZ6" s="6"/>
-      <c r="BA6" s="6"/>
-      <c r="BB6" s="6"/>
-      <c r="BC6" s="6"/>
-      <c r="BD6" s="75"/>
-      <c r="BE6" s="75"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="36"/>
+      <c r="BE6" s="36"/>
     </row>
     <row r="7" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="6"/>
-      <c r="BB7" s="6"/>
-      <c r="BC7" s="6"/>
-      <c r="BD7" s="75"/>
-      <c r="BE7" s="75"/>
-      <c r="BG7" s="62" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="36"/>
+      <c r="BE7" s="36"/>
+      <c r="BG7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="BH7" s="63"/>
-      <c r="BI7" s="64"/>
-      <c r="BJ7" s="64"/>
-      <c r="BK7" s="64"/>
-      <c r="BL7" s="64"/>
-      <c r="BM7" s="64"/>
-      <c r="BN7" s="62" t="s">
+      <c r="BH7" s="34"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="35"/>
+      <c r="BK7" s="35"/>
+      <c r="BL7" s="35"/>
+      <c r="BM7" s="35"/>
+      <c r="BN7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="BO7" s="63"/>
-      <c r="BP7" s="64"/>
-      <c r="BQ7" s="64"/>
-      <c r="BR7" s="64"/>
-      <c r="BS7" s="64"/>
-      <c r="BT7" s="64"/>
-      <c r="BU7" s="64"/>
-      <c r="BV7" s="64"/>
-      <c r="BW7" s="64"/>
-      <c r="BX7" s="64"/>
-      <c r="BY7" s="64"/>
-      <c r="BZ7" s="64"/>
-      <c r="CA7" s="64"/>
-      <c r="CB7" s="64"/>
-      <c r="CC7" s="64"/>
-      <c r="CD7" s="64"/>
-      <c r="CE7" s="64"/>
-      <c r="CF7" s="64"/>
-      <c r="CG7" s="64"/>
-      <c r="CH7" s="64"/>
+      <c r="BO7" s="34"/>
+      <c r="BP7" s="35"/>
+      <c r="BQ7" s="35"/>
+      <c r="BR7" s="35"/>
+      <c r="BS7" s="35"/>
+      <c r="BT7" s="35"/>
+      <c r="BU7" s="35"/>
+      <c r="BV7" s="35"/>
+      <c r="BW7" s="35"/>
+      <c r="BX7" s="35"/>
+      <c r="BY7" s="35"/>
+      <c r="BZ7" s="35"/>
+      <c r="CA7" s="35"/>
+      <c r="CB7" s="35"/>
+      <c r="CC7" s="35"/>
+      <c r="CD7" s="35"/>
+      <c r="CE7" s="35"/>
+      <c r="CF7" s="35"/>
+      <c r="CG7" s="35"/>
+      <c r="CH7" s="35"/>
     </row>
     <row r="8" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="U8" s="1"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="46"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="77"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="78"/>
-      <c r="AM8" s="79"/>
-      <c r="AN8" s="79"/>
-      <c r="AO8" s="79"/>
-      <c r="AP8" s="79"/>
-      <c r="AQ8" s="79"/>
-      <c r="AR8" s="79"/>
-      <c r="AS8" s="79"/>
-      <c r="AT8" s="79"/>
-      <c r="AU8" s="79"/>
-      <c r="AV8" s="79"/>
-      <c r="AW8" s="79"/>
-      <c r="AX8" s="79"/>
-      <c r="AY8" s="79"/>
-      <c r="AZ8" s="79"/>
-      <c r="BA8" s="79"/>
-      <c r="BB8" s="79"/>
-      <c r="BC8" s="79"/>
-      <c r="BD8" s="80"/>
-      <c r="BE8" s="80"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="40"/>
+      <c r="AN8" s="40"/>
+      <c r="AO8" s="40"/>
+      <c r="AP8" s="40"/>
+      <c r="AQ8" s="40"/>
+      <c r="AR8" s="40"/>
+      <c r="AS8" s="40"/>
+      <c r="AT8" s="40"/>
+      <c r="AU8" s="40"/>
+      <c r="AV8" s="40"/>
+      <c r="AW8" s="40"/>
+      <c r="AX8" s="40"/>
+      <c r="AY8" s="40"/>
+      <c r="AZ8" s="40"/>
+      <c r="BA8" s="40"/>
+      <c r="BB8" s="40"/>
+      <c r="BC8" s="40"/>
+      <c r="BD8" s="41"/>
+      <c r="BE8" s="41"/>
     </row>
     <row r="9" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="81"/>
-      <c r="AD9" s="24" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="64"/>
+      <c r="AD9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="AE9" s="26" t="s">
+      <c r="AE9" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="83" t="s">
+      <c r="AF9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="30"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="30"/>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="30"/>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="30"/>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="84"/>
-      <c r="BG9" s="62" t="s">
+      <c r="AG9" s="65"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="62"/>
+      <c r="AM9" s="63"/>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="63"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="63"/>
+      <c r="AR9" s="62"/>
+      <c r="AS9" s="63"/>
+      <c r="AT9" s="62"/>
+      <c r="AU9" s="63"/>
+      <c r="AV9" s="62"/>
+      <c r="AW9" s="63"/>
+      <c r="AX9" s="62"/>
+      <c r="AY9" s="63"/>
+      <c r="AZ9" s="62"/>
+      <c r="BA9" s="63"/>
+      <c r="BB9" s="62"/>
+      <c r="BC9" s="63"/>
+      <c r="BD9" s="65"/>
+      <c r="BE9" s="66"/>
+      <c r="BG9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="BH9" s="63"/>
-      <c r="BI9" s="64"/>
-      <c r="BJ9" s="64"/>
-      <c r="BK9" s="64"/>
-      <c r="BL9" s="62" t="s">
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35"/>
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="BM9" s="63"/>
-      <c r="BN9" s="64"/>
-      <c r="BO9" s="64"/>
-      <c r="BP9" s="64"/>
-      <c r="BQ9" s="62" t="s">
+      <c r="BM9" s="34"/>
+      <c r="BN9" s="35"/>
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="63"/>
-      <c r="BS9" s="63"/>
-      <c r="BT9" s="64"/>
-      <c r="BU9" s="64"/>
-      <c r="BV9" s="64"/>
-      <c r="BW9" s="62" t="s">
+      <c r="BR9" s="34"/>
+      <c r="BS9" s="34"/>
+      <c r="BT9" s="35"/>
+      <c r="BU9" s="35"/>
+      <c r="BV9" s="35"/>
+      <c r="BW9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="BX9" s="63"/>
-      <c r="BY9" s="63"/>
-      <c r="BZ9" s="63"/>
-      <c r="CA9" s="63"/>
-      <c r="CB9" s="63"/>
-      <c r="CC9" s="63"/>
-      <c r="CD9" s="63"/>
-      <c r="CE9" s="63"/>
-      <c r="CF9" s="63"/>
-      <c r="CG9" s="64"/>
-      <c r="CH9" s="64"/>
+      <c r="BX9" s="34"/>
+      <c r="BY9" s="34"/>
+      <c r="BZ9" s="34"/>
+      <c r="CA9" s="34"/>
+      <c r="CB9" s="34"/>
+      <c r="CC9" s="34"/>
+      <c r="CD9" s="34"/>
+      <c r="CE9" s="34"/>
+      <c r="CF9" s="34"/>
+      <c r="CG9" s="35"/>
+      <c r="CH9" s="35"/>
     </row>
     <row r="10" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="34" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="82"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="34" t="s">
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="73"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="32"/>
-      <c r="AO10" s="33"/>
-      <c r="AP10" s="32"/>
-      <c r="AQ10" s="33"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="33"/>
-      <c r="AT10" s="32"/>
-      <c r="AU10" s="33"/>
-      <c r="AV10" s="32"/>
-      <c r="AW10" s="33"/>
-      <c r="AX10" s="32"/>
-      <c r="AY10" s="33"/>
-      <c r="AZ10" s="32"/>
-      <c r="BA10" s="33"/>
-      <c r="BB10" s="32"/>
-      <c r="BC10" s="33"/>
-      <c r="BD10" s="88"/>
-      <c r="BE10" s="88"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="72"/>
+      <c r="AN10" s="71"/>
+      <c r="AO10" s="72"/>
+      <c r="AP10" s="71"/>
+      <c r="AQ10" s="72"/>
+      <c r="AR10" s="71"/>
+      <c r="AS10" s="72"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="72"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="72"/>
+      <c r="AX10" s="71"/>
+      <c r="AY10" s="72"/>
+      <c r="AZ10" s="71"/>
+      <c r="BA10" s="72"/>
+      <c r="BB10" s="71"/>
+      <c r="BC10" s="72"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="74"/>
     </row>
     <row r="11" spans="1:86" ht="9.75" customHeight="1" thickTop="1">
-      <c r="BG11" s="89" t="s">
+      <c r="BG11" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="BH11" s="89"/>
-      <c r="BI11" s="7"/>
-      <c r="BJ11" s="7"/>
-      <c r="BK11" s="7"/>
-      <c r="BL11" s="7"/>
-      <c r="BM11" s="7"/>
-      <c r="BN11" s="7"/>
-      <c r="BO11" s="69"/>
-      <c r="BP11" s="69"/>
-      <c r="BQ11" s="69"/>
-      <c r="BR11" s="69"/>
-      <c r="BS11" s="69"/>
-      <c r="BT11" s="90"/>
-      <c r="BU11" s="70"/>
-      <c r="BV11" s="71"/>
-      <c r="BW11" s="70"/>
-      <c r="BX11" s="71"/>
-      <c r="BY11" s="70"/>
-      <c r="BZ11" s="71"/>
-      <c r="CA11" s="70"/>
-      <c r="CB11" s="71"/>
-      <c r="CC11" s="70"/>
-      <c r="CD11" s="71"/>
-      <c r="CE11" s="73"/>
-      <c r="CF11" s="74"/>
-      <c r="CG11" s="70"/>
-      <c r="CH11" s="72"/>
+      <c r="BH11" s="75"/>
+      <c r="BI11" s="76"/>
+      <c r="BJ11" s="76"/>
+      <c r="BK11" s="76"/>
+      <c r="BL11" s="76"/>
+      <c r="BM11" s="76"/>
+      <c r="BN11" s="76"/>
+      <c r="BO11" s="77"/>
+      <c r="BP11" s="77"/>
+      <c r="BQ11" s="77"/>
+      <c r="BR11" s="77"/>
+      <c r="BS11" s="77"/>
+      <c r="BT11" s="78"/>
+      <c r="BU11" s="79"/>
+      <c r="BV11" s="80"/>
+      <c r="BW11" s="79"/>
+      <c r="BX11" s="80"/>
+      <c r="BY11" s="79"/>
+      <c r="BZ11" s="80"/>
+      <c r="CA11" s="79"/>
+      <c r="CB11" s="80"/>
+      <c r="CC11" s="79"/>
+      <c r="CD11" s="80"/>
+      <c r="CE11" s="81"/>
+      <c r="CF11" s="82"/>
+      <c r="CG11" s="79"/>
+      <c r="CH11" s="83"/>
     </row>
     <row r="12" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG12" s="65"/>
-      <c r="BH12" s="65"/>
-      <c r="BI12" s="8"/>
-      <c r="BJ12" s="8"/>
-      <c r="BK12" s="8"/>
-      <c r="BL12" s="8"/>
-      <c r="BM12" s="8"/>
-      <c r="BN12" s="8"/>
-      <c r="BO12" s="66"/>
-      <c r="BP12" s="66"/>
-      <c r="BQ12" s="66"/>
-      <c r="BR12" s="66"/>
-      <c r="BS12" s="66"/>
-      <c r="BT12" s="67"/>
-      <c r="BU12" s="68"/>
-      <c r="BV12" s="67"/>
-      <c r="BW12" s="68"/>
-      <c r="BX12" s="67"/>
-      <c r="BY12" s="68"/>
-      <c r="BZ12" s="67"/>
-      <c r="CA12" s="85"/>
-      <c r="CB12" s="86"/>
-      <c r="CC12" s="68"/>
-      <c r="CD12" s="67"/>
-      <c r="CE12" s="87"/>
-      <c r="CF12" s="86"/>
-      <c r="CG12" s="68"/>
-      <c r="CH12" s="66"/>
+      <c r="BG12" s="84"/>
+      <c r="BH12" s="84"/>
+      <c r="BI12" s="85"/>
+      <c r="BJ12" s="85"/>
+      <c r="BK12" s="85"/>
+      <c r="BL12" s="85"/>
+      <c r="BM12" s="85"/>
+      <c r="BN12" s="85"/>
+      <c r="BO12" s="86"/>
+      <c r="BP12" s="86"/>
+      <c r="BQ12" s="86"/>
+      <c r="BR12" s="86"/>
+      <c r="BS12" s="86"/>
+      <c r="BT12" s="87"/>
+      <c r="BU12" s="88"/>
+      <c r="BV12" s="87"/>
+      <c r="BW12" s="88"/>
+      <c r="BX12" s="87"/>
+      <c r="BY12" s="88"/>
+      <c r="BZ12" s="87"/>
+      <c r="CA12" s="89"/>
+      <c r="CB12" s="90"/>
+      <c r="CC12" s="88"/>
+      <c r="CD12" s="87"/>
+      <c r="CE12" s="91"/>
+      <c r="CF12" s="90"/>
+      <c r="CG12" s="88"/>
+      <c r="CH12" s="86"/>
     </row>
     <row r="14" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG14" s="54"/>
-      <c r="BH14" s="55"/>
+      <c r="BG14" s="25"/>
+      <c r="BH14" s="26"/>
     </row>
     <row r="15" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG15" s="56"/>
-      <c r="BH15" s="57"/>
+      <c r="BG15" s="27"/>
+      <c r="BH15" s="28"/>
     </row>
     <row r="16" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG16" s="58"/>
-      <c r="BH16" s="59"/>
+      <c r="BG16" s="29"/>
+      <c r="BH16" s="30"/>
     </row>
     <row r="17" spans="59:60" ht="11.45" customHeight="1">
-      <c r="BG17" s="60"/>
-      <c r="BH17" s="61"/>
+      <c r="BG17" s="31"/>
+      <c r="BH17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="223">
-    <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="CA12:CB12"/>
     <mergeCell ref="CC12:CD12"/>
     <mergeCell ref="CE12:CF12"/>
@@ -2101,12 +2122,6 @@
     <mergeCell ref="BQ11:BR11"/>
     <mergeCell ref="BS11:BT11"/>
     <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
     <mergeCell ref="AZ9:BA9"/>
     <mergeCell ref="BB9:BC9"/>
     <mergeCell ref="BD9:BE9"/>
@@ -2123,6 +2138,12 @@
     <mergeCell ref="AH10:AI10"/>
     <mergeCell ref="AJ10:AK10"/>
     <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="U10:V10"/>
     <mergeCell ref="W9:X9"/>
@@ -2170,6 +2191,7 @@
     <mergeCell ref="BD4:BE4"/>
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O4:P4"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,20 +154,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -765,6 +751,12 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -795,6 +787,54 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -819,9 +859,24 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -845,6 +900,24 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -855,6 +928,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -873,155 +979,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1343,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="205" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="205" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:R5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="BF1" zoomScale="205" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="205" workbookViewId="0">
+      <selection activeCell="CG10" sqref="CG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1355,122 +1341,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="16" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="8"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="8"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="8"/>
-      <c r="BY1" s="6"/>
-      <c r="BZ1" s="8"/>
-      <c r="CA1" s="6"/>
-      <c r="CB1" s="8"/>
-      <c r="CC1" s="6"/>
-      <c r="CD1" s="8"/>
-      <c r="CE1" s="7"/>
-      <c r="CF1" s="8"/>
-      <c r="CG1" s="6"/>
-      <c r="CH1" s="7"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="BG1" s="14"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="10"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="10"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="10"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="10"/>
+      <c r="BS1" s="8"/>
+      <c r="BT1" s="10"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="10"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="10"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="10"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="10"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="10"/>
+      <c r="CE1" s="9"/>
+      <c r="CF1" s="10"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="9"/>
     </row>
     <row r="2" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="BG2" s="13"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="8"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="8"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="8"/>
-      <c r="BS2" s="6"/>
-      <c r="BT2" s="8"/>
-      <c r="BU2" s="6"/>
-      <c r="BV2" s="8"/>
-      <c r="BW2" s="6"/>
-      <c r="BX2" s="8"/>
-      <c r="BY2" s="6"/>
-      <c r="BZ2" s="8"/>
-      <c r="CA2" s="6"/>
-      <c r="CB2" s="8"/>
-      <c r="CC2" s="6"/>
-      <c r="CD2" s="8"/>
-      <c r="CE2" s="7"/>
-      <c r="CF2" s="8"/>
-      <c r="CG2" s="6"/>
-      <c r="CH2" s="7"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="10"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="10"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="10"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="10"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="10"/>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="10"/>
+      <c r="BU2" s="8"/>
+      <c r="BV2" s="10"/>
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="10"/>
+      <c r="BY2" s="8"/>
+      <c r="BZ2" s="10"/>
+      <c r="CA2" s="8"/>
+      <c r="CB2" s="10"/>
+      <c r="CC2" s="8"/>
+      <c r="CD2" s="10"/>
+      <c r="CE2" s="9"/>
+      <c r="CF2" s="10"/>
+      <c r="CG2" s="8"/>
+      <c r="CH2" s="9"/>
     </row>
     <row r="3" spans="1:86" ht="9.75" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1489,49 +1475,49 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="55"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="47"/>
       <c r="AI4" s="3"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
       <c r="AP4" s="5"/>
@@ -1548,79 +1534,79 @@
       <c r="BA4" s="5"/>
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BG4" s="42"/>
-      <c r="BH4" s="44"/>
-      <c r="BI4" s="46"/>
-      <c r="BJ4" s="47"/>
-      <c r="BK4" s="46"/>
-      <c r="BL4" s="47"/>
-      <c r="BM4" s="46"/>
-      <c r="BN4" s="47"/>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="47"/>
-      <c r="BQ4" s="46"/>
-      <c r="BR4" s="47"/>
-      <c r="BS4" s="46"/>
-      <c r="BT4" s="47"/>
-      <c r="BU4" s="46"/>
-      <c r="BV4" s="47"/>
-      <c r="BW4" s="46"/>
-      <c r="BX4" s="47"/>
-      <c r="BY4" s="46"/>
-      <c r="BZ4" s="47"/>
-      <c r="CA4" s="46"/>
-      <c r="CB4" s="47"/>
-      <c r="CC4" s="46"/>
-      <c r="CD4" s="47"/>
-      <c r="CE4" s="48"/>
-      <c r="CF4" s="47"/>
-      <c r="CG4" s="46"/>
-      <c r="CH4" s="48"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BG4" s="56"/>
+      <c r="BH4" s="58"/>
+      <c r="BI4" s="60"/>
+      <c r="BJ4" s="61"/>
+      <c r="BK4" s="60"/>
+      <c r="BL4" s="61"/>
+      <c r="BM4" s="60"/>
+      <c r="BN4" s="61"/>
+      <c r="BO4" s="60"/>
+      <c r="BP4" s="61"/>
+      <c r="BQ4" s="60"/>
+      <c r="BR4" s="61"/>
+      <c r="BS4" s="60"/>
+      <c r="BT4" s="61"/>
+      <c r="BU4" s="60"/>
+      <c r="BV4" s="61"/>
+      <c r="BW4" s="60"/>
+      <c r="BX4" s="61"/>
+      <c r="BY4" s="60"/>
+      <c r="BZ4" s="61"/>
+      <c r="CA4" s="60"/>
+      <c r="CB4" s="61"/>
+      <c r="CC4" s="60"/>
+      <c r="CD4" s="61"/>
+      <c r="CE4" s="69"/>
+      <c r="CF4" s="61"/>
+      <c r="CG4" s="60"/>
+      <c r="CH4" s="69"/>
     </row>
     <row r="5" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="55"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="47"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
+      <c r="AL5" s="76"/>
+      <c r="AM5" s="76"/>
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
       <c r="AP5" s="5"/>
@@ -1637,77 +1623,77 @@
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="36"/>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="45"/>
-      <c r="BI5" s="46"/>
-      <c r="BJ5" s="47"/>
-      <c r="BK5" s="46"/>
-      <c r="BL5" s="47"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="47"/>
-      <c r="BO5" s="46"/>
-      <c r="BP5" s="47"/>
-      <c r="BQ5" s="46"/>
-      <c r="BR5" s="47"/>
-      <c r="BS5" s="46"/>
-      <c r="BT5" s="47"/>
-      <c r="BU5" s="46"/>
-      <c r="BV5" s="47"/>
-      <c r="BW5" s="46"/>
-      <c r="BX5" s="47"/>
-      <c r="BY5" s="46"/>
-      <c r="BZ5" s="47"/>
-      <c r="CA5" s="46"/>
-      <c r="CB5" s="47"/>
-      <c r="CC5" s="46"/>
-      <c r="CD5" s="47"/>
-      <c r="CE5" s="48"/>
-      <c r="CF5" s="47"/>
-      <c r="CG5" s="46"/>
-      <c r="CH5" s="48"/>
+      <c r="BD5" s="76"/>
+      <c r="BE5" s="76"/>
+      <c r="BG5" s="57"/>
+      <c r="BH5" s="59"/>
+      <c r="BI5" s="60"/>
+      <c r="BJ5" s="61"/>
+      <c r="BK5" s="60"/>
+      <c r="BL5" s="61"/>
+      <c r="BM5" s="60"/>
+      <c r="BN5" s="61"/>
+      <c r="BO5" s="60"/>
+      <c r="BP5" s="61"/>
+      <c r="BQ5" s="60"/>
+      <c r="BR5" s="61"/>
+      <c r="BS5" s="60"/>
+      <c r="BT5" s="61"/>
+      <c r="BU5" s="60"/>
+      <c r="BV5" s="61"/>
+      <c r="BW5" s="60"/>
+      <c r="BX5" s="61"/>
+      <c r="BY5" s="60"/>
+      <c r="BZ5" s="61"/>
+      <c r="CA5" s="60"/>
+      <c r="CB5" s="61"/>
+      <c r="CC5" s="60"/>
+      <c r="CD5" s="61"/>
+      <c r="CE5" s="69"/>
+      <c r="CF5" s="61"/>
+      <c r="CG5" s="60"/>
+      <c r="CH5" s="69"/>
     </row>
     <row r="6" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="15"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="17"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="5"/>
@@ -1724,49 +1710,49 @@
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
-      <c r="BD6" s="36"/>
-      <c r="BE6" s="36"/>
+      <c r="BD6" s="76"/>
+      <c r="BE6" s="76"/>
     </row>
     <row r="7" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="15"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="17"/>
       <c r="AI7" s="3"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="36"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="76"/>
+      <c r="AM7" s="76"/>
       <c r="AN7" s="5"/>
       <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
@@ -1783,325 +1769,325 @@
       <c r="BA7" s="5"/>
       <c r="BB7" s="5"/>
       <c r="BC7" s="5"/>
-      <c r="BD7" s="36"/>
-      <c r="BE7" s="36"/>
-      <c r="BG7" s="33" t="s">
+      <c r="BD7" s="76"/>
+      <c r="BE7" s="76"/>
+      <c r="BG7" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="BH7" s="34"/>
-      <c r="BI7" s="35"/>
-      <c r="BJ7" s="35"/>
-      <c r="BK7" s="35"/>
-      <c r="BL7" s="35"/>
-      <c r="BM7" s="35"/>
-      <c r="BN7" s="33" t="s">
+      <c r="BH7" s="63"/>
+      <c r="BI7" s="64"/>
+      <c r="BJ7" s="64"/>
+      <c r="BK7" s="64"/>
+      <c r="BL7" s="64"/>
+      <c r="BM7" s="64"/>
+      <c r="BN7" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="BO7" s="34"/>
-      <c r="BP7" s="35"/>
-      <c r="BQ7" s="35"/>
-      <c r="BR7" s="35"/>
-      <c r="BS7" s="35"/>
-      <c r="BT7" s="35"/>
-      <c r="BU7" s="35"/>
-      <c r="BV7" s="35"/>
-      <c r="BW7" s="35"/>
-      <c r="BX7" s="35"/>
-      <c r="BY7" s="35"/>
-      <c r="BZ7" s="35"/>
-      <c r="CA7" s="35"/>
-      <c r="CB7" s="35"/>
-      <c r="CC7" s="35"/>
-      <c r="CD7" s="35"/>
-      <c r="CE7" s="35"/>
-      <c r="CF7" s="35"/>
-      <c r="CG7" s="35"/>
-      <c r="CH7" s="35"/>
+      <c r="BO7" s="63"/>
+      <c r="BP7" s="64"/>
+      <c r="BQ7" s="64"/>
+      <c r="BR7" s="64"/>
+      <c r="BS7" s="64"/>
+      <c r="BT7" s="64"/>
+      <c r="BU7" s="64"/>
+      <c r="BV7" s="64"/>
+      <c r="BW7" s="64"/>
+      <c r="BX7" s="64"/>
+      <c r="BY7" s="64"/>
+      <c r="BZ7" s="64"/>
+      <c r="CA7" s="64"/>
+      <c r="CB7" s="64"/>
+      <c r="CC7" s="64"/>
+      <c r="CD7" s="64"/>
+      <c r="CE7" s="64"/>
+      <c r="CF7" s="64"/>
+      <c r="CG7" s="64"/>
+      <c r="CH7" s="64"/>
     </row>
     <row r="8" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="4"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="40"/>
-      <c r="AN8" s="40"/>
-      <c r="AO8" s="40"/>
-      <c r="AP8" s="40"/>
-      <c r="AQ8" s="40"/>
-      <c r="AR8" s="40"/>
-      <c r="AS8" s="40"/>
-      <c r="AT8" s="40"/>
-      <c r="AU8" s="40"/>
-      <c r="AV8" s="40"/>
-      <c r="AW8" s="40"/>
-      <c r="AX8" s="40"/>
-      <c r="AY8" s="40"/>
-      <c r="AZ8" s="40"/>
-      <c r="BA8" s="40"/>
-      <c r="BB8" s="40"/>
-      <c r="BC8" s="40"/>
-      <c r="BD8" s="41"/>
-      <c r="BE8" s="41"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="78"/>
+      <c r="AH8" s="78"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
+      <c r="AK8" s="40"/>
+      <c r="AL8" s="79"/>
+      <c r="AM8" s="80"/>
+      <c r="AN8" s="80"/>
+      <c r="AO8" s="80"/>
+      <c r="AP8" s="80"/>
+      <c r="AQ8" s="80"/>
+      <c r="AR8" s="80"/>
+      <c r="AS8" s="80"/>
+      <c r="AT8" s="80"/>
+      <c r="AU8" s="80"/>
+      <c r="AV8" s="80"/>
+      <c r="AW8" s="80"/>
+      <c r="AX8" s="80"/>
+      <c r="AY8" s="80"/>
+      <c r="AZ8" s="80"/>
+      <c r="BA8" s="80"/>
+      <c r="BB8" s="80"/>
+      <c r="BC8" s="80"/>
+      <c r="BD8" s="81"/>
+      <c r="BE8" s="81"/>
     </row>
     <row r="9" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="63"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="63"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="64"/>
-      <c r="AD9" s="58" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="84"/>
+      <c r="AD9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AE9" s="59" t="s">
+      <c r="AE9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="65" t="s">
+      <c r="AF9" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="63"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="63"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="63"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="63"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="63"/>
-      <c r="AV9" s="62"/>
-      <c r="AW9" s="63"/>
-      <c r="AX9" s="62"/>
-      <c r="AY9" s="63"/>
-      <c r="AZ9" s="62"/>
-      <c r="BA9" s="63"/>
-      <c r="BB9" s="62"/>
-      <c r="BC9" s="63"/>
-      <c r="BD9" s="65"/>
-      <c r="BE9" s="66"/>
-      <c r="BG9" s="33" t="s">
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="24"/>
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="24"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="24"/>
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="82"/>
+      <c r="BE9" s="83"/>
+      <c r="BG9" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="BH9" s="34"/>
-      <c r="BI9" s="35"/>
-      <c r="BJ9" s="35"/>
-      <c r="BK9" s="35"/>
-      <c r="BL9" s="33" t="s">
+      <c r="BH9" s="63"/>
+      <c r="BI9" s="64"/>
+      <c r="BJ9" s="64"/>
+      <c r="BK9" s="64"/>
+      <c r="BL9" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="BM9" s="34"/>
-      <c r="BN9" s="35"/>
-      <c r="BO9" s="35"/>
-      <c r="BP9" s="35"/>
-      <c r="BQ9" s="33" t="s">
+      <c r="BM9" s="63"/>
+      <c r="BN9" s="64"/>
+      <c r="BO9" s="64"/>
+      <c r="BP9" s="64"/>
+      <c r="BQ9" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="34"/>
-      <c r="BS9" s="34"/>
-      <c r="BT9" s="35"/>
-      <c r="BU9" s="35"/>
-      <c r="BV9" s="35"/>
-      <c r="BW9" s="33" t="s">
+      <c r="BR9" s="63"/>
+      <c r="BS9" s="63"/>
+      <c r="BT9" s="64"/>
+      <c r="BU9" s="64"/>
+      <c r="BV9" s="64"/>
+      <c r="BW9" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="BX9" s="34"/>
-      <c r="BY9" s="34"/>
-      <c r="BZ9" s="34"/>
-      <c r="CA9" s="34"/>
-      <c r="CB9" s="34"/>
-      <c r="CC9" s="34"/>
-      <c r="CD9" s="34"/>
-      <c r="CE9" s="34"/>
-      <c r="CF9" s="34"/>
-      <c r="CG9" s="35"/>
-      <c r="CH9" s="35"/>
+      <c r="BX9" s="63"/>
+      <c r="BY9" s="63"/>
+      <c r="BZ9" s="63"/>
+      <c r="CA9" s="63"/>
+      <c r="CB9" s="63"/>
+      <c r="CC9" s="63"/>
+      <c r="CD9" s="63"/>
+      <c r="CE9" s="63"/>
+      <c r="CF9" s="63"/>
+      <c r="CG9" s="64"/>
+      <c r="CH9" s="64"/>
     </row>
     <row r="10" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="67"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="73"/>
-      <c r="AD10" s="67"/>
-      <c r="AE10" s="68"/>
-      <c r="AF10" s="69" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="85"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AG10" s="70"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="71"/>
-      <c r="AM10" s="72"/>
-      <c r="AN10" s="71"/>
-      <c r="AO10" s="72"/>
-      <c r="AP10" s="71"/>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="71"/>
-      <c r="AS10" s="72"/>
-      <c r="AT10" s="71"/>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="71"/>
-      <c r="AW10" s="72"/>
-      <c r="AX10" s="71"/>
-      <c r="AY10" s="72"/>
-      <c r="AZ10" s="71"/>
-      <c r="BA10" s="72"/>
-      <c r="BB10" s="71"/>
-      <c r="BC10" s="72"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="27"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="27"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="27"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="27"/>
+      <c r="AX10" s="26"/>
+      <c r="AY10" s="27"/>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="27"/>
+      <c r="BB10" s="26"/>
+      <c r="BC10" s="27"/>
+      <c r="BD10" s="89"/>
+      <c r="BE10" s="89"/>
     </row>
     <row r="11" spans="1:86" ht="9.75" customHeight="1" thickTop="1">
-      <c r="BG11" s="75" t="s">
+      <c r="BG11" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="BH11" s="75"/>
-      <c r="BI11" s="76"/>
-      <c r="BJ11" s="76"/>
-      <c r="BK11" s="76"/>
-      <c r="BL11" s="76"/>
-      <c r="BM11" s="76"/>
-      <c r="BN11" s="76"/>
-      <c r="BO11" s="77"/>
-      <c r="BP11" s="77"/>
-      <c r="BQ11" s="77"/>
-      <c r="BR11" s="77"/>
-      <c r="BS11" s="77"/>
-      <c r="BT11" s="78"/>
-      <c r="BU11" s="79"/>
-      <c r="BV11" s="80"/>
-      <c r="BW11" s="79"/>
-      <c r="BX11" s="80"/>
-      <c r="BY11" s="79"/>
-      <c r="BZ11" s="80"/>
-      <c r="CA11" s="79"/>
-      <c r="CB11" s="80"/>
-      <c r="CC11" s="79"/>
-      <c r="CD11" s="80"/>
-      <c r="CE11" s="81"/>
-      <c r="CF11" s="82"/>
-      <c r="CG11" s="79"/>
-      <c r="CH11" s="83"/>
+      <c r="BH11" s="90"/>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="6"/>
+      <c r="BN11" s="6"/>
+      <c r="BO11" s="70"/>
+      <c r="BP11" s="70"/>
+      <c r="BQ11" s="70"/>
+      <c r="BR11" s="70"/>
+      <c r="BS11" s="70"/>
+      <c r="BT11" s="91"/>
+      <c r="BU11" s="71"/>
+      <c r="BV11" s="72"/>
+      <c r="BW11" s="71"/>
+      <c r="BX11" s="72"/>
+      <c r="BY11" s="71"/>
+      <c r="BZ11" s="72"/>
+      <c r="CA11" s="71"/>
+      <c r="CB11" s="72"/>
+      <c r="CC11" s="71"/>
+      <c r="CD11" s="72"/>
+      <c r="CE11" s="74"/>
+      <c r="CF11" s="75"/>
+      <c r="CG11" s="71"/>
+      <c r="CH11" s="73"/>
     </row>
     <row r="12" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG12" s="84"/>
-      <c r="BH12" s="84"/>
-      <c r="BI12" s="85"/>
-      <c r="BJ12" s="85"/>
-      <c r="BK12" s="85"/>
-      <c r="BL12" s="85"/>
-      <c r="BM12" s="85"/>
-      <c r="BN12" s="85"/>
-      <c r="BO12" s="86"/>
-      <c r="BP12" s="86"/>
-      <c r="BQ12" s="86"/>
-      <c r="BR12" s="86"/>
-      <c r="BS12" s="86"/>
-      <c r="BT12" s="87"/>
-      <c r="BU12" s="88"/>
-      <c r="BV12" s="87"/>
-      <c r="BW12" s="88"/>
-      <c r="BX12" s="87"/>
-      <c r="BY12" s="88"/>
-      <c r="BZ12" s="87"/>
-      <c r="CA12" s="89"/>
-      <c r="CB12" s="90"/>
-      <c r="CC12" s="88"/>
-      <c r="CD12" s="87"/>
-      <c r="CE12" s="91"/>
-      <c r="CF12" s="90"/>
-      <c r="CG12" s="88"/>
-      <c r="CH12" s="86"/>
+      <c r="BG12" s="65"/>
+      <c r="BH12" s="65"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="7"/>
+      <c r="BN12" s="7"/>
+      <c r="BO12" s="66"/>
+      <c r="BP12" s="66"/>
+      <c r="BQ12" s="66"/>
+      <c r="BR12" s="66"/>
+      <c r="BS12" s="66"/>
+      <c r="BT12" s="67"/>
+      <c r="BU12" s="68"/>
+      <c r="BV12" s="67"/>
+      <c r="BW12" s="68"/>
+      <c r="BX12" s="67"/>
+      <c r="BY12" s="68"/>
+      <c r="BZ12" s="67"/>
+      <c r="CA12" s="86"/>
+      <c r="CB12" s="87"/>
+      <c r="CC12" s="68"/>
+      <c r="CD12" s="67"/>
+      <c r="CE12" s="88"/>
+      <c r="CF12" s="87"/>
+      <c r="CG12" s="68"/>
+      <c r="CH12" s="66"/>
     </row>
     <row r="14" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG14" s="25"/>
-      <c r="BH14" s="26"/>
+      <c r="BG14" s="48"/>
+      <c r="BH14" s="49"/>
     </row>
     <row r="15" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG15" s="27"/>
-      <c r="BH15" s="28"/>
+      <c r="BG15" s="50"/>
+      <c r="BH15" s="51"/>
     </row>
     <row r="16" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG16" s="29"/>
-      <c r="BH16" s="30"/>
+      <c r="BG16" s="52"/>
+      <c r="BH16" s="53"/>
     </row>
     <row r="17" spans="59:60" ht="11.45" customHeight="1">
-      <c r="BG17" s="31"/>
-      <c r="BH17" s="32"/>
+      <c r="BG17" s="54"/>
+      <c r="BH17" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="223">

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>&amp;=I18N.KWR002_211(bean)</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>&amp;=reportDayHead.lower(horizontal,noadd,skip:1)</t>
+  </si>
+  <si>
+    <t>&amp;=I18N.KWR002_235(bean)</t>
   </si>
 </sst>
 </file>
@@ -757,6 +760,216 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -766,8 +979,23 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
@@ -781,233 +1009,8 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1329,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="BF1" zoomScale="205" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="205" workbookViewId="0">
-      <selection activeCell="CG10" sqref="CG10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="205" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="205" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1341,128 +1344,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="34" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="BG1" s="14"/>
-      <c r="BH1" s="12"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="10"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="10"/>
-      <c r="BQ1" s="8"/>
-      <c r="BR1" s="10"/>
-      <c r="BS1" s="8"/>
-      <c r="BT1" s="10"/>
-      <c r="BU1" s="8"/>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="8"/>
-      <c r="BX1" s="10"/>
-      <c r="BY1" s="8"/>
-      <c r="BZ1" s="10"/>
-      <c r="CA1" s="8"/>
-      <c r="CB1" s="10"/>
-      <c r="CC1" s="8"/>
-      <c r="CD1" s="10"/>
-      <c r="CE1" s="9"/>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="8"/>
-      <c r="CH1" s="9"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="BG1" s="89"/>
+      <c r="BH1" s="87"/>
+      <c r="BI1" s="78"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="78"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="78"/>
+      <c r="BN1" s="80"/>
+      <c r="BO1" s="78"/>
+      <c r="BP1" s="80"/>
+      <c r="BQ1" s="78"/>
+      <c r="BR1" s="80"/>
+      <c r="BS1" s="78"/>
+      <c r="BT1" s="80"/>
+      <c r="BU1" s="78"/>
+      <c r="BV1" s="80"/>
+      <c r="BW1" s="78"/>
+      <c r="BX1" s="80"/>
+      <c r="BY1" s="78"/>
+      <c r="BZ1" s="80"/>
+      <c r="CA1" s="78"/>
+      <c r="CB1" s="80"/>
+      <c r="CC1" s="78"/>
+      <c r="CD1" s="80"/>
+      <c r="CE1" s="79"/>
+      <c r="CF1" s="80"/>
+      <c r="CG1" s="78"/>
+      <c r="CH1" s="79"/>
     </row>
     <row r="2" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="BG2" s="15"/>
-      <c r="BH2" s="13"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="10"/>
-      <c r="BK2" s="8"/>
-      <c r="BL2" s="10"/>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="10"/>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="10"/>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="10"/>
-      <c r="BS2" s="8"/>
-      <c r="BT2" s="10"/>
-      <c r="BU2" s="8"/>
-      <c r="BV2" s="10"/>
-      <c r="BW2" s="8"/>
-      <c r="BX2" s="10"/>
-      <c r="BY2" s="8"/>
-      <c r="BZ2" s="10"/>
-      <c r="CA2" s="8"/>
-      <c r="CB2" s="10"/>
-      <c r="CC2" s="8"/>
-      <c r="CD2" s="10"/>
-      <c r="CE2" s="9"/>
-      <c r="CF2" s="10"/>
-      <c r="CG2" s="8"/>
-      <c r="CH2" s="9"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="BG2" s="90"/>
+      <c r="BH2" s="88"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="80"/>
+      <c r="BK2" s="78"/>
+      <c r="BL2" s="80"/>
+      <c r="BM2" s="78"/>
+      <c r="BN2" s="80"/>
+      <c r="BO2" s="78"/>
+      <c r="BP2" s="80"/>
+      <c r="BQ2" s="78"/>
+      <c r="BR2" s="80"/>
+      <c r="BS2" s="78"/>
+      <c r="BT2" s="80"/>
+      <c r="BU2" s="78"/>
+      <c r="BV2" s="80"/>
+      <c r="BW2" s="78"/>
+      <c r="BX2" s="80"/>
+      <c r="BY2" s="78"/>
+      <c r="BZ2" s="80"/>
+      <c r="CA2" s="78"/>
+      <c r="CB2" s="80"/>
+      <c r="CC2" s="78"/>
+      <c r="CD2" s="80"/>
+      <c r="CE2" s="79"/>
+      <c r="CF2" s="80"/>
+      <c r="CG2" s="78"/>
+      <c r="CH2" s="79"/>
     </row>
     <row r="3" spans="1:86" ht="9.75" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1475,49 +1480,49 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="43"/>
       <c r="AI4" s="3"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
       <c r="AP4" s="5"/>
@@ -1534,79 +1539,79 @@
       <c r="BA4" s="5"/>
       <c r="BB4" s="5"/>
       <c r="BC4" s="5"/>
-      <c r="BD4" s="76"/>
-      <c r="BE4" s="76"/>
-      <c r="BG4" s="56"/>
-      <c r="BH4" s="58"/>
-      <c r="BI4" s="60"/>
-      <c r="BJ4" s="61"/>
-      <c r="BK4" s="60"/>
-      <c r="BL4" s="61"/>
-      <c r="BM4" s="60"/>
-      <c r="BN4" s="61"/>
-      <c r="BO4" s="60"/>
-      <c r="BP4" s="61"/>
-      <c r="BQ4" s="60"/>
-      <c r="BR4" s="61"/>
-      <c r="BS4" s="60"/>
-      <c r="BT4" s="61"/>
-      <c r="BU4" s="60"/>
-      <c r="BV4" s="61"/>
-      <c r="BW4" s="60"/>
-      <c r="BX4" s="61"/>
-      <c r="BY4" s="60"/>
-      <c r="BZ4" s="61"/>
-      <c r="CA4" s="60"/>
-      <c r="CB4" s="61"/>
-      <c r="CC4" s="60"/>
-      <c r="CD4" s="61"/>
-      <c r="CE4" s="69"/>
-      <c r="CF4" s="61"/>
-      <c r="CG4" s="60"/>
-      <c r="CH4" s="69"/>
+      <c r="BD4" s="47"/>
+      <c r="BE4" s="47"/>
+      <c r="BG4" s="62"/>
+      <c r="BH4" s="64"/>
+      <c r="BI4" s="33"/>
+      <c r="BJ4" s="34"/>
+      <c r="BK4" s="33"/>
+      <c r="BL4" s="34"/>
+      <c r="BM4" s="33"/>
+      <c r="BN4" s="34"/>
+      <c r="BO4" s="33"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="33"/>
+      <c r="BT4" s="34"/>
+      <c r="BU4" s="33"/>
+      <c r="BV4" s="34"/>
+      <c r="BW4" s="33"/>
+      <c r="BX4" s="34"/>
+      <c r="BY4" s="33"/>
+      <c r="BZ4" s="34"/>
+      <c r="CA4" s="33"/>
+      <c r="CB4" s="34"/>
+      <c r="CC4" s="33"/>
+      <c r="CD4" s="34"/>
+      <c r="CE4" s="50"/>
+      <c r="CF4" s="34"/>
+      <c r="CG4" s="33"/>
+      <c r="CH4" s="50"/>
     </row>
     <row r="5" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="44" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="47"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="43"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
-      <c r="AL5" s="76"/>
-      <c r="AM5" s="76"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
       <c r="AP5" s="5"/>
@@ -1623,77 +1628,77 @@
       <c r="BA5" s="5"/>
       <c r="BB5" s="5"/>
       <c r="BC5" s="5"/>
-      <c r="BD5" s="76"/>
-      <c r="BE5" s="76"/>
-      <c r="BG5" s="57"/>
-      <c r="BH5" s="59"/>
-      <c r="BI5" s="60"/>
-      <c r="BJ5" s="61"/>
-      <c r="BK5" s="60"/>
-      <c r="BL5" s="61"/>
-      <c r="BM5" s="60"/>
-      <c r="BN5" s="61"/>
-      <c r="BO5" s="60"/>
-      <c r="BP5" s="61"/>
-      <c r="BQ5" s="60"/>
-      <c r="BR5" s="61"/>
-      <c r="BS5" s="60"/>
-      <c r="BT5" s="61"/>
-      <c r="BU5" s="60"/>
-      <c r="BV5" s="61"/>
-      <c r="BW5" s="60"/>
-      <c r="BX5" s="61"/>
-      <c r="BY5" s="60"/>
-      <c r="BZ5" s="61"/>
-      <c r="CA5" s="60"/>
-      <c r="CB5" s="61"/>
-      <c r="CC5" s="60"/>
-      <c r="CD5" s="61"/>
-      <c r="CE5" s="69"/>
-      <c r="CF5" s="61"/>
-      <c r="CG5" s="60"/>
-      <c r="CH5" s="69"/>
+      <c r="BD5" s="47"/>
+      <c r="BE5" s="47"/>
+      <c r="BG5" s="63"/>
+      <c r="BH5" s="65"/>
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="33"/>
+      <c r="BL5" s="34"/>
+      <c r="BM5" s="33"/>
+      <c r="BN5" s="34"/>
+      <c r="BO5" s="33"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="33"/>
+      <c r="BR5" s="34"/>
+      <c r="BS5" s="33"/>
+      <c r="BT5" s="34"/>
+      <c r="BU5" s="33"/>
+      <c r="BV5" s="34"/>
+      <c r="BW5" s="33"/>
+      <c r="BX5" s="34"/>
+      <c r="BY5" s="33"/>
+      <c r="BZ5" s="34"/>
+      <c r="CA5" s="33"/>
+      <c r="CB5" s="34"/>
+      <c r="CC5" s="33"/>
+      <c r="CD5" s="34"/>
+      <c r="CE5" s="50"/>
+      <c r="CF5" s="34"/>
+      <c r="CG5" s="33"/>
+      <c r="CH5" s="50"/>
     </row>
     <row r="6" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="17"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="45"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="76"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="5"/>
@@ -1710,49 +1715,49 @@
       <c r="BA6" s="5"/>
       <c r="BB6" s="5"/>
       <c r="BC6" s="5"/>
-      <c r="BD6" s="76"/>
-      <c r="BE6" s="76"/>
+      <c r="BD6" s="47"/>
+      <c r="BE6" s="47"/>
     </row>
     <row r="7" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="17"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="45"/>
       <c r="AI7" s="3"/>
-      <c r="AJ7" s="76"/>
-      <c r="AK7" s="76"/>
-      <c r="AL7" s="76"/>
-      <c r="AM7" s="76"/>
+      <c r="AJ7" s="47"/>
+      <c r="AK7" s="47"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="47"/>
       <c r="AN7" s="5"/>
       <c r="AO7" s="5"/>
       <c r="AP7" s="5"/>
@@ -1769,367 +1774,489 @@
       <c r="BA7" s="5"/>
       <c r="BB7" s="5"/>
       <c r="BC7" s="5"/>
-      <c r="BD7" s="76"/>
-      <c r="BE7" s="76"/>
-      <c r="BG7" s="62" t="s">
+      <c r="BD7" s="47"/>
+      <c r="BE7" s="47"/>
+      <c r="BG7" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="BH7" s="63"/>
-      <c r="BI7" s="64"/>
-      <c r="BJ7" s="64"/>
-      <c r="BK7" s="64"/>
-      <c r="BL7" s="64"/>
-      <c r="BM7" s="64"/>
-      <c r="BN7" s="62" t="s">
+      <c r="BH7" s="67"/>
+      <c r="BI7" s="68"/>
+      <c r="BJ7" s="68"/>
+      <c r="BK7" s="68"/>
+      <c r="BL7" s="68"/>
+      <c r="BM7" s="68"/>
+      <c r="BN7" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="BO7" s="63"/>
-      <c r="BP7" s="64"/>
-      <c r="BQ7" s="64"/>
-      <c r="BR7" s="64"/>
-      <c r="BS7" s="64"/>
-      <c r="BT7" s="64"/>
-      <c r="BU7" s="64"/>
-      <c r="BV7" s="64"/>
-      <c r="BW7" s="64"/>
-      <c r="BX7" s="64"/>
-      <c r="BY7" s="64"/>
-      <c r="BZ7" s="64"/>
-      <c r="CA7" s="64"/>
-      <c r="CB7" s="64"/>
-      <c r="CC7" s="64"/>
-      <c r="CD7" s="64"/>
-      <c r="CE7" s="64"/>
-      <c r="CF7" s="64"/>
-      <c r="CG7" s="64"/>
-      <c r="CH7" s="64"/>
+      <c r="BO7" s="67"/>
+      <c r="BP7" s="68"/>
+      <c r="BQ7" s="68"/>
+      <c r="BR7" s="68"/>
+      <c r="BS7" s="68"/>
+      <c r="BT7" s="68"/>
+      <c r="BU7" s="68"/>
+      <c r="BV7" s="68"/>
+      <c r="BW7" s="68"/>
+      <c r="BX7" s="68"/>
+      <c r="BY7" s="68"/>
+      <c r="BZ7" s="68"/>
+      <c r="CA7" s="68"/>
+      <c r="CB7" s="68"/>
+      <c r="CC7" s="68"/>
+      <c r="CD7" s="68"/>
+      <c r="CE7" s="68"/>
+      <c r="CF7" s="68"/>
+      <c r="CG7" s="68"/>
+      <c r="CH7" s="68"/>
     </row>
     <row r="8" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="4"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="77"/>
-      <c r="AG8" s="78"/>
-      <c r="AH8" s="78"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="40"/>
-      <c r="AL8" s="79"/>
-      <c r="AM8" s="80"/>
-      <c r="AN8" s="80"/>
-      <c r="AO8" s="80"/>
-      <c r="AP8" s="80"/>
-      <c r="AQ8" s="80"/>
-      <c r="AR8" s="80"/>
-      <c r="AS8" s="80"/>
-      <c r="AT8" s="80"/>
-      <c r="AU8" s="80"/>
-      <c r="AV8" s="80"/>
-      <c r="AW8" s="80"/>
-      <c r="AX8" s="80"/>
-      <c r="AY8" s="80"/>
-      <c r="AZ8" s="80"/>
-      <c r="BA8" s="80"/>
-      <c r="BB8" s="80"/>
-      <c r="BC8" s="80"/>
-      <c r="BD8" s="81"/>
-      <c r="BE8" s="81"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="40"/>
+      <c r="AM8" s="41"/>
+      <c r="AN8" s="41"/>
+      <c r="AO8" s="41"/>
+      <c r="AP8" s="41"/>
+      <c r="AQ8" s="41"/>
+      <c r="AR8" s="41"/>
+      <c r="AS8" s="41"/>
+      <c r="AT8" s="41"/>
+      <c r="AU8" s="41"/>
+      <c r="AV8" s="41"/>
+      <c r="AW8" s="41"/>
+      <c r="AX8" s="41"/>
+      <c r="AY8" s="41"/>
+      <c r="AZ8" s="41"/>
+      <c r="BA8" s="41"/>
+      <c r="BB8" s="41"/>
+      <c r="BC8" s="41"/>
+      <c r="BD8" s="42"/>
+      <c r="BE8" s="42"/>
     </row>
     <row r="9" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="84"/>
-      <c r="AD9" s="18" t="s">
+      <c r="D9" s="82"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="25"/>
+      <c r="AD9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AE9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="82" t="s">
+      <c r="AF9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG9" s="82"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="24"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="24"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="24"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="24"/>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="82"/>
-      <c r="BE9" s="83"/>
-      <c r="BG9" s="62" t="s">
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="21"/>
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="24"/>
+      <c r="BG9" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="BH9" s="63"/>
-      <c r="BI9" s="64"/>
-      <c r="BJ9" s="64"/>
-      <c r="BK9" s="64"/>
-      <c r="BL9" s="62" t="s">
+      <c r="BH9" s="67"/>
+      <c r="BI9" s="68"/>
+      <c r="BJ9" s="68"/>
+      <c r="BK9" s="68"/>
+      <c r="BL9" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="BM9" s="63"/>
-      <c r="BN9" s="64"/>
-      <c r="BO9" s="64"/>
-      <c r="BP9" s="64"/>
-      <c r="BQ9" s="62" t="s">
+      <c r="BM9" s="67"/>
+      <c r="BN9" s="68"/>
+      <c r="BO9" s="68"/>
+      <c r="BP9" s="68"/>
+      <c r="BQ9" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="63"/>
-      <c r="BS9" s="63"/>
-      <c r="BT9" s="64"/>
-      <c r="BU9" s="64"/>
-      <c r="BV9" s="64"/>
-      <c r="BW9" s="62" t="s">
+      <c r="BR9" s="67"/>
+      <c r="BS9" s="67"/>
+      <c r="BT9" s="68"/>
+      <c r="BU9" s="68"/>
+      <c r="BV9" s="68"/>
+      <c r="BW9" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="BX9" s="63"/>
-      <c r="BY9" s="63"/>
-      <c r="BZ9" s="63"/>
-      <c r="CA9" s="63"/>
-      <c r="CB9" s="63"/>
-      <c r="CC9" s="63"/>
-      <c r="CD9" s="63"/>
-      <c r="CE9" s="63"/>
-      <c r="CF9" s="63"/>
-      <c r="CG9" s="64"/>
-      <c r="CH9" s="64"/>
+      <c r="BX9" s="67"/>
+      <c r="BY9" s="67"/>
+      <c r="BZ9" s="67"/>
+      <c r="CA9" s="67"/>
+      <c r="CB9" s="67"/>
+      <c r="CC9" s="67"/>
+      <c r="CD9" s="67"/>
+      <c r="CE9" s="67"/>
+      <c r="CF9" s="67"/>
+      <c r="CG9" s="68"/>
+      <c r="CH9" s="68"/>
     </row>
     <row r="10" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="28" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="85"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="28" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="27"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="27"/>
-      <c r="AR10" s="26"/>
-      <c r="AS10" s="27"/>
-      <c r="AT10" s="26"/>
-      <c r="AU10" s="27"/>
-      <c r="AV10" s="26"/>
-      <c r="AW10" s="27"/>
-      <c r="AX10" s="26"/>
-      <c r="AY10" s="27"/>
-      <c r="AZ10" s="26"/>
-      <c r="BA10" s="27"/>
-      <c r="BB10" s="26"/>
-      <c r="BC10" s="27"/>
-      <c r="BD10" s="89"/>
-      <c r="BE10" s="89"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="13"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
     </row>
     <row r="11" spans="1:86" ht="9.75" customHeight="1" thickTop="1">
-      <c r="BG11" s="90" t="s">
+      <c r="BG11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="BH11" s="90"/>
+      <c r="BH11" s="16"/>
       <c r="BI11" s="6"/>
       <c r="BJ11" s="6"/>
       <c r="BK11" s="6"/>
       <c r="BL11" s="6"/>
       <c r="BM11" s="6"/>
       <c r="BN11" s="6"/>
-      <c r="BO11" s="70"/>
-      <c r="BP11" s="70"/>
-      <c r="BQ11" s="70"/>
-      <c r="BR11" s="70"/>
-      <c r="BS11" s="70"/>
-      <c r="BT11" s="91"/>
-      <c r="BU11" s="71"/>
-      <c r="BV11" s="72"/>
-      <c r="BW11" s="71"/>
-      <c r="BX11" s="72"/>
-      <c r="BY11" s="71"/>
-      <c r="BZ11" s="72"/>
-      <c r="CA11" s="71"/>
-      <c r="CB11" s="72"/>
-      <c r="CC11" s="71"/>
-      <c r="CD11" s="72"/>
-      <c r="CE11" s="74"/>
-      <c r="CF11" s="75"/>
-      <c r="CG11" s="71"/>
-      <c r="CH11" s="73"/>
+      <c r="BO11" s="17"/>
+      <c r="BP11" s="17"/>
+      <c r="BQ11" s="17"/>
+      <c r="BR11" s="17"/>
+      <c r="BS11" s="17"/>
+      <c r="BT11" s="18"/>
+      <c r="BU11" s="19"/>
+      <c r="BV11" s="20"/>
+      <c r="BW11" s="19"/>
+      <c r="BX11" s="20"/>
+      <c r="BY11" s="19"/>
+      <c r="BZ11" s="20"/>
+      <c r="CA11" s="19"/>
+      <c r="CB11" s="20"/>
+      <c r="CC11" s="19"/>
+      <c r="CD11" s="20"/>
+      <c r="CE11" s="52"/>
+      <c r="CF11" s="53"/>
+      <c r="CG11" s="19"/>
+      <c r="CH11" s="51"/>
     </row>
     <row r="12" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG12" s="65"/>
-      <c r="BH12" s="65"/>
+      <c r="BG12" s="69"/>
+      <c r="BH12" s="69"/>
       <c r="BI12" s="7"/>
       <c r="BJ12" s="7"/>
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
       <c r="BN12" s="7"/>
-      <c r="BO12" s="66"/>
-      <c r="BP12" s="66"/>
-      <c r="BQ12" s="66"/>
-      <c r="BR12" s="66"/>
-      <c r="BS12" s="66"/>
-      <c r="BT12" s="67"/>
-      <c r="BU12" s="68"/>
-      <c r="BV12" s="67"/>
-      <c r="BW12" s="68"/>
-      <c r="BX12" s="67"/>
-      <c r="BY12" s="68"/>
-      <c r="BZ12" s="67"/>
-      <c r="CA12" s="86"/>
-      <c r="CB12" s="87"/>
-      <c r="CC12" s="68"/>
-      <c r="CD12" s="67"/>
-      <c r="CE12" s="88"/>
-      <c r="CF12" s="87"/>
-      <c r="CG12" s="68"/>
-      <c r="CH12" s="66"/>
+      <c r="BO12" s="70"/>
+      <c r="BP12" s="70"/>
+      <c r="BQ12" s="70"/>
+      <c r="BR12" s="70"/>
+      <c r="BS12" s="70"/>
+      <c r="BT12" s="11"/>
+      <c r="BU12" s="10"/>
+      <c r="BV12" s="11"/>
+      <c r="BW12" s="10"/>
+      <c r="BX12" s="11"/>
+      <c r="BY12" s="10"/>
+      <c r="BZ12" s="11"/>
+      <c r="CA12" s="8"/>
+      <c r="CB12" s="9"/>
+      <c r="CC12" s="10"/>
+      <c r="CD12" s="11"/>
+      <c r="CE12" s="12"/>
+      <c r="CF12" s="9"/>
+      <c r="CG12" s="10"/>
+      <c r="CH12" s="70"/>
     </row>
     <row r="14" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG14" s="48"/>
-      <c r="BH14" s="49"/>
+      <c r="BG14" s="54"/>
+      <c r="BH14" s="55"/>
     </row>
     <row r="15" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG15" s="50"/>
-      <c r="BH15" s="51"/>
+      <c r="BG15" s="56"/>
+      <c r="BH15" s="57"/>
     </row>
     <row r="16" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG16" s="52"/>
-      <c r="BH16" s="53"/>
+      <c r="BG16" s="58"/>
+      <c r="BH16" s="59"/>
     </row>
     <row r="17" spans="59:60" ht="11.45" customHeight="1">
-      <c r="BG17" s="54"/>
-      <c r="BH17" s="55"/>
+      <c r="BG17" s="60"/>
+      <c r="BH17" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="223">
-    <mergeCell ref="CA12:CB12"/>
-    <mergeCell ref="CC12:CD12"/>
-    <mergeCell ref="CE12:CF12"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:AY10"/>
-    <mergeCell ref="AZ10:BA10"/>
-    <mergeCell ref="BB10:BC10"/>
-    <mergeCell ref="BD10:BE10"/>
-    <mergeCell ref="BY12:BZ12"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BQ11:BR11"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
+  <mergeCells count="224">
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="BH1:BH2"/>
+    <mergeCell ref="BG1:BG2"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="BU1:BV1"/>
+    <mergeCell ref="BS1:BT1"/>
+    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="CG1:CH1"/>
+    <mergeCell ref="BW1:BX1"/>
+    <mergeCell ref="BY1:BZ1"/>
+    <mergeCell ref="CA1:CB1"/>
+    <mergeCell ref="CC1:CD1"/>
+    <mergeCell ref="CE1:CF1"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="BG14:BH14"/>
+    <mergeCell ref="BG15:BH17"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BG7:BM7"/>
+    <mergeCell ref="BN7:CH7"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="BQ9:BV9"/>
+    <mergeCell ref="BW9:CH9"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BO12:BP12"/>
+    <mergeCell ref="BQ12:BR12"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BW12:BX12"/>
+    <mergeCell ref="CG12:CH12"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BO11:BP11"/>
+    <mergeCell ref="CG4:CH4"/>
+    <mergeCell ref="BW11:BX11"/>
+    <mergeCell ref="CG11:CH11"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BY11:BZ11"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC4:CD4"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CA11:CB11"/>
+    <mergeCell ref="CC11:CD11"/>
+    <mergeCell ref="CE11:CF11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="BD5:BE7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="U10:V10"/>
     <mergeCell ref="W9:X9"/>
@@ -2154,166 +2281,45 @@
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="BD5:BE7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="CG4:CH4"/>
-    <mergeCell ref="BW11:BX11"/>
-    <mergeCell ref="CG11:CH11"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BY11:BZ11"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC4:CD4"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CA11:CB11"/>
-    <mergeCell ref="CC11:CD11"/>
-    <mergeCell ref="CE11:CF11"/>
-    <mergeCell ref="BG14:BH14"/>
-    <mergeCell ref="BG15:BH17"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BG7:BM7"/>
-    <mergeCell ref="BN7:CH7"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="BQ9:BV9"/>
-    <mergeCell ref="BW9:CH9"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BO12:BP12"/>
-    <mergeCell ref="BQ12:BR12"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BW12:BX12"/>
-    <mergeCell ref="CG12:CH12"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BO11:BP11"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:T1"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="CG1:CH1"/>
-    <mergeCell ref="BW1:BX1"/>
-    <mergeCell ref="BY1:BZ1"/>
-    <mergeCell ref="CA1:CB1"/>
-    <mergeCell ref="CC1:CD1"/>
-    <mergeCell ref="CE1:CF1"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="BH1:BH2"/>
-    <mergeCell ref="BG1:BG2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="BU1:BV1"/>
-    <mergeCell ref="BS1:BT1"/>
-    <mergeCell ref="BQ1:BR1"/>
-    <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="CA12:CB12"/>
+    <mergeCell ref="CC12:CD12"/>
+    <mergeCell ref="CE12:CF12"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:AY10"/>
+    <mergeCell ref="AZ10:BA10"/>
+    <mergeCell ref="BB10:BC10"/>
+    <mergeCell ref="BD10:BE10"/>
+    <mergeCell ref="BY12:BZ12"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BQ11:BR11"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,14 +114,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -129,14 +121,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
@@ -156,6 +140,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -738,13 +730,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -754,71 +745,17 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -832,19 +769,136 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,9 +907,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -865,152 +916,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1332,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="205" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="205" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="AY1" zoomScale="205" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="205" workbookViewId="0">
+      <selection activeCell="BS1" sqref="BS1:BT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1344,758 +1333,958 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="71" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="BG1" s="89"/>
-      <c r="BH1" s="87"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="78"/>
-      <c r="BL1" s="80"/>
-      <c r="BM1" s="78"/>
-      <c r="BN1" s="80"/>
-      <c r="BO1" s="78"/>
-      <c r="BP1" s="80"/>
-      <c r="BQ1" s="78"/>
-      <c r="BR1" s="80"/>
-      <c r="BS1" s="78"/>
-      <c r="BT1" s="80"/>
-      <c r="BU1" s="78"/>
-      <c r="BV1" s="80"/>
-      <c r="BW1" s="78"/>
-      <c r="BX1" s="80"/>
-      <c r="BY1" s="78"/>
-      <c r="BZ1" s="80"/>
-      <c r="CA1" s="78"/>
-      <c r="CB1" s="80"/>
-      <c r="CC1" s="78"/>
-      <c r="CD1" s="80"/>
-      <c r="CE1" s="79"/>
-      <c r="CF1" s="80"/>
-      <c r="CG1" s="78"/>
-      <c r="CH1" s="79"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="78"/>
+      <c r="BI1" s="81"/>
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="81"/>
+      <c r="BL1" s="82"/>
+      <c r="BM1" s="81"/>
+      <c r="BN1" s="82"/>
+      <c r="BO1" s="81"/>
+      <c r="BP1" s="82"/>
+      <c r="BQ1" s="81"/>
+      <c r="BR1" s="82"/>
+      <c r="BS1" s="81"/>
+      <c r="BT1" s="82"/>
+      <c r="BU1" s="81"/>
+      <c r="BV1" s="82"/>
+      <c r="BW1" s="81"/>
+      <c r="BX1" s="82"/>
+      <c r="BY1" s="81"/>
+      <c r="BZ1" s="82"/>
+      <c r="CA1" s="81"/>
+      <c r="CB1" s="82"/>
+      <c r="CC1" s="81"/>
+      <c r="CD1" s="82"/>
+      <c r="CE1" s="83"/>
+      <c r="CF1" s="82"/>
+      <c r="CG1" s="81"/>
+      <c r="CH1" s="83"/>
     </row>
     <row r="2" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="BG2" s="90"/>
-      <c r="BH2" s="88"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="80"/>
-      <c r="BK2" s="78"/>
-      <c r="BL2" s="80"/>
-      <c r="BM2" s="78"/>
-      <c r="BN2" s="80"/>
-      <c r="BO2" s="78"/>
-      <c r="BP2" s="80"/>
-      <c r="BQ2" s="78"/>
-      <c r="BR2" s="80"/>
-      <c r="BS2" s="78"/>
-      <c r="BT2" s="80"/>
-      <c r="BU2" s="78"/>
-      <c r="BV2" s="80"/>
-      <c r="BW2" s="78"/>
-      <c r="BX2" s="80"/>
-      <c r="BY2" s="78"/>
-      <c r="BZ2" s="80"/>
-      <c r="CA2" s="78"/>
-      <c r="CB2" s="80"/>
-      <c r="CC2" s="78"/>
-      <c r="CD2" s="80"/>
-      <c r="CE2" s="79"/>
-      <c r="CF2" s="80"/>
-      <c r="CG2" s="78"/>
-      <c r="CH2" s="79"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="BG2" s="79"/>
+      <c r="BH2" s="80"/>
+      <c r="BI2" s="81"/>
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="81"/>
+      <c r="BL2" s="82"/>
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="82"/>
+      <c r="BO2" s="81"/>
+      <c r="BP2" s="82"/>
+      <c r="BQ2" s="81"/>
+      <c r="BR2" s="82"/>
+      <c r="BS2" s="81"/>
+      <c r="BT2" s="82"/>
+      <c r="BU2" s="81"/>
+      <c r="BV2" s="82"/>
+      <c r="BW2" s="81"/>
+      <c r="BX2" s="82"/>
+      <c r="BY2" s="81"/>
+      <c r="BZ2" s="82"/>
+      <c r="CA2" s="81"/>
+      <c r="CB2" s="82"/>
+      <c r="CC2" s="81"/>
+      <c r="CD2" s="82"/>
+      <c r="CE2" s="83"/>
+      <c r="CF2" s="82"/>
+      <c r="CG2" s="81"/>
+      <c r="CH2" s="83"/>
     </row>
     <row r="3" spans="1:86" ht="9.75" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
     </row>
     <row r="4" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="47"/>
-      <c r="BE4" s="47"/>
-      <c r="BG4" s="62"/>
-      <c r="BH4" s="64"/>
-      <c r="BI4" s="33"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="33"/>
-      <c r="BL4" s="34"/>
-      <c r="BM4" s="33"/>
-      <c r="BN4" s="34"/>
-      <c r="BO4" s="33"/>
-      <c r="BP4" s="34"/>
-      <c r="BQ4" s="33"/>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="33"/>
-      <c r="BT4" s="34"/>
-      <c r="BU4" s="33"/>
-      <c r="BV4" s="34"/>
-      <c r="BW4" s="33"/>
-      <c r="BX4" s="34"/>
-      <c r="BY4" s="33"/>
-      <c r="BZ4" s="34"/>
-      <c r="CA4" s="33"/>
-      <c r="CB4" s="34"/>
-      <c r="CC4" s="33"/>
-      <c r="CD4" s="34"/>
-      <c r="CE4" s="50"/>
-      <c r="CF4" s="34"/>
-      <c r="CG4" s="33"/>
-      <c r="CH4" s="50"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="56"/>
+      <c r="BG4" s="84"/>
+      <c r="BH4" s="85"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="87"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
+      <c r="BM4" s="86"/>
+      <c r="BN4" s="87"/>
+      <c r="BO4" s="86"/>
+      <c r="BP4" s="87"/>
+      <c r="BQ4" s="86"/>
+      <c r="BR4" s="87"/>
+      <c r="BS4" s="86"/>
+      <c r="BT4" s="87"/>
+      <c r="BU4" s="86"/>
+      <c r="BV4" s="87"/>
+      <c r="BW4" s="86"/>
+      <c r="BX4" s="87"/>
+      <c r="BY4" s="86"/>
+      <c r="BZ4" s="87"/>
+      <c r="CA4" s="86"/>
+      <c r="CB4" s="87"/>
+      <c r="CC4" s="86"/>
+      <c r="CD4" s="87"/>
+      <c r="CE4" s="88"/>
+      <c r="CF4" s="87"/>
+      <c r="CG4" s="86"/>
+      <c r="CH4" s="88"/>
     </row>
     <row r="5" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="35" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="47"/>
-      <c r="BE5" s="47"/>
-      <c r="BG5" s="63"/>
-      <c r="BH5" s="65"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="34"/>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="34"/>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="34"/>
-      <c r="BO5" s="33"/>
-      <c r="BP5" s="34"/>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="34"/>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="34"/>
-      <c r="BU5" s="33"/>
-      <c r="BV5" s="34"/>
-      <c r="BW5" s="33"/>
-      <c r="BX5" s="34"/>
-      <c r="BY5" s="33"/>
-      <c r="BZ5" s="34"/>
-      <c r="CA5" s="33"/>
-      <c r="CB5" s="34"/>
-      <c r="CC5" s="33"/>
-      <c r="CD5" s="34"/>
-      <c r="CE5" s="50"/>
-      <c r="CF5" s="34"/>
-      <c r="CG5" s="33"/>
-      <c r="CH5" s="50"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="56"/>
+      <c r="BG5" s="89"/>
+      <c r="BH5" s="90"/>
+      <c r="BI5" s="86"/>
+      <c r="BJ5" s="87"/>
+      <c r="BK5" s="86"/>
+      <c r="BL5" s="87"/>
+      <c r="BM5" s="86"/>
+      <c r="BN5" s="87"/>
+      <c r="BO5" s="86"/>
+      <c r="BP5" s="87"/>
+      <c r="BQ5" s="86"/>
+      <c r="BR5" s="87"/>
+      <c r="BS5" s="86"/>
+      <c r="BT5" s="87"/>
+      <c r="BU5" s="86"/>
+      <c r="BV5" s="87"/>
+      <c r="BW5" s="86"/>
+      <c r="BX5" s="87"/>
+      <c r="BY5" s="86"/>
+      <c r="BZ5" s="87"/>
+      <c r="CA5" s="86"/>
+      <c r="CB5" s="87"/>
+      <c r="CC5" s="86"/>
+      <c r="CD5" s="87"/>
+      <c r="CE5" s="88"/>
+      <c r="CF5" s="87"/>
+      <c r="CG5" s="86"/>
+      <c r="CH5" s="88"/>
     </row>
     <row r="6" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="83"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="46"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
-      <c r="BA6" s="5"/>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="47"/>
-      <c r="BE6" s="47"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="56"/>
+      <c r="BE6" s="56"/>
     </row>
     <row r="7" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="47"/>
-      <c r="AL7" s="47"/>
-      <c r="AM7" s="47"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
-      <c r="BA7" s="5"/>
-      <c r="BB7" s="5"/>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="47"/>
-      <c r="BE7" s="47"/>
-      <c r="BG7" s="66" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="56"/>
+      <c r="BE7" s="56"/>
+      <c r="BG7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="68"/>
-      <c r="BJ7" s="68"/>
-      <c r="BK7" s="68"/>
-      <c r="BL7" s="68"/>
-      <c r="BM7" s="68"/>
-      <c r="BN7" s="66" t="s">
+      <c r="BH7" s="44"/>
+      <c r="BI7" s="45"/>
+      <c r="BJ7" s="45"/>
+      <c r="BK7" s="45"/>
+      <c r="BL7" s="45"/>
+      <c r="BM7" s="45"/>
+      <c r="BN7" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="BO7" s="67"/>
-      <c r="BP7" s="68"/>
-      <c r="BQ7" s="68"/>
-      <c r="BR7" s="68"/>
-      <c r="BS7" s="68"/>
-      <c r="BT7" s="68"/>
-      <c r="BU7" s="68"/>
-      <c r="BV7" s="68"/>
-      <c r="BW7" s="68"/>
-      <c r="BX7" s="68"/>
-      <c r="BY7" s="68"/>
-      <c r="BZ7" s="68"/>
-      <c r="CA7" s="68"/>
-      <c r="CB7" s="68"/>
-      <c r="CC7" s="68"/>
-      <c r="CD7" s="68"/>
-      <c r="CE7" s="68"/>
-      <c r="CF7" s="68"/>
-      <c r="CG7" s="68"/>
-      <c r="CH7" s="68"/>
+      <c r="BO7" s="44"/>
+      <c r="BP7" s="45"/>
+      <c r="BQ7" s="45"/>
+      <c r="BR7" s="45"/>
+      <c r="BS7" s="45"/>
+      <c r="BT7" s="45"/>
+      <c r="BU7" s="45"/>
+      <c r="BV7" s="45"/>
+      <c r="BW7" s="45"/>
+      <c r="BX7" s="45"/>
+      <c r="BY7" s="45"/>
+      <c r="BZ7" s="45"/>
+      <c r="CA7" s="45"/>
+      <c r="CB7" s="45"/>
+      <c r="CC7" s="45"/>
+      <c r="CD7" s="45"/>
+      <c r="CE7" s="45"/>
+      <c r="CF7" s="45"/>
+      <c r="CG7" s="45"/>
+      <c r="CH7" s="45"/>
     </row>
     <row r="8" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="U8" s="4"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="40"/>
-      <c r="AM8" s="41"/>
-      <c r="AN8" s="41"/>
-      <c r="AO8" s="41"/>
-      <c r="AP8" s="41"/>
-      <c r="AQ8" s="41"/>
-      <c r="AR8" s="41"/>
-      <c r="AS8" s="41"/>
-      <c r="AT8" s="41"/>
-      <c r="AU8" s="41"/>
-      <c r="AV8" s="41"/>
-      <c r="AW8" s="41"/>
-      <c r="AX8" s="41"/>
-      <c r="AY8" s="41"/>
-      <c r="AZ8" s="41"/>
-      <c r="BA8" s="41"/>
-      <c r="BB8" s="41"/>
-      <c r="BC8" s="41"/>
-      <c r="BD8" s="42"/>
-      <c r="BE8" s="42"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="60"/>
+      <c r="AQ8" s="60"/>
+      <c r="AR8" s="60"/>
+      <c r="AS8" s="60"/>
+      <c r="AT8" s="60"/>
+      <c r="AU8" s="60"/>
+      <c r="AV8" s="60"/>
+      <c r="AW8" s="60"/>
+      <c r="AX8" s="60"/>
+      <c r="AY8" s="60"/>
+      <c r="AZ8" s="60"/>
+      <c r="BA8" s="60"/>
+      <c r="BB8" s="60"/>
+      <c r="BC8" s="60"/>
+      <c r="BD8" s="61"/>
+      <c r="BE8" s="61"/>
     </row>
     <row r="9" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="25"/>
-      <c r="AD9" s="28" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="64"/>
+      <c r="AD9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AE9" s="30" t="s">
+      <c r="AE9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="23" t="s">
+      <c r="AF9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="21"/>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="21"/>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="21"/>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="21"/>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="23"/>
-      <c r="BE9" s="24"/>
-      <c r="BG9" s="66" t="s">
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="15"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="62"/>
+      <c r="BE9" s="63"/>
+      <c r="BG9" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="BH9" s="67"/>
-      <c r="BI9" s="68"/>
-      <c r="BJ9" s="68"/>
-      <c r="BK9" s="68"/>
-      <c r="BL9" s="66" t="s">
+      <c r="BH9" s="44"/>
+      <c r="BI9" s="45"/>
+      <c r="BJ9" s="45"/>
+      <c r="BK9" s="45"/>
+      <c r="BL9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="BM9" s="67"/>
-      <c r="BN9" s="68"/>
-      <c r="BO9" s="68"/>
-      <c r="BP9" s="68"/>
-      <c r="BQ9" s="66" t="s">
+      <c r="BM9" s="44"/>
+      <c r="BN9" s="45"/>
+      <c r="BO9" s="45"/>
+      <c r="BP9" s="45"/>
+      <c r="BQ9" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="67"/>
-      <c r="BS9" s="67"/>
-      <c r="BT9" s="68"/>
-      <c r="BU9" s="68"/>
-      <c r="BV9" s="68"/>
-      <c r="BW9" s="66" t="s">
+      <c r="BR9" s="44"/>
+      <c r="BS9" s="44"/>
+      <c r="BT9" s="45"/>
+      <c r="BU9" s="45"/>
+      <c r="BV9" s="45"/>
+      <c r="BW9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="BX9" s="67"/>
-      <c r="BY9" s="67"/>
-      <c r="BZ9" s="67"/>
-      <c r="CA9" s="67"/>
-      <c r="CB9" s="67"/>
-      <c r="CC9" s="67"/>
-      <c r="CD9" s="67"/>
-      <c r="CE9" s="67"/>
-      <c r="CF9" s="67"/>
-      <c r="CG9" s="68"/>
-      <c r="CH9" s="68"/>
+      <c r="BX9" s="44"/>
+      <c r="BY9" s="44"/>
+      <c r="BZ9" s="44"/>
+      <c r="CA9" s="44"/>
+      <c r="CB9" s="44"/>
+      <c r="CC9" s="44"/>
+      <c r="CD9" s="44"/>
+      <c r="CE9" s="44"/>
+      <c r="CF9" s="44"/>
+      <c r="CG9" s="45"/>
+      <c r="CH9" s="45"/>
     </row>
     <row r="10" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="26" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="27"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="26" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="65"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AG10" s="32"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="14"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="14"/>
-      <c r="AV10" s="13"/>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="13"/>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="13"/>
-      <c r="BA10" s="14"/>
-      <c r="BB10" s="13"/>
-      <c r="BC10" s="14"/>
-      <c r="BD10" s="15"/>
-      <c r="BE10" s="15"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="18"/>
+      <c r="BD10" s="69"/>
+      <c r="BE10" s="69"/>
     </row>
     <row r="11" spans="1:86" ht="9.75" customHeight="1" thickTop="1">
-      <c r="BG11" s="16" t="s">
+      <c r="BG11" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="BH11" s="16"/>
-      <c r="BI11" s="6"/>
-      <c r="BJ11" s="6"/>
-      <c r="BK11" s="6"/>
-      <c r="BL11" s="6"/>
-      <c r="BM11" s="6"/>
-      <c r="BN11" s="6"/>
-      <c r="BO11" s="17"/>
-      <c r="BP11" s="17"/>
-      <c r="BQ11" s="17"/>
-      <c r="BR11" s="17"/>
-      <c r="BS11" s="17"/>
-      <c r="BT11" s="18"/>
-      <c r="BU11" s="19"/>
-      <c r="BV11" s="20"/>
-      <c r="BW11" s="19"/>
-      <c r="BX11" s="20"/>
-      <c r="BY11" s="19"/>
-      <c r="BZ11" s="20"/>
-      <c r="CA11" s="19"/>
-      <c r="CB11" s="20"/>
-      <c r="CC11" s="19"/>
-      <c r="CD11" s="20"/>
-      <c r="CE11" s="52"/>
-      <c r="CF11" s="53"/>
-      <c r="CG11" s="19"/>
-      <c r="CH11" s="51"/>
+      <c r="BH11" s="70"/>
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="5"/>
+      <c r="BL11" s="5"/>
+      <c r="BM11" s="5"/>
+      <c r="BN11" s="5"/>
+      <c r="BO11" s="50"/>
+      <c r="BP11" s="50"/>
+      <c r="BQ11" s="50"/>
+      <c r="BR11" s="50"/>
+      <c r="BS11" s="50"/>
+      <c r="BT11" s="71"/>
+      <c r="BU11" s="51"/>
+      <c r="BV11" s="52"/>
+      <c r="BW11" s="51"/>
+      <c r="BX11" s="52"/>
+      <c r="BY11" s="51"/>
+      <c r="BZ11" s="52"/>
+      <c r="CA11" s="51"/>
+      <c r="CB11" s="52"/>
+      <c r="CC11" s="51"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="54"/>
+      <c r="CF11" s="55"/>
+      <c r="CG11" s="51"/>
+      <c r="CH11" s="53"/>
     </row>
     <row r="12" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG12" s="69"/>
-      <c r="BH12" s="69"/>
-      <c r="BI12" s="7"/>
-      <c r="BJ12" s="7"/>
-      <c r="BK12" s="7"/>
-      <c r="BL12" s="7"/>
-      <c r="BM12" s="7"/>
-      <c r="BN12" s="7"/>
-      <c r="BO12" s="70"/>
-      <c r="BP12" s="70"/>
-      <c r="BQ12" s="70"/>
-      <c r="BR12" s="70"/>
-      <c r="BS12" s="70"/>
-      <c r="BT12" s="11"/>
-      <c r="BU12" s="10"/>
-      <c r="BV12" s="11"/>
-      <c r="BW12" s="10"/>
-      <c r="BX12" s="11"/>
-      <c r="BY12" s="10"/>
-      <c r="BZ12" s="11"/>
-      <c r="CA12" s="8"/>
-      <c r="CB12" s="9"/>
-      <c r="CC12" s="10"/>
-      <c r="CD12" s="11"/>
-      <c r="CE12" s="12"/>
-      <c r="CF12" s="9"/>
-      <c r="CG12" s="10"/>
-      <c r="CH12" s="70"/>
+      <c r="BG12" s="46"/>
+      <c r="BH12" s="46"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
+      <c r="BL12" s="6"/>
+      <c r="BM12" s="6"/>
+      <c r="BN12" s="6"/>
+      <c r="BO12" s="47"/>
+      <c r="BP12" s="47"/>
+      <c r="BQ12" s="47"/>
+      <c r="BR12" s="47"/>
+      <c r="BS12" s="47"/>
+      <c r="BT12" s="48"/>
+      <c r="BU12" s="49"/>
+      <c r="BV12" s="48"/>
+      <c r="BW12" s="49"/>
+      <c r="BX12" s="48"/>
+      <c r="BY12" s="49"/>
+      <c r="BZ12" s="48"/>
+      <c r="CA12" s="66"/>
+      <c r="CB12" s="67"/>
+      <c r="CC12" s="49"/>
+      <c r="CD12" s="48"/>
+      <c r="CE12" s="68"/>
+      <c r="CF12" s="67"/>
+      <c r="CG12" s="49"/>
+      <c r="CH12" s="47"/>
     </row>
     <row r="14" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG14" s="54"/>
-      <c r="BH14" s="55"/>
+      <c r="BG14" s="35"/>
+      <c r="BH14" s="36"/>
     </row>
     <row r="15" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG15" s="56"/>
-      <c r="BH15" s="57"/>
+      <c r="BG15" s="37"/>
+      <c r="BH15" s="38"/>
     </row>
     <row r="16" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG16" s="58"/>
-      <c r="BH16" s="59"/>
+      <c r="BG16" s="39"/>
+      <c r="BH16" s="40"/>
     </row>
     <row r="17" spans="59:60" ht="11.45" customHeight="1">
-      <c r="BG17" s="60"/>
-      <c r="BH17" s="61"/>
+      <c r="BG17" s="41"/>
+      <c r="BH17" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="224">
+    <mergeCell ref="CA12:CB12"/>
+    <mergeCell ref="CC12:CD12"/>
+    <mergeCell ref="CE12:CF12"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:AY10"/>
+    <mergeCell ref="AZ10:BA10"/>
+    <mergeCell ref="BB10:BC10"/>
+    <mergeCell ref="BD10:BE10"/>
+    <mergeCell ref="BY12:BZ12"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BQ11:BR11"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:BE8"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="BW11:BX11"/>
+    <mergeCell ref="CG11:CH11"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BY11:BZ11"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC4:CD4"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CA11:CB11"/>
+    <mergeCell ref="CC11:CD11"/>
+    <mergeCell ref="CE11:CF11"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BG14:BH14"/>
+    <mergeCell ref="BG15:BH17"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BG7:BM7"/>
+    <mergeCell ref="BN7:CH7"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="BQ9:BV9"/>
+    <mergeCell ref="BW9:CH9"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BO12:BP12"/>
+    <mergeCell ref="BQ12:BR12"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BW12:BX12"/>
+    <mergeCell ref="CG12:CH12"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BO11:BP11"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="CG1:CH1"/>
+    <mergeCell ref="BW1:BX1"/>
+    <mergeCell ref="BY1:BZ1"/>
+    <mergeCell ref="CA1:CB1"/>
+    <mergeCell ref="CC1:CD1"/>
+    <mergeCell ref="CE1:CF1"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="CG4:CH4"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="BD5:BE7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AJ7:AK7"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="CG2:CH2"/>
@@ -2120,206 +2309,6 @@
     <mergeCell ref="BQ1:BR1"/>
     <mergeCell ref="BO1:BP1"/>
     <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="CG1:CH1"/>
-    <mergeCell ref="BW1:BX1"/>
-    <mergeCell ref="BY1:BZ1"/>
-    <mergeCell ref="CA1:CB1"/>
-    <mergeCell ref="CC1:CD1"/>
-    <mergeCell ref="CE1:CF1"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:T1"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="BG14:BH14"/>
-    <mergeCell ref="BG15:BH17"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BG7:BM7"/>
-    <mergeCell ref="BN7:CH7"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="BQ9:BV9"/>
-    <mergeCell ref="BW9:CH9"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BO12:BP12"/>
-    <mergeCell ref="BQ12:BR12"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BW12:BX12"/>
-    <mergeCell ref="CG12:CH12"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BO11:BP11"/>
-    <mergeCell ref="CG4:CH4"/>
-    <mergeCell ref="BW11:BX11"/>
-    <mergeCell ref="CG11:CH11"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BY11:BZ11"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC4:CD4"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CA11:CB11"/>
-    <mergeCell ref="CC11:CD11"/>
-    <mergeCell ref="CE11:CF11"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="BD5:BE7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AL8:BE8"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="CA12:CB12"/>
-    <mergeCell ref="CC12:CD12"/>
-    <mergeCell ref="CE12:CF12"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:AY10"/>
-    <mergeCell ref="AZ10:BA10"/>
-    <mergeCell ref="BB10:BC10"/>
-    <mergeCell ref="BD10:BE10"/>
-    <mergeCell ref="BY12:BZ12"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BQ11:BR11"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
@@ -751,12 +751,37 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -805,6 +830,12 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -826,13 +857,7 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -886,19 +911,16 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -946,60 +968,38 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="AY1" zoomScale="205" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="205" workbookViewId="0">
-      <selection activeCell="BS1" sqref="BS1:BT1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="205" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="205" workbookViewId="0">
+      <selection activeCell="AF8" sqref="AF8:AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1333,185 +1333,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="72" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="BG1" s="77"/>
-      <c r="BH1" s="78"/>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="82"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="82"/>
-      <c r="BM1" s="81"/>
-      <c r="BN1" s="82"/>
-      <c r="BO1" s="81"/>
-      <c r="BP1" s="82"/>
-      <c r="BQ1" s="81"/>
-      <c r="BR1" s="82"/>
-      <c r="BS1" s="81"/>
-      <c r="BT1" s="82"/>
-      <c r="BU1" s="81"/>
-      <c r="BV1" s="82"/>
-      <c r="BW1" s="81"/>
-      <c r="BX1" s="82"/>
-      <c r="BY1" s="81"/>
-      <c r="BZ1" s="82"/>
-      <c r="CA1" s="81"/>
-      <c r="CB1" s="82"/>
-      <c r="CC1" s="81"/>
-      <c r="CD1" s="82"/>
-      <c r="CE1" s="83"/>
-      <c r="CF1" s="82"/>
-      <c r="CG1" s="81"/>
-      <c r="CH1" s="83"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="84"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="9"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="9"/>
+      <c r="BT1" s="11"/>
+      <c r="BU1" s="9"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="9"/>
+      <c r="BX1" s="11"/>
+      <c r="BY1" s="9"/>
+      <c r="BZ1" s="11"/>
+      <c r="CA1" s="9"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="9"/>
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="10"/>
+      <c r="CF1" s="11"/>
+      <c r="CG1" s="9"/>
+      <c r="CH1" s="10"/>
     </row>
     <row r="2" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="BG2" s="79"/>
-      <c r="BH2" s="80"/>
-      <c r="BI2" s="81"/>
-      <c r="BJ2" s="82"/>
-      <c r="BK2" s="81"/>
-      <c r="BL2" s="82"/>
-      <c r="BM2" s="81"/>
-      <c r="BN2" s="82"/>
-      <c r="BO2" s="81"/>
-      <c r="BP2" s="82"/>
-      <c r="BQ2" s="81"/>
-      <c r="BR2" s="82"/>
-      <c r="BS2" s="81"/>
-      <c r="BT2" s="82"/>
-      <c r="BU2" s="81"/>
-      <c r="BV2" s="82"/>
-      <c r="BW2" s="81"/>
-      <c r="BX2" s="82"/>
-      <c r="BY2" s="81"/>
-      <c r="BZ2" s="82"/>
-      <c r="CA2" s="81"/>
-      <c r="CB2" s="82"/>
-      <c r="CC2" s="81"/>
-      <c r="CD2" s="82"/>
-      <c r="CE2" s="83"/>
-      <c r="CF2" s="82"/>
-      <c r="CG2" s="81"/>
-      <c r="CH2" s="83"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="85"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="9"/>
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="9"/>
+      <c r="BN2" s="11"/>
+      <c r="BO2" s="9"/>
+      <c r="BP2" s="11"/>
+      <c r="BQ2" s="9"/>
+      <c r="BR2" s="11"/>
+      <c r="BS2" s="9"/>
+      <c r="BT2" s="11"/>
+      <c r="BU2" s="9"/>
+      <c r="BV2" s="11"/>
+      <c r="BW2" s="9"/>
+      <c r="BX2" s="11"/>
+      <c r="BY2" s="9"/>
+      <c r="BZ2" s="11"/>
+      <c r="CA2" s="9"/>
+      <c r="CB2" s="11"/>
+      <c r="CC2" s="9"/>
+      <c r="CD2" s="11"/>
+      <c r="CE2" s="10"/>
+      <c r="CF2" s="11"/>
+      <c r="CG2" s="9"/>
+      <c r="CH2" s="10"/>
     </row>
     <row r="3" spans="1:86" ht="9.75" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="34"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="17"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
@@ -1528,79 +1528,79 @@
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
-      <c r="BD4" s="56"/>
-      <c r="BE4" s="56"/>
-      <c r="BG4" s="84"/>
-      <c r="BH4" s="85"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="87"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
-      <c r="BM4" s="86"/>
-      <c r="BN4" s="87"/>
-      <c r="BO4" s="86"/>
-      <c r="BP4" s="87"/>
-      <c r="BQ4" s="86"/>
-      <c r="BR4" s="87"/>
-      <c r="BS4" s="86"/>
-      <c r="BT4" s="87"/>
-      <c r="BU4" s="86"/>
-      <c r="BV4" s="87"/>
-      <c r="BW4" s="86"/>
-      <c r="BX4" s="87"/>
-      <c r="BY4" s="86"/>
-      <c r="BZ4" s="87"/>
-      <c r="CA4" s="86"/>
-      <c r="CB4" s="87"/>
-      <c r="CC4" s="86"/>
-      <c r="CD4" s="87"/>
-      <c r="CE4" s="88"/>
-      <c r="CF4" s="87"/>
-      <c r="CG4" s="86"/>
-      <c r="CH4" s="88"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="89"/>
+      <c r="BM4" s="88"/>
+      <c r="BN4" s="89"/>
+      <c r="BO4" s="88"/>
+      <c r="BP4" s="89"/>
+      <c r="BQ4" s="88"/>
+      <c r="BR4" s="89"/>
+      <c r="BS4" s="88"/>
+      <c r="BT4" s="89"/>
+      <c r="BU4" s="88"/>
+      <c r="BV4" s="89"/>
+      <c r="BW4" s="88"/>
+      <c r="BX4" s="89"/>
+      <c r="BY4" s="88"/>
+      <c r="BZ4" s="89"/>
+      <c r="CA4" s="88"/>
+      <c r="CB4" s="89"/>
+      <c r="CC4" s="88"/>
+      <c r="CD4" s="89"/>
+      <c r="CE4" s="90"/>
+      <c r="CF4" s="89"/>
+      <c r="CG4" s="88"/>
+      <c r="CH4" s="90"/>
     </row>
     <row r="5" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="32" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="34"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="17"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
@@ -1617,77 +1617,77 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="56"/>
-      <c r="BG5" s="89"/>
-      <c r="BH5" s="90"/>
-      <c r="BI5" s="86"/>
-      <c r="BJ5" s="87"/>
-      <c r="BK5" s="86"/>
-      <c r="BL5" s="87"/>
-      <c r="BM5" s="86"/>
-      <c r="BN5" s="87"/>
-      <c r="BO5" s="86"/>
-      <c r="BP5" s="87"/>
-      <c r="BQ5" s="86"/>
-      <c r="BR5" s="87"/>
-      <c r="BS5" s="86"/>
-      <c r="BT5" s="87"/>
-      <c r="BU5" s="86"/>
-      <c r="BV5" s="87"/>
-      <c r="BW5" s="86"/>
-      <c r="BX5" s="87"/>
-      <c r="BY5" s="86"/>
-      <c r="BZ5" s="87"/>
-      <c r="CA5" s="86"/>
-      <c r="CB5" s="87"/>
-      <c r="CC5" s="86"/>
-      <c r="CD5" s="87"/>
-      <c r="CE5" s="88"/>
-      <c r="CF5" s="87"/>
-      <c r="CG5" s="86"/>
-      <c r="CH5" s="88"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="15"/>
+      <c r="BG5" s="81"/>
+      <c r="BH5" s="87"/>
+      <c r="BI5" s="88"/>
+      <c r="BJ5" s="89"/>
+      <c r="BK5" s="88"/>
+      <c r="BL5" s="89"/>
+      <c r="BM5" s="88"/>
+      <c r="BN5" s="89"/>
+      <c r="BO5" s="88"/>
+      <c r="BP5" s="89"/>
+      <c r="BQ5" s="88"/>
+      <c r="BR5" s="89"/>
+      <c r="BS5" s="88"/>
+      <c r="BT5" s="89"/>
+      <c r="BU5" s="88"/>
+      <c r="BV5" s="89"/>
+      <c r="BW5" s="88"/>
+      <c r="BX5" s="89"/>
+      <c r="BY5" s="88"/>
+      <c r="BZ5" s="89"/>
+      <c r="CA5" s="88"/>
+      <c r="CB5" s="89"/>
+      <c r="CC5" s="88"/>
+      <c r="CD5" s="89"/>
+      <c r="CE5" s="90"/>
+      <c r="CF5" s="89"/>
+      <c r="CG5" s="88"/>
+      <c r="CH5" s="90"/>
     </row>
     <row r="6" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="8"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="14"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
-      <c r="AL6" s="56"/>
-      <c r="AM6" s="56"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
@@ -1704,49 +1704,49 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
       <c r="BC6" s="4"/>
-      <c r="BD6" s="56"/>
-      <c r="BE6" s="56"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
     </row>
     <row r="7" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="8"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="14"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="56"/>
-      <c r="AK7" s="56"/>
-      <c r="AL7" s="56"/>
-      <c r="AM7" s="56"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
@@ -1763,325 +1763,325 @@
       <c r="BA7" s="4"/>
       <c r="BB7" s="4"/>
       <c r="BC7" s="4"/>
-      <c r="BD7" s="56"/>
-      <c r="BE7" s="56"/>
-      <c r="BG7" s="43" t="s">
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BG7" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="BH7" s="44"/>
-      <c r="BI7" s="45"/>
-      <c r="BJ7" s="45"/>
-      <c r="BK7" s="45"/>
-      <c r="BL7" s="45"/>
-      <c r="BM7" s="45"/>
-      <c r="BN7" s="43" t="s">
+      <c r="BH7" s="53"/>
+      <c r="BI7" s="54"/>
+      <c r="BJ7" s="54"/>
+      <c r="BK7" s="54"/>
+      <c r="BL7" s="54"/>
+      <c r="BM7" s="54"/>
+      <c r="BN7" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="BO7" s="44"/>
-      <c r="BP7" s="45"/>
-      <c r="BQ7" s="45"/>
-      <c r="BR7" s="45"/>
-      <c r="BS7" s="45"/>
-      <c r="BT7" s="45"/>
-      <c r="BU7" s="45"/>
-      <c r="BV7" s="45"/>
-      <c r="BW7" s="45"/>
-      <c r="BX7" s="45"/>
-      <c r="BY7" s="45"/>
-      <c r="BZ7" s="45"/>
-      <c r="CA7" s="45"/>
-      <c r="CB7" s="45"/>
-      <c r="CC7" s="45"/>
-      <c r="CD7" s="45"/>
-      <c r="CE7" s="45"/>
-      <c r="CF7" s="45"/>
-      <c r="CG7" s="45"/>
-      <c r="CH7" s="45"/>
+      <c r="BO7" s="53"/>
+      <c r="BP7" s="54"/>
+      <c r="BQ7" s="54"/>
+      <c r="BR7" s="54"/>
+      <c r="BS7" s="54"/>
+      <c r="BT7" s="54"/>
+      <c r="BU7" s="54"/>
+      <c r="BV7" s="54"/>
+      <c r="BW7" s="54"/>
+      <c r="BX7" s="54"/>
+      <c r="BY7" s="54"/>
+      <c r="BZ7" s="54"/>
+      <c r="CA7" s="54"/>
+      <c r="CB7" s="54"/>
+      <c r="CC7" s="54"/>
+      <c r="CD7" s="54"/>
+      <c r="CE7" s="54"/>
+      <c r="CF7" s="54"/>
+      <c r="CG7" s="54"/>
+      <c r="CH7" s="54"/>
     </row>
     <row r="8" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="3"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="58"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="59"/>
-      <c r="AM8" s="60"/>
-      <c r="AN8" s="60"/>
-      <c r="AO8" s="60"/>
-      <c r="AP8" s="60"/>
-      <c r="AQ8" s="60"/>
-      <c r="AR8" s="60"/>
-      <c r="AS8" s="60"/>
-      <c r="AT8" s="60"/>
-      <c r="AU8" s="60"/>
-      <c r="AV8" s="60"/>
-      <c r="AW8" s="60"/>
-      <c r="AX8" s="60"/>
-      <c r="AY8" s="60"/>
-      <c r="AZ8" s="60"/>
-      <c r="BA8" s="60"/>
-      <c r="BB8" s="60"/>
-      <c r="BC8" s="60"/>
-      <c r="BD8" s="61"/>
-      <c r="BE8" s="61"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="68"/>
+      <c r="AO8" s="68"/>
+      <c r="AP8" s="68"/>
+      <c r="AQ8" s="68"/>
+      <c r="AR8" s="68"/>
+      <c r="AS8" s="68"/>
+      <c r="AT8" s="68"/>
+      <c r="AU8" s="68"/>
+      <c r="AV8" s="68"/>
+      <c r="AW8" s="68"/>
+      <c r="AX8" s="68"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="68"/>
+      <c r="BD8" s="69"/>
+      <c r="BE8" s="69"/>
     </row>
     <row r="9" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="64"/>
-      <c r="AD9" s="9" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="72"/>
+      <c r="AD9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AE9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="62" t="s">
+      <c r="AF9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="16"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="15"/>
-      <c r="AW9" s="16"/>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="16"/>
-      <c r="AZ9" s="15"/>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="15"/>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="62"/>
-      <c r="BE9" s="63"/>
-      <c r="BG9" s="43" t="s">
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="24"/>
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="24"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="24"/>
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="70"/>
+      <c r="BE9" s="71"/>
+      <c r="BG9" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="BH9" s="44"/>
-      <c r="BI9" s="45"/>
-      <c r="BJ9" s="45"/>
-      <c r="BK9" s="45"/>
-      <c r="BL9" s="43" t="s">
+      <c r="BH9" s="53"/>
+      <c r="BI9" s="54"/>
+      <c r="BJ9" s="54"/>
+      <c r="BK9" s="54"/>
+      <c r="BL9" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="BM9" s="44"/>
-      <c r="BN9" s="45"/>
-      <c r="BO9" s="45"/>
-      <c r="BP9" s="45"/>
-      <c r="BQ9" s="43" t="s">
+      <c r="BM9" s="53"/>
+      <c r="BN9" s="54"/>
+      <c r="BO9" s="54"/>
+      <c r="BP9" s="54"/>
+      <c r="BQ9" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="44"/>
-      <c r="BS9" s="44"/>
-      <c r="BT9" s="45"/>
-      <c r="BU9" s="45"/>
-      <c r="BV9" s="45"/>
-      <c r="BW9" s="43" t="s">
+      <c r="BR9" s="53"/>
+      <c r="BS9" s="53"/>
+      <c r="BT9" s="54"/>
+      <c r="BU9" s="54"/>
+      <c r="BV9" s="54"/>
+      <c r="BW9" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="BX9" s="44"/>
-      <c r="BY9" s="44"/>
-      <c r="BZ9" s="44"/>
-      <c r="CA9" s="44"/>
-      <c r="CB9" s="44"/>
-      <c r="CC9" s="44"/>
-      <c r="CD9" s="44"/>
-      <c r="CE9" s="44"/>
-      <c r="CF9" s="44"/>
-      <c r="CG9" s="45"/>
-      <c r="CH9" s="45"/>
+      <c r="BX9" s="53"/>
+      <c r="BY9" s="53"/>
+      <c r="BZ9" s="53"/>
+      <c r="CA9" s="53"/>
+      <c r="CB9" s="53"/>
+      <c r="CC9" s="53"/>
+      <c r="CD9" s="53"/>
+      <c r="CE9" s="53"/>
+      <c r="CF9" s="53"/>
+      <c r="CG9" s="54"/>
+      <c r="CH9" s="54"/>
     </row>
     <row r="10" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="65"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="19" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="73"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="18"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="18"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="18"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="18"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="18"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="18"/>
-      <c r="BD10" s="69"/>
-      <c r="BE10" s="69"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="27"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="27"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="27"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="27"/>
+      <c r="AX10" s="26"/>
+      <c r="AY10" s="27"/>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="27"/>
+      <c r="BB10" s="26"/>
+      <c r="BC10" s="27"/>
+      <c r="BD10" s="77"/>
+      <c r="BE10" s="77"/>
     </row>
     <row r="11" spans="1:86" ht="9.75" customHeight="1" thickTop="1">
-      <c r="BG11" s="70" t="s">
+      <c r="BG11" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="BH11" s="70"/>
+      <c r="BH11" s="78"/>
       <c r="BI11" s="5"/>
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
       <c r="BN11" s="5"/>
-      <c r="BO11" s="50"/>
-      <c r="BP11" s="50"/>
-      <c r="BQ11" s="50"/>
-      <c r="BR11" s="50"/>
-      <c r="BS11" s="50"/>
-      <c r="BT11" s="71"/>
-      <c r="BU11" s="51"/>
-      <c r="BV11" s="52"/>
-      <c r="BW11" s="51"/>
-      <c r="BX11" s="52"/>
-      <c r="BY11" s="51"/>
-      <c r="BZ11" s="52"/>
-      <c r="CA11" s="51"/>
-      <c r="CB11" s="52"/>
-      <c r="CC11" s="51"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="54"/>
-      <c r="CF11" s="55"/>
-      <c r="CG11" s="51"/>
-      <c r="CH11" s="53"/>
+      <c r="BO11" s="59"/>
+      <c r="BP11" s="59"/>
+      <c r="BQ11" s="59"/>
+      <c r="BR11" s="59"/>
+      <c r="BS11" s="59"/>
+      <c r="BT11" s="79"/>
+      <c r="BU11" s="60"/>
+      <c r="BV11" s="62"/>
+      <c r="BW11" s="60"/>
+      <c r="BX11" s="62"/>
+      <c r="BY11" s="60"/>
+      <c r="BZ11" s="62"/>
+      <c r="CA11" s="60"/>
+      <c r="CB11" s="62"/>
+      <c r="CC11" s="60"/>
+      <c r="CD11" s="62"/>
+      <c r="CE11" s="63"/>
+      <c r="CF11" s="64"/>
+      <c r="CG11" s="60"/>
+      <c r="CH11" s="61"/>
     </row>
     <row r="12" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG12" s="46"/>
-      <c r="BH12" s="46"/>
+      <c r="BG12" s="55"/>
+      <c r="BH12" s="55"/>
       <c r="BI12" s="6"/>
       <c r="BJ12" s="6"/>
       <c r="BK12" s="6"/>
       <c r="BL12" s="6"/>
       <c r="BM12" s="6"/>
       <c r="BN12" s="6"/>
-      <c r="BO12" s="47"/>
-      <c r="BP12" s="47"/>
-      <c r="BQ12" s="47"/>
-      <c r="BR12" s="47"/>
-      <c r="BS12" s="47"/>
-      <c r="BT12" s="48"/>
-      <c r="BU12" s="49"/>
-      <c r="BV12" s="48"/>
-      <c r="BW12" s="49"/>
-      <c r="BX12" s="48"/>
-      <c r="BY12" s="49"/>
-      <c r="BZ12" s="48"/>
-      <c r="CA12" s="66"/>
-      <c r="CB12" s="67"/>
-      <c r="CC12" s="49"/>
-      <c r="CD12" s="48"/>
-      <c r="CE12" s="68"/>
-      <c r="CF12" s="67"/>
-      <c r="CG12" s="49"/>
-      <c r="CH12" s="47"/>
+      <c r="BO12" s="56"/>
+      <c r="BP12" s="56"/>
+      <c r="BQ12" s="56"/>
+      <c r="BR12" s="56"/>
+      <c r="BS12" s="56"/>
+      <c r="BT12" s="57"/>
+      <c r="BU12" s="58"/>
+      <c r="BV12" s="57"/>
+      <c r="BW12" s="58"/>
+      <c r="BX12" s="57"/>
+      <c r="BY12" s="58"/>
+      <c r="BZ12" s="57"/>
+      <c r="CA12" s="74"/>
+      <c r="CB12" s="75"/>
+      <c r="CC12" s="58"/>
+      <c r="CD12" s="57"/>
+      <c r="CE12" s="76"/>
+      <c r="CF12" s="75"/>
+      <c r="CG12" s="58"/>
+      <c r="CH12" s="56"/>
     </row>
     <row r="14" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG14" s="35"/>
-      <c r="BH14" s="36"/>
+      <c r="BG14" s="44"/>
+      <c r="BH14" s="45"/>
     </row>
     <row r="15" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG15" s="37"/>
-      <c r="BH15" s="38"/>
+      <c r="BG15" s="46"/>
+      <c r="BH15" s="47"/>
     </row>
     <row r="16" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG16" s="39"/>
-      <c r="BH16" s="40"/>
+      <c r="BG16" s="48"/>
+      <c r="BH16" s="49"/>
     </row>
     <row r="17" spans="59:60" ht="11.45" customHeight="1">
-      <c r="BG17" s="41"/>
-      <c r="BH17" s="42"/>
+      <c r="BG17" s="50"/>
+      <c r="BH17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="224">
@@ -2102,6 +2102,7 @@
     <mergeCell ref="BQ11:BR11"/>
     <mergeCell ref="BS11:BT11"/>
     <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BW11:BX11"/>
     <mergeCell ref="AZ9:BA9"/>
     <mergeCell ref="BB9:BC9"/>
     <mergeCell ref="BD9:BE9"/>
@@ -2179,7 +2180,6 @@
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
-    <mergeCell ref="BW11:BX11"/>
     <mergeCell ref="CG11:CH11"/>
     <mergeCell ref="BS4:BT4"/>
     <mergeCell ref="BY4:BZ4"/>
@@ -2316,7 +2316,7 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;9&amp;=$companyName&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16&amp;=$reportName&amp;R&amp;"ＭＳ ゴシック,標準"&amp;9&amp;D　&amp;T　
-&amp;=I18N.KWR002_210(bean)&amp;P</oddHeader>
+page&amp;P</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="50" max="61" man="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
@@ -176,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -720,6 +720,35 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,7 +762,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,255 +780,276 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="48" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1322,7 +1372,7 @@
   <dimension ref="A1:CH17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="205" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="205" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8:AK8"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1333,185 +1383,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="8" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="BG1" s="82"/>
-      <c r="BH1" s="84"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="11"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="11"/>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="9"/>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="9"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="9"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="9"/>
-      <c r="BZ1" s="11"/>
-      <c r="CA1" s="9"/>
-      <c r="CB1" s="11"/>
-      <c r="CC1" s="9"/>
-      <c r="CD1" s="11"/>
-      <c r="CE1" s="10"/>
-      <c r="CF1" s="11"/>
-      <c r="CG1" s="9"/>
-      <c r="CH1" s="10"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="BG1" s="79"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="73"/>
+      <c r="BJ1" s="74"/>
+      <c r="BK1" s="73"/>
+      <c r="BL1" s="74"/>
+      <c r="BM1" s="73"/>
+      <c r="BN1" s="74"/>
+      <c r="BO1" s="73"/>
+      <c r="BP1" s="74"/>
+      <c r="BQ1" s="73"/>
+      <c r="BR1" s="74"/>
+      <c r="BS1" s="73"/>
+      <c r="BT1" s="74"/>
+      <c r="BU1" s="73"/>
+      <c r="BV1" s="74"/>
+      <c r="BW1" s="73"/>
+      <c r="BX1" s="74"/>
+      <c r="BY1" s="73"/>
+      <c r="BZ1" s="74"/>
+      <c r="CA1" s="73"/>
+      <c r="CB1" s="74"/>
+      <c r="CC1" s="73"/>
+      <c r="CD1" s="74"/>
+      <c r="CE1" s="75"/>
+      <c r="CF1" s="74"/>
+      <c r="CG1" s="73"/>
+      <c r="CH1" s="75"/>
     </row>
     <row r="2" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12" t="s">
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="BG2" s="83"/>
-      <c r="BH2" s="85"/>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="9"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="9"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="11"/>
-      <c r="BQ2" s="9"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="9"/>
-      <c r="BV2" s="11"/>
-      <c r="BW2" s="9"/>
-      <c r="BX2" s="11"/>
-      <c r="BY2" s="9"/>
-      <c r="BZ2" s="11"/>
-      <c r="CA2" s="9"/>
-      <c r="CB2" s="11"/>
-      <c r="CC2" s="9"/>
-      <c r="CD2" s="11"/>
-      <c r="CE2" s="10"/>
-      <c r="CF2" s="11"/>
-      <c r="CG2" s="9"/>
-      <c r="CH2" s="10"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="BG2" s="80"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="73"/>
+      <c r="BJ2" s="74"/>
+      <c r="BK2" s="73"/>
+      <c r="BL2" s="74"/>
+      <c r="BM2" s="73"/>
+      <c r="BN2" s="74"/>
+      <c r="BO2" s="73"/>
+      <c r="BP2" s="74"/>
+      <c r="BQ2" s="73"/>
+      <c r="BR2" s="74"/>
+      <c r="BS2" s="73"/>
+      <c r="BT2" s="74"/>
+      <c r="BU2" s="73"/>
+      <c r="BV2" s="74"/>
+      <c r="BW2" s="73"/>
+      <c r="BX2" s="74"/>
+      <c r="BY2" s="73"/>
+      <c r="BZ2" s="74"/>
+      <c r="CA2" s="73"/>
+      <c r="CB2" s="74"/>
+      <c r="CC2" s="73"/>
+      <c r="CD2" s="74"/>
+      <c r="CE2" s="75"/>
+      <c r="CF2" s="74"/>
+      <c r="CG2" s="73"/>
+      <c r="CH2" s="75"/>
     </row>
-    <row r="3" spans="1:86" ht="9.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
+      <c r="A3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
     </row>
     <row r="4" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="84"/>
+      <c r="C4" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="17"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="90"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
@@ -1528,79 +1592,79 @@
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
-      <c r="BD4" s="15"/>
-      <c r="BE4" s="15"/>
-      <c r="BG4" s="80"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="88"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="88"/>
-      <c r="BL4" s="89"/>
-      <c r="BM4" s="88"/>
-      <c r="BN4" s="89"/>
-      <c r="BO4" s="88"/>
-      <c r="BP4" s="89"/>
-      <c r="BQ4" s="88"/>
-      <c r="BR4" s="89"/>
-      <c r="BS4" s="88"/>
-      <c r="BT4" s="89"/>
-      <c r="BU4" s="88"/>
-      <c r="BV4" s="89"/>
-      <c r="BW4" s="88"/>
-      <c r="BX4" s="89"/>
-      <c r="BY4" s="88"/>
-      <c r="BZ4" s="89"/>
-      <c r="CA4" s="88"/>
-      <c r="CB4" s="89"/>
-      <c r="CC4" s="88"/>
-      <c r="CD4" s="89"/>
-      <c r="CE4" s="90"/>
-      <c r="CF4" s="89"/>
-      <c r="CG4" s="88"/>
-      <c r="CH4" s="90"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="32"/>
+      <c r="BJ4" s="33"/>
+      <c r="BK4" s="32"/>
+      <c r="BL4" s="33"/>
+      <c r="BM4" s="32"/>
+      <c r="BN4" s="33"/>
+      <c r="BO4" s="32"/>
+      <c r="BP4" s="33"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="33"/>
+      <c r="BS4" s="32"/>
+      <c r="BT4" s="33"/>
+      <c r="BU4" s="32"/>
+      <c r="BV4" s="33"/>
+      <c r="BW4" s="32"/>
+      <c r="BX4" s="33"/>
+      <c r="BY4" s="32"/>
+      <c r="BZ4" s="33"/>
+      <c r="CA4" s="32"/>
+      <c r="CB4" s="33"/>
+      <c r="CC4" s="32"/>
+      <c r="CD4" s="33"/>
+      <c r="CE4" s="44"/>
+      <c r="CF4" s="33"/>
+      <c r="CG4" s="32"/>
+      <c r="CH4" s="44"/>
     </row>
-    <row r="5" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="16" t="s">
+    <row r="5" spans="1:86" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="17"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="95"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="95"/>
+      <c r="Y5" s="94"/>
+      <c r="Z5" s="96"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="96"/>
+      <c r="AC5" s="94"/>
+      <c r="AD5" s="96"/>
+      <c r="AE5" s="94"/>
+      <c r="AF5" s="96"/>
+      <c r="AG5" s="94"/>
+      <c r="AH5" s="96"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
+      <c r="AL5" s="76"/>
+      <c r="AM5" s="76"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
@@ -1617,77 +1681,77 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
-      <c r="BD5" s="15"/>
-      <c r="BE5" s="15"/>
-      <c r="BG5" s="81"/>
-      <c r="BH5" s="87"/>
-      <c r="BI5" s="88"/>
-      <c r="BJ5" s="89"/>
-      <c r="BK5" s="88"/>
-      <c r="BL5" s="89"/>
-      <c r="BM5" s="88"/>
-      <c r="BN5" s="89"/>
-      <c r="BO5" s="88"/>
-      <c r="BP5" s="89"/>
-      <c r="BQ5" s="88"/>
-      <c r="BR5" s="89"/>
-      <c r="BS5" s="88"/>
-      <c r="BT5" s="89"/>
-      <c r="BU5" s="88"/>
-      <c r="BV5" s="89"/>
-      <c r="BW5" s="88"/>
-      <c r="BX5" s="89"/>
-      <c r="BY5" s="88"/>
-      <c r="BZ5" s="89"/>
-      <c r="CA5" s="88"/>
-      <c r="CB5" s="89"/>
-      <c r="CC5" s="88"/>
-      <c r="CD5" s="89"/>
-      <c r="CE5" s="90"/>
-      <c r="CF5" s="89"/>
-      <c r="CG5" s="88"/>
-      <c r="CH5" s="90"/>
+      <c r="BD5" s="76"/>
+      <c r="BE5" s="76"/>
+      <c r="BG5" s="56"/>
+      <c r="BH5" s="58"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="33"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="33"/>
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="33"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="32"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="32"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="32"/>
+      <c r="BX5" s="33"/>
+      <c r="BY5" s="32"/>
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="32"/>
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="33"/>
+      <c r="CE5" s="44"/>
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="32"/>
+      <c r="CH5" s="44"/>
     </row>
     <row r="6" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="14"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="91"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="91"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="91"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="91"/>
+      <c r="AB6" s="93"/>
+      <c r="AC6" s="91"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="91"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="91"/>
+      <c r="AH6" s="93"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
@@ -1704,49 +1768,49 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
       <c r="BC6" s="4"/>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="15"/>
+      <c r="BD6" s="76"/>
+      <c r="BE6" s="76"/>
     </row>
     <row r="7" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="14"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="41"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="41"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="41"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="76"/>
+      <c r="AM7" s="76"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
@@ -1763,368 +1827,488 @@
       <c r="BA7" s="4"/>
       <c r="BB7" s="4"/>
       <c r="BC7" s="4"/>
-      <c r="BD7" s="15"/>
-      <c r="BE7" s="15"/>
-      <c r="BG7" s="52" t="s">
+      <c r="BD7" s="76"/>
+      <c r="BE7" s="76"/>
+      <c r="BG7" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="BH7" s="53"/>
-      <c r="BI7" s="54"/>
-      <c r="BJ7" s="54"/>
-      <c r="BK7" s="54"/>
-      <c r="BL7" s="54"/>
-      <c r="BM7" s="54"/>
-      <c r="BN7" s="52" t="s">
+      <c r="BH7" s="60"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="61"/>
+      <c r="BK7" s="61"/>
+      <c r="BL7" s="61"/>
+      <c r="BM7" s="61"/>
+      <c r="BN7" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="BO7" s="53"/>
-      <c r="BP7" s="54"/>
-      <c r="BQ7" s="54"/>
-      <c r="BR7" s="54"/>
-      <c r="BS7" s="54"/>
-      <c r="BT7" s="54"/>
-      <c r="BU7" s="54"/>
-      <c r="BV7" s="54"/>
-      <c r="BW7" s="54"/>
-      <c r="BX7" s="54"/>
-      <c r="BY7" s="54"/>
-      <c r="BZ7" s="54"/>
-      <c r="CA7" s="54"/>
-      <c r="CB7" s="54"/>
-      <c r="CC7" s="54"/>
-      <c r="CD7" s="54"/>
-      <c r="CE7" s="54"/>
-      <c r="CF7" s="54"/>
-      <c r="CG7" s="54"/>
-      <c r="CH7" s="54"/>
+      <c r="BO7" s="60"/>
+      <c r="BP7" s="61"/>
+      <c r="BQ7" s="61"/>
+      <c r="BR7" s="61"/>
+      <c r="BS7" s="61"/>
+      <c r="BT7" s="61"/>
+      <c r="BU7" s="61"/>
+      <c r="BV7" s="61"/>
+      <c r="BW7" s="61"/>
+      <c r="BX7" s="61"/>
+      <c r="BY7" s="61"/>
+      <c r="BZ7" s="61"/>
+      <c r="CA7" s="61"/>
+      <c r="CB7" s="61"/>
+      <c r="CC7" s="61"/>
+      <c r="CD7" s="61"/>
+      <c r="CE7" s="61"/>
+      <c r="CF7" s="61"/>
+      <c r="CG7" s="61"/>
+      <c r="CH7" s="61"/>
     </row>
     <row r="8" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="3"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="68"/>
-      <c r="AN8" s="68"/>
-      <c r="AO8" s="68"/>
-      <c r="AP8" s="68"/>
-      <c r="AQ8" s="68"/>
-      <c r="AR8" s="68"/>
-      <c r="AS8" s="68"/>
-      <c r="AT8" s="68"/>
-      <c r="AU8" s="68"/>
-      <c r="AV8" s="68"/>
-      <c r="AW8" s="68"/>
-      <c r="AX8" s="68"/>
-      <c r="AY8" s="68"/>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="68"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="69"/>
-      <c r="BE8" s="69"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="38"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="38"/>
+      <c r="BD8" s="39"/>
+      <c r="BE8" s="39"/>
     </row>
     <row r="9" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="72"/>
-      <c r="AD9" s="18" t="s">
+      <c r="D9" s="72"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="24"/>
+      <c r="AD9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AE9" s="20" t="s">
+      <c r="AE9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="70" t="s">
+      <c r="AF9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="24"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="24"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="24"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="24"/>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="70"/>
-      <c r="BE9" s="71"/>
-      <c r="BG9" s="52" t="s">
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="20"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="20"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="20"/>
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="20"/>
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="23"/>
+      <c r="BG9" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="BH9" s="53"/>
-      <c r="BI9" s="54"/>
-      <c r="BJ9" s="54"/>
-      <c r="BK9" s="54"/>
-      <c r="BL9" s="52" t="s">
+      <c r="BH9" s="60"/>
+      <c r="BI9" s="61"/>
+      <c r="BJ9" s="61"/>
+      <c r="BK9" s="61"/>
+      <c r="BL9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="BM9" s="53"/>
-      <c r="BN9" s="54"/>
-      <c r="BO9" s="54"/>
-      <c r="BP9" s="54"/>
-      <c r="BQ9" s="52" t="s">
+      <c r="BM9" s="60"/>
+      <c r="BN9" s="61"/>
+      <c r="BO9" s="61"/>
+      <c r="BP9" s="61"/>
+      <c r="BQ9" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="53"/>
-      <c r="BS9" s="53"/>
-      <c r="BT9" s="54"/>
-      <c r="BU9" s="54"/>
-      <c r="BV9" s="54"/>
-      <c r="BW9" s="52" t="s">
+      <c r="BR9" s="60"/>
+      <c r="BS9" s="60"/>
+      <c r="BT9" s="61"/>
+      <c r="BU9" s="61"/>
+      <c r="BV9" s="61"/>
+      <c r="BW9" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="BX9" s="53"/>
-      <c r="BY9" s="53"/>
-      <c r="BZ9" s="53"/>
-      <c r="CA9" s="53"/>
-      <c r="CB9" s="53"/>
-      <c r="CC9" s="53"/>
-      <c r="CD9" s="53"/>
-      <c r="CE9" s="53"/>
-      <c r="CF9" s="53"/>
-      <c r="CG9" s="54"/>
-      <c r="CH9" s="54"/>
+      <c r="BX9" s="60"/>
+      <c r="BY9" s="60"/>
+      <c r="BZ9" s="60"/>
+      <c r="CA9" s="60"/>
+      <c r="CB9" s="60"/>
+      <c r="CC9" s="60"/>
+      <c r="CD9" s="60"/>
+      <c r="CE9" s="60"/>
+      <c r="CF9" s="60"/>
+      <c r="CG9" s="61"/>
+      <c r="CH9" s="61"/>
     </row>
     <row r="10" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="28" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="73"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="28" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="26"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="27"/>
-      <c r="AR10" s="26"/>
-      <c r="AS10" s="27"/>
-      <c r="AT10" s="26"/>
-      <c r="AU10" s="27"/>
-      <c r="AV10" s="26"/>
-      <c r="AW10" s="27"/>
-      <c r="AX10" s="26"/>
-      <c r="AY10" s="27"/>
-      <c r="AZ10" s="26"/>
-      <c r="BA10" s="27"/>
-      <c r="BB10" s="26"/>
-      <c r="BC10" s="27"/>
-      <c r="BD10" s="77"/>
-      <c r="BE10" s="77"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="13"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="13"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="13"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="13"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
     </row>
     <row r="11" spans="1:86" ht="9.75" customHeight="1" thickTop="1">
-      <c r="BG11" s="78" t="s">
+      <c r="BG11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="BH11" s="78"/>
+      <c r="BH11" s="15"/>
       <c r="BI11" s="5"/>
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
       <c r="BN11" s="5"/>
-      <c r="BO11" s="59"/>
-      <c r="BP11" s="59"/>
-      <c r="BQ11" s="59"/>
-      <c r="BR11" s="59"/>
-      <c r="BS11" s="59"/>
-      <c r="BT11" s="79"/>
-      <c r="BU11" s="60"/>
-      <c r="BV11" s="62"/>
-      <c r="BW11" s="60"/>
-      <c r="BX11" s="62"/>
-      <c r="BY11" s="60"/>
-      <c r="BZ11" s="62"/>
-      <c r="CA11" s="60"/>
-      <c r="CB11" s="62"/>
-      <c r="CC11" s="60"/>
-      <c r="CD11" s="62"/>
-      <c r="CE11" s="63"/>
-      <c r="CF11" s="64"/>
-      <c r="CG11" s="60"/>
-      <c r="CH11" s="61"/>
+      <c r="BO11" s="16"/>
+      <c r="BP11" s="16"/>
+      <c r="BQ11" s="16"/>
+      <c r="BR11" s="16"/>
+      <c r="BS11" s="16"/>
+      <c r="BT11" s="17"/>
+      <c r="BU11" s="18"/>
+      <c r="BV11" s="19"/>
+      <c r="BW11" s="18"/>
+      <c r="BX11" s="19"/>
+      <c r="BY11" s="18"/>
+      <c r="BZ11" s="19"/>
+      <c r="CA11" s="18"/>
+      <c r="CB11" s="19"/>
+      <c r="CC11" s="18"/>
+      <c r="CD11" s="19"/>
+      <c r="CE11" s="45"/>
+      <c r="CF11" s="46"/>
+      <c r="CG11" s="18"/>
+      <c r="CH11" s="43"/>
     </row>
     <row r="12" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG12" s="55"/>
-      <c r="BH12" s="55"/>
+      <c r="BG12" s="62"/>
+      <c r="BH12" s="62"/>
       <c r="BI12" s="6"/>
       <c r="BJ12" s="6"/>
       <c r="BK12" s="6"/>
       <c r="BL12" s="6"/>
       <c r="BM12" s="6"/>
       <c r="BN12" s="6"/>
-      <c r="BO12" s="56"/>
-      <c r="BP12" s="56"/>
-      <c r="BQ12" s="56"/>
-      <c r="BR12" s="56"/>
-      <c r="BS12" s="56"/>
-      <c r="BT12" s="57"/>
-      <c r="BU12" s="58"/>
-      <c r="BV12" s="57"/>
-      <c r="BW12" s="58"/>
-      <c r="BX12" s="57"/>
-      <c r="BY12" s="58"/>
-      <c r="BZ12" s="57"/>
-      <c r="CA12" s="74"/>
-      <c r="CB12" s="75"/>
-      <c r="CC12" s="58"/>
-      <c r="CD12" s="57"/>
-      <c r="CE12" s="76"/>
-      <c r="CF12" s="75"/>
-      <c r="CG12" s="58"/>
-      <c r="CH12" s="56"/>
+      <c r="BO12" s="63"/>
+      <c r="BP12" s="63"/>
+      <c r="BQ12" s="63"/>
+      <c r="BR12" s="63"/>
+      <c r="BS12" s="63"/>
+      <c r="BT12" s="10"/>
+      <c r="BU12" s="9"/>
+      <c r="BV12" s="10"/>
+      <c r="BW12" s="9"/>
+      <c r="BX12" s="10"/>
+      <c r="BY12" s="9"/>
+      <c r="BZ12" s="10"/>
+      <c r="CA12" s="7"/>
+      <c r="CB12" s="8"/>
+      <c r="CC12" s="9"/>
+      <c r="CD12" s="10"/>
+      <c r="CE12" s="11"/>
+      <c r="CF12" s="8"/>
+      <c r="CG12" s="9"/>
+      <c r="CH12" s="63"/>
     </row>
     <row r="14" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG14" s="44"/>
-      <c r="BH14" s="45"/>
+      <c r="BG14" s="47"/>
+      <c r="BH14" s="48"/>
     </row>
     <row r="15" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG15" s="46"/>
-      <c r="BH15" s="47"/>
+      <c r="BG15" s="49"/>
+      <c r="BH15" s="50"/>
     </row>
     <row r="16" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG16" s="48"/>
-      <c r="BH16" s="49"/>
+      <c r="BG16" s="51"/>
+      <c r="BH16" s="52"/>
     </row>
     <row r="17" spans="59:60" ht="11.45" customHeight="1">
-      <c r="BG17" s="50"/>
-      <c r="BH17" s="51"/>
+      <c r="BG17" s="53"/>
+      <c r="BH17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="224">
-    <mergeCell ref="CA12:CB12"/>
-    <mergeCell ref="CC12:CD12"/>
-    <mergeCell ref="CE12:CF12"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:AY10"/>
-    <mergeCell ref="AZ10:BA10"/>
-    <mergeCell ref="BB10:BC10"/>
-    <mergeCell ref="BD10:BE10"/>
-    <mergeCell ref="BY12:BZ12"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BQ11:BR11"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="BW11:BX11"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="L1:AA1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AA2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="BH1:BH2"/>
+    <mergeCell ref="BG1:BG2"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="BU1:BV1"/>
+    <mergeCell ref="BS1:BT1"/>
+    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="CG1:CH1"/>
+    <mergeCell ref="BW1:BX1"/>
+    <mergeCell ref="BY1:BZ1"/>
+    <mergeCell ref="CA1:CB1"/>
+    <mergeCell ref="CC1:CD1"/>
+    <mergeCell ref="CE1:CF1"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="CG4:CH4"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="BD5:BE7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="BG14:BH14"/>
+    <mergeCell ref="BG15:BH17"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BG7:BM7"/>
+    <mergeCell ref="BN7:CH7"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="BQ9:BV9"/>
+    <mergeCell ref="BW9:CH9"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BO12:BP12"/>
+    <mergeCell ref="BQ12:BR12"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BW12:BX12"/>
+    <mergeCell ref="CG12:CH12"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BO11:BP11"/>
+    <mergeCell ref="CG11:CH11"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BY11:BZ11"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC4:CD4"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CA11:CB11"/>
+    <mergeCell ref="CC11:CD11"/>
+    <mergeCell ref="CE11:CF11"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="U10:V10"/>
     <mergeCell ref="W9:X9"/>
@@ -2149,166 +2333,46 @@
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="CG11:CH11"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BY11:BZ11"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC4:CD4"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CA11:CB11"/>
-    <mergeCell ref="CC11:CD11"/>
-    <mergeCell ref="CE11:CF11"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="BG14:BH14"/>
-    <mergeCell ref="BG15:BH17"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BG7:BM7"/>
-    <mergeCell ref="BN7:CH7"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="BQ9:BV9"/>
-    <mergeCell ref="BW9:CH9"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BO12:BP12"/>
-    <mergeCell ref="BQ12:BR12"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BW12:BX12"/>
-    <mergeCell ref="CG12:CH12"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BO11:BP11"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:T1"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="CG1:CH1"/>
-    <mergeCell ref="BW1:BX1"/>
-    <mergeCell ref="BY1:BZ1"/>
-    <mergeCell ref="CA1:CB1"/>
-    <mergeCell ref="CC1:CD1"/>
-    <mergeCell ref="CE1:CF1"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="CG4:CH4"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="BD5:BE7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="BH1:BH2"/>
-    <mergeCell ref="BG1:BG2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="BU1:BV1"/>
-    <mergeCell ref="BS1:BT1"/>
-    <mergeCell ref="BQ1:BR1"/>
-    <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="CA12:CB12"/>
+    <mergeCell ref="CC12:CD12"/>
+    <mergeCell ref="CE12:CF12"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:AY10"/>
+    <mergeCell ref="AZ10:BA10"/>
+    <mergeCell ref="BB10:BC10"/>
+    <mergeCell ref="BD10:BE10"/>
+    <mergeCell ref="BY12:BZ12"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BQ11:BR11"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BW11:BX11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
@@ -780,276 +780,276 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="48" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="40" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="48" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1371,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="205" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="205" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
@@ -1383,199 +1383,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="81" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="77"/>
-      <c r="BI1" s="73"/>
-      <c r="BJ1" s="74"/>
-      <c r="BK1" s="73"/>
-      <c r="BL1" s="74"/>
-      <c r="BM1" s="73"/>
-      <c r="BN1" s="74"/>
-      <c r="BO1" s="73"/>
-      <c r="BP1" s="74"/>
-      <c r="BQ1" s="73"/>
-      <c r="BR1" s="74"/>
-      <c r="BS1" s="73"/>
-      <c r="BT1" s="74"/>
-      <c r="BU1" s="73"/>
-      <c r="BV1" s="74"/>
-      <c r="BW1" s="73"/>
-      <c r="BX1" s="74"/>
-      <c r="BY1" s="73"/>
-      <c r="BZ1" s="74"/>
-      <c r="CA1" s="73"/>
-      <c r="CB1" s="74"/>
-      <c r="CC1" s="73"/>
-      <c r="CD1" s="74"/>
-      <c r="CE1" s="75"/>
-      <c r="CF1" s="74"/>
-      <c r="CG1" s="73"/>
-      <c r="CH1" s="75"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="15"/>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="14"/>
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="14"/>
+      <c r="BM1" s="12"/>
+      <c r="BN1" s="14"/>
+      <c r="BO1" s="12"/>
+      <c r="BP1" s="14"/>
+      <c r="BQ1" s="12"/>
+      <c r="BR1" s="14"/>
+      <c r="BS1" s="12"/>
+      <c r="BT1" s="14"/>
+      <c r="BU1" s="12"/>
+      <c r="BV1" s="14"/>
+      <c r="BW1" s="12"/>
+      <c r="BX1" s="14"/>
+      <c r="BY1" s="12"/>
+      <c r="BZ1" s="14"/>
+      <c r="CA1" s="12"/>
+      <c r="CB1" s="14"/>
+      <c r="CC1" s="12"/>
+      <c r="CD1" s="14"/>
+      <c r="CE1" s="13"/>
+      <c r="CF1" s="14"/>
+      <c r="CG1" s="12"/>
+      <c r="CH1" s="13"/>
     </row>
     <row r="2" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="82" t="s">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="BG2" s="80"/>
-      <c r="BH2" s="78"/>
-      <c r="BI2" s="73"/>
-      <c r="BJ2" s="74"/>
-      <c r="BK2" s="73"/>
-      <c r="BL2" s="74"/>
-      <c r="BM2" s="73"/>
-      <c r="BN2" s="74"/>
-      <c r="BO2" s="73"/>
-      <c r="BP2" s="74"/>
-      <c r="BQ2" s="73"/>
-      <c r="BR2" s="74"/>
-      <c r="BS2" s="73"/>
-      <c r="BT2" s="74"/>
-      <c r="BU2" s="73"/>
-      <c r="BV2" s="74"/>
-      <c r="BW2" s="73"/>
-      <c r="BX2" s="74"/>
-      <c r="BY2" s="73"/>
-      <c r="BZ2" s="74"/>
-      <c r="CA2" s="73"/>
-      <c r="CB2" s="74"/>
-      <c r="CC2" s="73"/>
-      <c r="CD2" s="74"/>
-      <c r="CE2" s="75"/>
-      <c r="CF2" s="74"/>
-      <c r="CG2" s="73"/>
-      <c r="CH2" s="75"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="14"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="14"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="14"/>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="14"/>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="14"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="14"/>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="14"/>
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="14"/>
+      <c r="BY2" s="12"/>
+      <c r="BZ2" s="14"/>
+      <c r="CA2" s="12"/>
+      <c r="CB2" s="14"/>
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="14"/>
+      <c r="CE2" s="13"/>
+      <c r="CF2" s="14"/>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="13"/>
     </row>
     <row r="3" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="88" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="88"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="88"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="88"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="88"/>
-      <c r="AH4" s="90"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="28"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
@@ -1592,79 +1592,79 @@
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
-      <c r="BD4" s="76"/>
-      <c r="BE4" s="76"/>
-      <c r="BG4" s="55"/>
-      <c r="BH4" s="57"/>
-      <c r="BI4" s="32"/>
-      <c r="BJ4" s="33"/>
-      <c r="BK4" s="32"/>
-      <c r="BL4" s="33"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="33"/>
-      <c r="BO4" s="32"/>
-      <c r="BP4" s="33"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="33"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="33"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="33"/>
-      <c r="BW4" s="32"/>
-      <c r="BX4" s="33"/>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="33"/>
-      <c r="CA4" s="32"/>
-      <c r="CB4" s="33"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="33"/>
-      <c r="CE4" s="44"/>
-      <c r="CF4" s="33"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="44"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="24"/>
+      <c r="BG4" s="65"/>
+      <c r="BH4" s="67"/>
+      <c r="BI4" s="21"/>
+      <c r="BJ4" s="23"/>
+      <c r="BK4" s="21"/>
+      <c r="BL4" s="23"/>
+      <c r="BM4" s="21"/>
+      <c r="BN4" s="23"/>
+      <c r="BO4" s="21"/>
+      <c r="BP4" s="23"/>
+      <c r="BQ4" s="21"/>
+      <c r="BR4" s="23"/>
+      <c r="BS4" s="21"/>
+      <c r="BT4" s="23"/>
+      <c r="BU4" s="21"/>
+      <c r="BV4" s="23"/>
+      <c r="BW4" s="21"/>
+      <c r="BX4" s="23"/>
+      <c r="BY4" s="21"/>
+      <c r="BZ4" s="23"/>
+      <c r="CA4" s="21"/>
+      <c r="CB4" s="23"/>
+      <c r="CC4" s="21"/>
+      <c r="CD4" s="23"/>
+      <c r="CE4" s="22"/>
+      <c r="CF4" s="23"/>
+      <c r="CG4" s="21"/>
+      <c r="CH4" s="22"/>
     </row>
     <row r="5" spans="1:86" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="94" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="95"/>
-      <c r="W5" s="94"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="94"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="94"/>
-      <c r="AB5" s="96"/>
-      <c r="AC5" s="94"/>
-      <c r="AD5" s="96"/>
-      <c r="AE5" s="94"/>
-      <c r="AF5" s="96"/>
-      <c r="AG5" s="94"/>
-      <c r="AH5" s="96"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="30"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="76"/>
-      <c r="AM5" s="76"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
@@ -1681,77 +1681,77 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
-      <c r="BD5" s="76"/>
-      <c r="BE5" s="76"/>
-      <c r="BG5" s="56"/>
-      <c r="BH5" s="58"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="32"/>
-      <c r="BL5" s="33"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="33"/>
-      <c r="BO5" s="32"/>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="32"/>
-      <c r="BR5" s="33"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="33"/>
-      <c r="BU5" s="32"/>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="32"/>
-      <c r="BX5" s="33"/>
-      <c r="BY5" s="32"/>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="32"/>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="32"/>
-      <c r="CD5" s="33"/>
-      <c r="CE5" s="44"/>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="32"/>
-      <c r="CH5" s="44"/>
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="24"/>
+      <c r="BG5" s="66"/>
+      <c r="BH5" s="68"/>
+      <c r="BI5" s="21"/>
+      <c r="BJ5" s="23"/>
+      <c r="BK5" s="21"/>
+      <c r="BL5" s="23"/>
+      <c r="BM5" s="21"/>
+      <c r="BN5" s="23"/>
+      <c r="BO5" s="21"/>
+      <c r="BP5" s="23"/>
+      <c r="BQ5" s="21"/>
+      <c r="BR5" s="23"/>
+      <c r="BS5" s="21"/>
+      <c r="BT5" s="23"/>
+      <c r="BU5" s="21"/>
+      <c r="BV5" s="23"/>
+      <c r="BW5" s="21"/>
+      <c r="BX5" s="23"/>
+      <c r="BY5" s="21"/>
+      <c r="BZ5" s="23"/>
+      <c r="CA5" s="21"/>
+      <c r="CB5" s="23"/>
+      <c r="CC5" s="21"/>
+      <c r="CD5" s="23"/>
+      <c r="CE5" s="22"/>
+      <c r="CF5" s="23"/>
+      <c r="CG5" s="21"/>
+      <c r="CH5" s="22"/>
     </row>
     <row r="6" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="91"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="92"/>
-      <c r="W6" s="91"/>
-      <c r="X6" s="92"/>
-      <c r="Y6" s="91"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="91"/>
-      <c r="AB6" s="93"/>
-      <c r="AC6" s="91"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="91"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="91"/>
-      <c r="AH6" s="93"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="20"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="76"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
@@ -1768,49 +1768,49 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
       <c r="BC6" s="4"/>
-      <c r="BD6" s="76"/>
-      <c r="BE6" s="76"/>
+      <c r="BD6" s="24"/>
+      <c r="BE6" s="24"/>
     </row>
     <row r="7" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="41"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="41"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="26"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="76"/>
-      <c r="AK7" s="76"/>
-      <c r="AL7" s="76"/>
-      <c r="AM7" s="76"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
@@ -1827,328 +1827,528 @@
       <c r="BA7" s="4"/>
       <c r="BB7" s="4"/>
       <c r="BC7" s="4"/>
-      <c r="BD7" s="76"/>
-      <c r="BE7" s="76"/>
-      <c r="BG7" s="59" t="s">
+      <c r="BD7" s="24"/>
+      <c r="BE7" s="24"/>
+      <c r="BG7" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="BH7" s="60"/>
-      <c r="BI7" s="61"/>
-      <c r="BJ7" s="61"/>
-      <c r="BK7" s="61"/>
-      <c r="BL7" s="61"/>
-      <c r="BM7" s="61"/>
-      <c r="BN7" s="59" t="s">
+      <c r="BH7" s="70"/>
+      <c r="BI7" s="71"/>
+      <c r="BJ7" s="71"/>
+      <c r="BK7" s="71"/>
+      <c r="BL7" s="71"/>
+      <c r="BM7" s="71"/>
+      <c r="BN7" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="BO7" s="60"/>
-      <c r="BP7" s="61"/>
-      <c r="BQ7" s="61"/>
-      <c r="BR7" s="61"/>
-      <c r="BS7" s="61"/>
-      <c r="BT7" s="61"/>
-      <c r="BU7" s="61"/>
-      <c r="BV7" s="61"/>
-      <c r="BW7" s="61"/>
-      <c r="BX7" s="61"/>
-      <c r="BY7" s="61"/>
-      <c r="BZ7" s="61"/>
-      <c r="CA7" s="61"/>
-      <c r="CB7" s="61"/>
-      <c r="CC7" s="61"/>
-      <c r="CD7" s="61"/>
-      <c r="CE7" s="61"/>
-      <c r="CF7" s="61"/>
-      <c r="CG7" s="61"/>
-      <c r="CH7" s="61"/>
+      <c r="BO7" s="70"/>
+      <c r="BP7" s="71"/>
+      <c r="BQ7" s="71"/>
+      <c r="BR7" s="71"/>
+      <c r="BS7" s="71"/>
+      <c r="BT7" s="71"/>
+      <c r="BU7" s="71"/>
+      <c r="BV7" s="71"/>
+      <c r="BW7" s="71"/>
+      <c r="BX7" s="71"/>
+      <c r="BY7" s="71"/>
+      <c r="BZ7" s="71"/>
+      <c r="CA7" s="71"/>
+      <c r="CB7" s="71"/>
+      <c r="CC7" s="71"/>
+      <c r="CD7" s="71"/>
+      <c r="CE7" s="71"/>
+      <c r="CF7" s="71"/>
+      <c r="CG7" s="71"/>
+      <c r="CH7" s="71"/>
     </row>
     <row r="8" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
       <c r="U8" s="3"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="38"/>
-      <c r="AN8" s="38"/>
-      <c r="AO8" s="38"/>
-      <c r="AP8" s="38"/>
-      <c r="AQ8" s="38"/>
-      <c r="AR8" s="38"/>
-      <c r="AS8" s="38"/>
-      <c r="AT8" s="38"/>
-      <c r="AU8" s="38"/>
-      <c r="AV8" s="38"/>
-      <c r="AW8" s="38"/>
-      <c r="AX8" s="38"/>
-      <c r="AY8" s="38"/>
-      <c r="AZ8" s="38"/>
-      <c r="BA8" s="38"/>
-      <c r="BB8" s="38"/>
-      <c r="BC8" s="38"/>
-      <c r="BD8" s="39"/>
-      <c r="BE8" s="39"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="84"/>
+      <c r="AM8" s="85"/>
+      <c r="AN8" s="85"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="85"/>
+      <c r="AQ8" s="85"/>
+      <c r="AR8" s="85"/>
+      <c r="AS8" s="85"/>
+      <c r="AT8" s="85"/>
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="85"/>
+      <c r="AW8" s="85"/>
+      <c r="AX8" s="85"/>
+      <c r="AY8" s="85"/>
+      <c r="AZ8" s="85"/>
+      <c r="BA8" s="85"/>
+      <c r="BB8" s="85"/>
+      <c r="BC8" s="85"/>
+      <c r="BD8" s="86"/>
+      <c r="BE8" s="86"/>
     </row>
     <row r="9" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="24"/>
-      <c r="AD9" s="27" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="89"/>
+      <c r="AD9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AE9" s="29" t="s">
+      <c r="AE9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="22" t="s">
+      <c r="AF9" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="23"/>
-      <c r="BG9" s="59" t="s">
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="37"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="37"/>
+      <c r="AY9" s="38"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="37"/>
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="87"/>
+      <c r="BE9" s="88"/>
+      <c r="BG9" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="BH9" s="60"/>
-      <c r="BI9" s="61"/>
-      <c r="BJ9" s="61"/>
-      <c r="BK9" s="61"/>
-      <c r="BL9" s="59" t="s">
+      <c r="BH9" s="70"/>
+      <c r="BI9" s="71"/>
+      <c r="BJ9" s="71"/>
+      <c r="BK9" s="71"/>
+      <c r="BL9" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="BM9" s="60"/>
-      <c r="BN9" s="61"/>
-      <c r="BO9" s="61"/>
-      <c r="BP9" s="61"/>
-      <c r="BQ9" s="59" t="s">
+      <c r="BM9" s="70"/>
+      <c r="BN9" s="71"/>
+      <c r="BO9" s="71"/>
+      <c r="BP9" s="71"/>
+      <c r="BQ9" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="60"/>
-      <c r="BS9" s="60"/>
-      <c r="BT9" s="61"/>
-      <c r="BU9" s="61"/>
-      <c r="BV9" s="61"/>
-      <c r="BW9" s="59" t="s">
+      <c r="BR9" s="70"/>
+      <c r="BS9" s="70"/>
+      <c r="BT9" s="71"/>
+      <c r="BU9" s="71"/>
+      <c r="BV9" s="71"/>
+      <c r="BW9" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="BX9" s="60"/>
-      <c r="BY9" s="60"/>
-      <c r="BZ9" s="60"/>
-      <c r="CA9" s="60"/>
-      <c r="CB9" s="60"/>
-      <c r="CC9" s="60"/>
-      <c r="CD9" s="60"/>
-      <c r="CE9" s="60"/>
-      <c r="CF9" s="60"/>
-      <c r="CG9" s="61"/>
-      <c r="CH9" s="61"/>
+      <c r="BX9" s="70"/>
+      <c r="BY9" s="70"/>
+      <c r="BZ9" s="70"/>
+      <c r="CA9" s="70"/>
+      <c r="CB9" s="70"/>
+      <c r="CC9" s="70"/>
+      <c r="CD9" s="70"/>
+      <c r="CE9" s="70"/>
+      <c r="CF9" s="70"/>
+      <c r="CG9" s="71"/>
+      <c r="CH9" s="71"/>
     </row>
     <row r="10" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="25" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="26"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="25" t="s">
+      <c r="D10" s="42"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="90"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="12"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="12"/>
-      <c r="AW10" s="13"/>
-      <c r="AX10" s="12"/>
-      <c r="AY10" s="13"/>
-      <c r="AZ10" s="12"/>
-      <c r="BA10" s="13"/>
-      <c r="BB10" s="12"/>
-      <c r="BC10" s="13"/>
-      <c r="BD10" s="14"/>
-      <c r="BE10" s="14"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="40"/>
+      <c r="AL10" s="39"/>
+      <c r="AM10" s="40"/>
+      <c r="AN10" s="39"/>
+      <c r="AO10" s="40"/>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="40"/>
+      <c r="AR10" s="39"/>
+      <c r="AS10" s="40"/>
+      <c r="AT10" s="39"/>
+      <c r="AU10" s="40"/>
+      <c r="AV10" s="39"/>
+      <c r="AW10" s="40"/>
+      <c r="AX10" s="39"/>
+      <c r="AY10" s="40"/>
+      <c r="AZ10" s="39"/>
+      <c r="BA10" s="40"/>
+      <c r="BB10" s="39"/>
+      <c r="BC10" s="40"/>
+      <c r="BD10" s="94"/>
+      <c r="BE10" s="94"/>
     </row>
     <row r="11" spans="1:86" ht="9.75" customHeight="1" thickTop="1">
-      <c r="BG11" s="15" t="s">
+      <c r="BG11" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="BH11" s="15"/>
+      <c r="BH11" s="95"/>
       <c r="BI11" s="5"/>
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
       <c r="BN11" s="5"/>
-      <c r="BO11" s="16"/>
-      <c r="BP11" s="16"/>
-      <c r="BQ11" s="16"/>
-      <c r="BR11" s="16"/>
-      <c r="BS11" s="16"/>
-      <c r="BT11" s="17"/>
-      <c r="BU11" s="18"/>
-      <c r="BV11" s="19"/>
-      <c r="BW11" s="18"/>
-      <c r="BX11" s="19"/>
-      <c r="BY11" s="18"/>
-      <c r="BZ11" s="19"/>
-      <c r="CA11" s="18"/>
-      <c r="CB11" s="19"/>
-      <c r="CC11" s="18"/>
-      <c r="CD11" s="19"/>
-      <c r="CE11" s="45"/>
-      <c r="CF11" s="46"/>
-      <c r="CG11" s="18"/>
-      <c r="CH11" s="43"/>
+      <c r="BO11" s="76"/>
+      <c r="BP11" s="76"/>
+      <c r="BQ11" s="76"/>
+      <c r="BR11" s="76"/>
+      <c r="BS11" s="76"/>
+      <c r="BT11" s="96"/>
+      <c r="BU11" s="77"/>
+      <c r="BV11" s="79"/>
+      <c r="BW11" s="77"/>
+      <c r="BX11" s="79"/>
+      <c r="BY11" s="77"/>
+      <c r="BZ11" s="79"/>
+      <c r="CA11" s="77"/>
+      <c r="CB11" s="79"/>
+      <c r="CC11" s="77"/>
+      <c r="CD11" s="79"/>
+      <c r="CE11" s="80"/>
+      <c r="CF11" s="81"/>
+      <c r="CG11" s="77"/>
+      <c r="CH11" s="78"/>
     </row>
     <row r="12" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG12" s="62"/>
-      <c r="BH12" s="62"/>
+      <c r="BG12" s="72"/>
+      <c r="BH12" s="72"/>
       <c r="BI12" s="6"/>
       <c r="BJ12" s="6"/>
       <c r="BK12" s="6"/>
       <c r="BL12" s="6"/>
       <c r="BM12" s="6"/>
       <c r="BN12" s="6"/>
-      <c r="BO12" s="63"/>
-      <c r="BP12" s="63"/>
-      <c r="BQ12" s="63"/>
-      <c r="BR12" s="63"/>
-      <c r="BS12" s="63"/>
-      <c r="BT12" s="10"/>
-      <c r="BU12" s="9"/>
-      <c r="BV12" s="10"/>
-      <c r="BW12" s="9"/>
-      <c r="BX12" s="10"/>
-      <c r="BY12" s="9"/>
-      <c r="BZ12" s="10"/>
-      <c r="CA12" s="7"/>
-      <c r="CB12" s="8"/>
-      <c r="CC12" s="9"/>
-      <c r="CD12" s="10"/>
-      <c r="CE12" s="11"/>
-      <c r="CF12" s="8"/>
-      <c r="CG12" s="9"/>
-      <c r="CH12" s="63"/>
+      <c r="BO12" s="73"/>
+      <c r="BP12" s="73"/>
+      <c r="BQ12" s="73"/>
+      <c r="BR12" s="73"/>
+      <c r="BS12" s="73"/>
+      <c r="BT12" s="74"/>
+      <c r="BU12" s="75"/>
+      <c r="BV12" s="74"/>
+      <c r="BW12" s="75"/>
+      <c r="BX12" s="74"/>
+      <c r="BY12" s="75"/>
+      <c r="BZ12" s="74"/>
+      <c r="CA12" s="91"/>
+      <c r="CB12" s="92"/>
+      <c r="CC12" s="75"/>
+      <c r="CD12" s="74"/>
+      <c r="CE12" s="93"/>
+      <c r="CF12" s="92"/>
+      <c r="CG12" s="75"/>
+      <c r="CH12" s="73"/>
     </row>
     <row r="14" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG14" s="47"/>
-      <c r="BH14" s="48"/>
+      <c r="BG14" s="57"/>
+      <c r="BH14" s="58"/>
     </row>
     <row r="15" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG15" s="49"/>
-      <c r="BH15" s="50"/>
+      <c r="BG15" s="59"/>
+      <c r="BH15" s="60"/>
     </row>
     <row r="16" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG16" s="51"/>
-      <c r="BH16" s="52"/>
+      <c r="BG16" s="61"/>
+      <c r="BH16" s="62"/>
     </row>
     <row r="17" spans="59:60" ht="11.45" customHeight="1">
-      <c r="BG17" s="53"/>
-      <c r="BH17" s="54"/>
+      <c r="BG17" s="63"/>
+      <c r="BH17" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="224">
+    <mergeCell ref="CA12:CB12"/>
+    <mergeCell ref="CC12:CD12"/>
+    <mergeCell ref="CE12:CF12"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:AY10"/>
+    <mergeCell ref="AZ10:BA10"/>
+    <mergeCell ref="BB10:BC10"/>
+    <mergeCell ref="BD10:BE10"/>
+    <mergeCell ref="BY12:BZ12"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BQ11:BR11"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BW11:BX11"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AL8:BE8"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="CG11:CH11"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BY11:BZ11"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC4:CD4"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CA11:CB11"/>
+    <mergeCell ref="CC11:CD11"/>
+    <mergeCell ref="CE11:CF11"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BG14:BH14"/>
+    <mergeCell ref="BG15:BH17"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BG7:BM7"/>
+    <mergeCell ref="BN7:CH7"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="BQ9:BV9"/>
+    <mergeCell ref="BW9:CH9"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BO12:BP12"/>
+    <mergeCell ref="BQ12:BR12"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BW12:BX12"/>
+    <mergeCell ref="CG12:CH12"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BO11:BP11"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="CG4:CH4"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="BD5:BE7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="CG1:CH1"/>
+    <mergeCell ref="BW1:BX1"/>
+    <mergeCell ref="BY1:BZ1"/>
+    <mergeCell ref="CA1:CB1"/>
+    <mergeCell ref="CC1:CD1"/>
+    <mergeCell ref="CE1:CF1"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:AA1"/>
     <mergeCell ref="A2:K2"/>
@@ -2173,206 +2373,6 @@
     <mergeCell ref="CE2:CF2"/>
     <mergeCell ref="BU1:BV1"/>
     <mergeCell ref="BS1:BT1"/>
-    <mergeCell ref="BQ1:BR1"/>
-    <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="CG1:CH1"/>
-    <mergeCell ref="BW1:BX1"/>
-    <mergeCell ref="BY1:BZ1"/>
-    <mergeCell ref="CA1:CB1"/>
-    <mergeCell ref="CC1:CD1"/>
-    <mergeCell ref="CE1:CF1"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="CG4:CH4"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="BD5:BE7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="BG14:BH14"/>
-    <mergeCell ref="BG15:BH17"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BG7:BM7"/>
-    <mergeCell ref="BN7:CH7"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="BQ9:BV9"/>
-    <mergeCell ref="BW9:CH9"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BO12:BP12"/>
-    <mergeCell ref="BQ12:BR12"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BW12:BX12"/>
-    <mergeCell ref="CG12:CH12"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BO11:BP11"/>
-    <mergeCell ref="CG11:CH11"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BY11:BZ11"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC4:CD4"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CA11:CB11"/>
-    <mergeCell ref="CC11:CD11"/>
-    <mergeCell ref="CE11:CF11"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AL8:BE8"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="CA12:CB12"/>
-    <mergeCell ref="CC12:CD12"/>
-    <mergeCell ref="CE12:CF12"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:AY10"/>
-    <mergeCell ref="AZ10:BA10"/>
-    <mergeCell ref="BB10:BC10"/>
-    <mergeCell ref="BD10:BE10"/>
-    <mergeCell ref="BY12:BZ12"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BQ11:BR11"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="BW11:BX11"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Sua Export KWR002\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK_clone\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E54007-365F-4F55-949B-DD5FDF525CEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="4755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -27,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
-  <si>
-    <t>&amp;=I18N.KWR002_211(bean)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>&amp;=I18N.KWR002_212(bean)</t>
   </si>
@@ -73,11 +71,17 @@
   <si>
     <t>&amp;=I18N.KWR002_235(bean)</t>
   </si>
+  <si>
+    <t>&amp;=I18N.KWR002_222(bean)</t>
+  </si>
+  <si>
+    <t>&amp;=I18N.KWR002_223(bean)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -143,7 +147,7 @@
     </font>
     <font>
       <b/>
-      <sz val="7"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
@@ -176,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -263,32 +267,6 @@
     </border>
     <border>
       <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -318,30 +296,6 @@
       </right>
       <top style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -499,15 +453,79 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="dotted">
         <color indexed="64"/>
       </left>
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -516,30 +534,67 @@
     <border>
       <left style="hair">
         <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
       </left>
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
       </left>
       <right style="hair">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,13 +602,13 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="dotted">
-        <color indexed="64"/>
+      <right style="hair">
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -562,90 +617,38 @@
       <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="dotted">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="dotted">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="dotted">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,25 +658,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -686,7 +671,7 @@
       <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -699,7 +684,7 @@
       <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -710,7 +695,7 @@
       <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -725,7 +710,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,83 +722,113 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="39" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -834,133 +849,121 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="36" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="37" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="38" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,19 +972,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,23 +1001,14 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent5" xfId="3" builtinId="46"/>
     <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2"/>
-    <cellStyle name="標準 3" xfId="1"/>
+    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1316,159 +1319,161 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="AK1" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="BV16" sqref="BV16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="AL17" sqref="AL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="9.75" customHeight="1"/>
   <cols>
-    <col min="1" max="57" width="2.42578125" style="1" customWidth="1"/>
+    <col min="1" max="28" width="2.28515625" style="1" customWidth="1"/>
+    <col min="29" max="31" width="2.140625" style="1" customWidth="1"/>
+    <col min="32" max="57" width="2.28515625" style="1" customWidth="1"/>
     <col min="58" max="91" width="2.7109375" style="1" customWidth="1"/>
     <col min="92" max="16384" width="3.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:86" ht="11.25" customHeight="1">
+      <c r="A1" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="82" t="s">
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="BG1" s="97"/>
+      <c r="BH1" s="95"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="85"/>
+      <c r="BK1" s="84"/>
+      <c r="BL1" s="85"/>
+      <c r="BM1" s="84"/>
+      <c r="BN1" s="85"/>
+      <c r="BO1" s="84"/>
+      <c r="BP1" s="85"/>
+      <c r="BQ1" s="84"/>
+      <c r="BR1" s="85"/>
+      <c r="BS1" s="84"/>
+      <c r="BT1" s="85"/>
+      <c r="BU1" s="84"/>
+      <c r="BV1" s="85"/>
+      <c r="BW1" s="84"/>
+      <c r="BX1" s="85"/>
+      <c r="BY1" s="84"/>
+      <c r="BZ1" s="85"/>
+      <c r="CA1" s="84"/>
+      <c r="CB1" s="85"/>
+      <c r="CC1" s="84"/>
+      <c r="CD1" s="85"/>
+      <c r="CE1" s="86"/>
+      <c r="CF1" s="85"/>
+      <c r="CG1" s="84"/>
+      <c r="CH1" s="86"/>
+    </row>
+    <row r="2" spans="1:86" ht="11.25" customHeight="1">
+      <c r="A2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="BG1" s="88"/>
-      <c r="BH1" s="86"/>
-      <c r="BI1" s="78"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="78"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="78"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="78"/>
-      <c r="BP1" s="79"/>
-      <c r="BQ1" s="78"/>
-      <c r="BR1" s="79"/>
-      <c r="BS1" s="78"/>
-      <c r="BT1" s="79"/>
-      <c r="BU1" s="78"/>
-      <c r="BV1" s="79"/>
-      <c r="BW1" s="78"/>
-      <c r="BX1" s="79"/>
-      <c r="BY1" s="78"/>
-      <c r="BZ1" s="79"/>
-      <c r="CA1" s="78"/>
-      <c r="CB1" s="79"/>
-      <c r="CC1" s="78"/>
-      <c r="CD1" s="79"/>
-      <c r="CE1" s="80"/>
-      <c r="CF1" s="79"/>
-      <c r="CG1" s="78"/>
-      <c r="CH1" s="80"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="BG2" s="98"/>
+      <c r="BH2" s="96"/>
+      <c r="BI2" s="92"/>
+      <c r="BJ2" s="94"/>
+      <c r="BK2" s="92"/>
+      <c r="BL2" s="94"/>
+      <c r="BM2" s="92"/>
+      <c r="BN2" s="94"/>
+      <c r="BO2" s="92"/>
+      <c r="BP2" s="94"/>
+      <c r="BQ2" s="92"/>
+      <c r="BR2" s="94"/>
+      <c r="BS2" s="92"/>
+      <c r="BT2" s="94"/>
+      <c r="BU2" s="92"/>
+      <c r="BV2" s="94"/>
+      <c r="BW2" s="92"/>
+      <c r="BX2" s="94"/>
+      <c r="BY2" s="92"/>
+      <c r="BZ2" s="94"/>
+      <c r="CA2" s="92"/>
+      <c r="CB2" s="94"/>
+      <c r="CC2" s="92"/>
+      <c r="CD2" s="94"/>
+      <c r="CE2" s="93"/>
+      <c r="CF2" s="94"/>
+      <c r="CG2" s="92"/>
+      <c r="CH2" s="93"/>
     </row>
-    <row r="2" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="84" t="s">
+    <row r="3" spans="1:86" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="BG2" s="89"/>
-      <c r="BH2" s="87"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="79"/>
-      <c r="BK2" s="78"/>
-      <c r="BL2" s="79"/>
-      <c r="BM2" s="78"/>
-      <c r="BN2" s="79"/>
-      <c r="BO2" s="78"/>
-      <c r="BP2" s="79"/>
-      <c r="BQ2" s="78"/>
-      <c r="BR2" s="79"/>
-      <c r="BS2" s="78"/>
-      <c r="BT2" s="79"/>
-      <c r="BU2" s="78"/>
-      <c r="BV2" s="79"/>
-      <c r="BW2" s="78"/>
-      <c r="BX2" s="79"/>
-      <c r="BY2" s="78"/>
-      <c r="BZ2" s="79"/>
-      <c r="CA2" s="78"/>
-      <c r="CB2" s="79"/>
-      <c r="CC2" s="78"/>
-      <c r="CD2" s="79"/>
-      <c r="CE2" s="80"/>
-      <c r="CF2" s="79"/>
-      <c r="CG2" s="78"/>
-      <c r="CH2" s="80"/>
-    </row>
-    <row r="3" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -1480,50 +1485,48 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:86" ht="9.9499999999999993" customHeight="1">
-      <c r="A4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="45"/>
+    <row r="4" spans="1:86" ht="11.25" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="55"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4"/>
@@ -1540,79 +1543,81 @@
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
       <c r="BC4" s="4"/>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="77"/>
-      <c r="BG4" s="57"/>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="28"/>
-      <c r="BJ4" s="29"/>
-      <c r="BK4" s="28"/>
-      <c r="BL4" s="29"/>
-      <c r="BM4" s="28"/>
-      <c r="BN4" s="29"/>
-      <c r="BO4" s="28"/>
-      <c r="BP4" s="29"/>
-      <c r="BQ4" s="28"/>
-      <c r="BR4" s="29"/>
-      <c r="BS4" s="28"/>
-      <c r="BT4" s="29"/>
-      <c r="BU4" s="28"/>
-      <c r="BV4" s="29"/>
-      <c r="BW4" s="28"/>
-      <c r="BX4" s="29"/>
-      <c r="BY4" s="28"/>
-      <c r="BZ4" s="29"/>
-      <c r="CA4" s="28"/>
-      <c r="CB4" s="29"/>
-      <c r="CC4" s="28"/>
-      <c r="CD4" s="29"/>
-      <c r="CE4" s="48"/>
-      <c r="CF4" s="29"/>
-      <c r="CG4" s="28"/>
-      <c r="CH4" s="48"/>
+      <c r="BD4" s="83"/>
+      <c r="BE4" s="83"/>
+      <c r="BG4" s="71"/>
+      <c r="BH4" s="73"/>
+      <c r="BI4" s="59"/>
+      <c r="BJ4" s="60"/>
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="60"/>
+      <c r="BM4" s="59"/>
+      <c r="BN4" s="60"/>
+      <c r="BO4" s="59"/>
+      <c r="BP4" s="60"/>
+      <c r="BQ4" s="59"/>
+      <c r="BR4" s="60"/>
+      <c r="BS4" s="59"/>
+      <c r="BT4" s="60"/>
+      <c r="BU4" s="59"/>
+      <c r="BV4" s="60"/>
+      <c r="BW4" s="59"/>
+      <c r="BX4" s="60"/>
+      <c r="BY4" s="59"/>
+      <c r="BZ4" s="60"/>
+      <c r="CA4" s="59"/>
+      <c r="CB4" s="60"/>
+      <c r="CC4" s="59"/>
+      <c r="CD4" s="60"/>
+      <c r="CE4" s="61"/>
+      <c r="CF4" s="60"/>
+      <c r="CG4" s="59"/>
+      <c r="CH4" s="61"/>
     </row>
-    <row r="5" spans="1:86" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="30"/>
-      <c r="AH5" s="38"/>
+    <row r="5" spans="1:86" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="48"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="77"/>
-      <c r="AM5" s="77"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="83"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
@@ -1629,77 +1634,79 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
       <c r="BC5" s="4"/>
-      <c r="BD5" s="77"/>
-      <c r="BE5" s="77"/>
-      <c r="BG5" s="58"/>
-      <c r="BH5" s="60"/>
-      <c r="BI5" s="28"/>
-      <c r="BJ5" s="29"/>
-      <c r="BK5" s="28"/>
-      <c r="BL5" s="29"/>
-      <c r="BM5" s="28"/>
-      <c r="BN5" s="29"/>
-      <c r="BO5" s="28"/>
-      <c r="BP5" s="29"/>
-      <c r="BQ5" s="28"/>
-      <c r="BR5" s="29"/>
-      <c r="BS5" s="28"/>
-      <c r="BT5" s="29"/>
-      <c r="BU5" s="28"/>
-      <c r="BV5" s="29"/>
-      <c r="BW5" s="28"/>
-      <c r="BX5" s="29"/>
-      <c r="BY5" s="28"/>
-      <c r="BZ5" s="29"/>
-      <c r="CA5" s="28"/>
-      <c r="CB5" s="29"/>
-      <c r="CC5" s="28"/>
-      <c r="CD5" s="29"/>
-      <c r="CE5" s="48"/>
-      <c r="CF5" s="29"/>
-      <c r="CG5" s="28"/>
-      <c r="CH5" s="48"/>
+      <c r="BD5" s="83"/>
+      <c r="BE5" s="83"/>
+      <c r="BG5" s="72"/>
+      <c r="BH5" s="74"/>
+      <c r="BI5" s="38"/>
+      <c r="BJ5" s="39"/>
+      <c r="BK5" s="38"/>
+      <c r="BL5" s="39"/>
+      <c r="BM5" s="38"/>
+      <c r="BN5" s="39"/>
+      <c r="BO5" s="38"/>
+      <c r="BP5" s="39"/>
+      <c r="BQ5" s="38"/>
+      <c r="BR5" s="39"/>
+      <c r="BS5" s="38"/>
+      <c r="BT5" s="39"/>
+      <c r="BU5" s="38"/>
+      <c r="BV5" s="39"/>
+      <c r="BW5" s="38"/>
+      <c r="BX5" s="39"/>
+      <c r="BY5" s="38"/>
+      <c r="BZ5" s="39"/>
+      <c r="CA5" s="38"/>
+      <c r="CB5" s="39"/>
+      <c r="CC5" s="38"/>
+      <c r="CD5" s="39"/>
+      <c r="CE5" s="62"/>
+      <c r="CF5" s="39"/>
+      <c r="CG5" s="38"/>
+      <c r="CH5" s="62"/>
     </row>
-    <row r="6" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="40"/>
+    <row r="6" spans="1:86" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="50"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
-      <c r="AL6" s="77"/>
-      <c r="AM6" s="77"/>
+      <c r="AL6" s="83"/>
+      <c r="AM6" s="83"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
@@ -1716,49 +1723,49 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
       <c r="BC6" s="4"/>
-      <c r="BD6" s="77"/>
-      <c r="BE6" s="77"/>
+      <c r="BD6" s="83"/>
+      <c r="BE6" s="83"/>
     </row>
-    <row r="7" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="42"/>
+    <row r="7" spans="1:86" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="52"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="77"/>
-      <c r="AK7" s="77"/>
-      <c r="AL7" s="77"/>
-      <c r="AM7" s="77"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="83"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
@@ -1775,328 +1782,328 @@
       <c r="BA7" s="4"/>
       <c r="BB7" s="4"/>
       <c r="BC7" s="4"/>
-      <c r="BD7" s="77"/>
-      <c r="BE7" s="77"/>
-      <c r="BG7" s="61" t="s">
+      <c r="BD7" s="83"/>
+      <c r="BE7" s="83"/>
+      <c r="BG7" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="76"/>
+      <c r="BI7" s="77"/>
+      <c r="BJ7" s="77"/>
+      <c r="BK7" s="77"/>
+      <c r="BL7" s="77"/>
+      <c r="BM7" s="77"/>
+      <c r="BN7" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="BH7" s="62"/>
-      <c r="BI7" s="63"/>
-      <c r="BJ7" s="63"/>
-      <c r="BK7" s="63"/>
-      <c r="BL7" s="63"/>
-      <c r="BM7" s="63"/>
-      <c r="BN7" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO7" s="62"/>
-      <c r="BP7" s="63"/>
-      <c r="BQ7" s="63"/>
-      <c r="BR7" s="63"/>
-      <c r="BS7" s="63"/>
-      <c r="BT7" s="63"/>
-      <c r="BU7" s="63"/>
-      <c r="BV7" s="63"/>
-      <c r="BW7" s="63"/>
-      <c r="BX7" s="63"/>
-      <c r="BY7" s="63"/>
-      <c r="BZ7" s="63"/>
-      <c r="CA7" s="63"/>
-      <c r="CB7" s="63"/>
-      <c r="CC7" s="63"/>
-      <c r="CD7" s="63"/>
-      <c r="CE7" s="63"/>
-      <c r="CF7" s="63"/>
-      <c r="CG7" s="63"/>
-      <c r="CH7" s="63"/>
+      <c r="BO7" s="76"/>
+      <c r="BP7" s="77"/>
+      <c r="BQ7" s="77"/>
+      <c r="BR7" s="77"/>
+      <c r="BS7" s="77"/>
+      <c r="BT7" s="77"/>
+      <c r="BU7" s="77"/>
+      <c r="BV7" s="77"/>
+      <c r="BW7" s="77"/>
+      <c r="BX7" s="77"/>
+      <c r="BY7" s="77"/>
+      <c r="BZ7" s="77"/>
+      <c r="CA7" s="77"/>
+      <c r="CB7" s="77"/>
+      <c r="CC7" s="77"/>
+      <c r="CD7" s="77"/>
+      <c r="CE7" s="77"/>
+      <c r="CF7" s="77"/>
+      <c r="CG7" s="77"/>
+      <c r="CH7" s="77"/>
     </row>
-    <row r="8" spans="1:86" ht="9.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:86" ht="9" customHeight="1" thickBot="1">
       <c r="U8" s="3"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="36"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
-      <c r="AQ8" s="36"/>
-      <c r="AR8" s="36"/>
-      <c r="AS8" s="36"/>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="36"/>
-      <c r="AV8" s="36"/>
-      <c r="AW8" s="36"/>
-      <c r="AX8" s="36"/>
-      <c r="AY8" s="36"/>
-      <c r="AZ8" s="36"/>
-      <c r="BA8" s="36"/>
-      <c r="BB8" s="36"/>
-      <c r="BC8" s="36"/>
-      <c r="BD8" s="37"/>
-      <c r="BE8" s="37"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="46"/>
+      <c r="AO8" s="46"/>
+      <c r="AP8" s="46"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
+      <c r="AT8" s="46"/>
+      <c r="AU8" s="46"/>
+      <c r="AV8" s="46"/>
+      <c r="AW8" s="46"/>
+      <c r="AX8" s="46"/>
+      <c r="AY8" s="46"/>
+      <c r="AZ8" s="46"/>
+      <c r="BA8" s="46"/>
+      <c r="BB8" s="46"/>
+      <c r="BC8" s="46"/>
+      <c r="BD8" s="47"/>
+      <c r="BE8" s="47"/>
     </row>
     <row r="9" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="20"/>
-      <c r="AD9" s="23" t="s">
+      <c r="C9" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="82"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="29"/>
+      <c r="AD9" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AE9" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="16"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="16"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="16"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="18"/>
-      <c r="BE9" s="19"/>
-      <c r="BG9" s="61" t="s">
+      <c r="AF9" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="26"/>
+      <c r="AX9" s="25"/>
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="25"/>
+      <c r="BC9" s="26"/>
+      <c r="BD9" s="27"/>
+      <c r="BE9" s="28"/>
+      <c r="BG9" s="75" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH9" s="76"/>
+      <c r="BI9" s="77"/>
+      <c r="BJ9" s="77"/>
+      <c r="BK9" s="77"/>
+      <c r="BL9" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="BH9" s="62"/>
-      <c r="BI9" s="63"/>
-      <c r="BJ9" s="63"/>
-      <c r="BK9" s="63"/>
-      <c r="BL9" s="61" t="s">
+      <c r="BM9" s="76"/>
+      <c r="BN9" s="77"/>
+      <c r="BO9" s="77"/>
+      <c r="BP9" s="77"/>
+      <c r="BQ9" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="BM9" s="62"/>
-      <c r="BN9" s="63"/>
-      <c r="BO9" s="63"/>
-      <c r="BP9" s="63"/>
-      <c r="BQ9" s="61" t="s">
+      <c r="BR9" s="76"/>
+      <c r="BS9" s="76"/>
+      <c r="BT9" s="77"/>
+      <c r="BU9" s="77"/>
+      <c r="BV9" s="77"/>
+      <c r="BW9" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="62"/>
-      <c r="BS9" s="62"/>
-      <c r="BT9" s="63"/>
-      <c r="BU9" s="63"/>
-      <c r="BV9" s="63"/>
-      <c r="BW9" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="BX9" s="62"/>
-      <c r="BY9" s="62"/>
-      <c r="BZ9" s="62"/>
-      <c r="CA9" s="62"/>
-      <c r="CB9" s="62"/>
-      <c r="CC9" s="62"/>
-      <c r="CD9" s="62"/>
-      <c r="CE9" s="62"/>
-      <c r="CF9" s="62"/>
-      <c r="CG9" s="63"/>
-      <c r="CH9" s="63"/>
+      <c r="BX9" s="76"/>
+      <c r="BY9" s="76"/>
+      <c r="BZ9" s="76"/>
+      <c r="CA9" s="76"/>
+      <c r="CB9" s="76"/>
+      <c r="CC9" s="76"/>
+      <c r="CD9" s="76"/>
+      <c r="CE9" s="76"/>
+      <c r="CF9" s="76"/>
+      <c r="CG9" s="77"/>
+      <c r="CH9" s="77"/>
     </row>
     <row r="10" spans="1:86" ht="12.2" customHeight="1" thickBot="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="22"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="11"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="11"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="11"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="11"/>
-      <c r="AZ10" s="10"/>
-      <c r="BA10" s="11"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="11"/>
-      <c r="BD10" s="12"/>
-      <c r="BE10" s="12"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="31"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="17"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="17"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="17"/>
+      <c r="BC10" s="18"/>
+      <c r="BD10" s="19"/>
+      <c r="BE10" s="19"/>
     </row>
     <row r="11" spans="1:86" ht="9.75" customHeight="1" thickTop="1">
-      <c r="BG11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH11" s="13"/>
+      <c r="BG11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH11" s="20"/>
       <c r="BI11" s="5"/>
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
       <c r="BN11" s="5"/>
-      <c r="BO11" s="14"/>
-      <c r="BP11" s="14"/>
-      <c r="BQ11" s="14"/>
-      <c r="BR11" s="14"/>
-      <c r="BS11" s="14"/>
-      <c r="BT11" s="15"/>
-      <c r="BU11" s="90"/>
-      <c r="BV11" s="91"/>
-      <c r="BW11" s="90"/>
-      <c r="BX11" s="91"/>
-      <c r="BY11" s="90"/>
-      <c r="BZ11" s="91"/>
-      <c r="CA11" s="90"/>
-      <c r="CB11" s="91"/>
-      <c r="CC11" s="90"/>
-      <c r="CD11" s="91"/>
-      <c r="CE11" s="92"/>
-      <c r="CF11" s="91"/>
-      <c r="CG11" s="90"/>
-      <c r="CH11" s="92"/>
+      <c r="BO11" s="21"/>
+      <c r="BP11" s="21"/>
+      <c r="BQ11" s="21"/>
+      <c r="BR11" s="21"/>
+      <c r="BS11" s="21"/>
+      <c r="BT11" s="22"/>
+      <c r="BU11" s="23"/>
+      <c r="BV11" s="24"/>
+      <c r="BW11" s="23"/>
+      <c r="BX11" s="24"/>
+      <c r="BY11" s="23"/>
+      <c r="BZ11" s="24"/>
+      <c r="CA11" s="23"/>
+      <c r="CB11" s="24"/>
+      <c r="CC11" s="23"/>
+      <c r="CD11" s="24"/>
+      <c r="CE11" s="58"/>
+      <c r="CF11" s="24"/>
+      <c r="CG11" s="23"/>
+      <c r="CH11" s="58"/>
     </row>
     <row r="12" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG12" s="64"/>
-      <c r="BH12" s="64"/>
+      <c r="BG12" s="78"/>
+      <c r="BH12" s="78"/>
       <c r="BI12" s="6"/>
       <c r="BJ12" s="6"/>
       <c r="BK12" s="6"/>
       <c r="BL12" s="6"/>
       <c r="BM12" s="6"/>
       <c r="BN12" s="6"/>
-      <c r="BO12" s="65"/>
-      <c r="BP12" s="65"/>
-      <c r="BQ12" s="65"/>
-      <c r="BR12" s="65"/>
-      <c r="BS12" s="65"/>
-      <c r="BT12" s="9"/>
-      <c r="BU12" s="8"/>
-      <c r="BV12" s="9"/>
-      <c r="BW12" s="8"/>
-      <c r="BX12" s="9"/>
-      <c r="BY12" s="8"/>
-      <c r="BZ12" s="9"/>
-      <c r="CA12" s="8"/>
-      <c r="CB12" s="9"/>
-      <c r="CC12" s="8"/>
-      <c r="CD12" s="9"/>
-      <c r="CE12" s="65"/>
-      <c r="CF12" s="9"/>
-      <c r="CG12" s="8"/>
-      <c r="CH12" s="65"/>
+      <c r="BO12" s="16"/>
+      <c r="BP12" s="16"/>
+      <c r="BQ12" s="16"/>
+      <c r="BR12" s="16"/>
+      <c r="BS12" s="16"/>
+      <c r="BT12" s="15"/>
+      <c r="BU12" s="14"/>
+      <c r="BV12" s="15"/>
+      <c r="BW12" s="14"/>
+      <c r="BX12" s="15"/>
+      <c r="BY12" s="14"/>
+      <c r="BZ12" s="15"/>
+      <c r="CA12" s="14"/>
+      <c r="CB12" s="15"/>
+      <c r="CC12" s="14"/>
+      <c r="CD12" s="15"/>
+      <c r="CE12" s="16"/>
+      <c r="CF12" s="15"/>
+      <c r="CG12" s="14"/>
+      <c r="CH12" s="16"/>
     </row>
     <row r="14" spans="1:86" ht="9.75" customHeight="1">
-      <c r="BG14" s="49"/>
-      <c r="BH14" s="50"/>
+      <c r="BG14" s="63"/>
+      <c r="BH14" s="64"/>
     </row>
     <row r="15" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG15" s="51"/>
-      <c r="BH15" s="52"/>
+      <c r="BG15" s="65"/>
+      <c r="BH15" s="66"/>
     </row>
     <row r="16" spans="1:86" ht="11.45" customHeight="1">
-      <c r="BG16" s="53"/>
-      <c r="BH16" s="54"/>
+      <c r="BG16" s="67"/>
+      <c r="BH16" s="68"/>
     </row>
     <row r="17" spans="59:60" ht="11.45" customHeight="1">
-      <c r="BG17" s="55"/>
-      <c r="BH17" s="56"/>
+      <c r="BG17" s="69"/>
+      <c r="BH17" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="224">
+  <mergeCells count="227">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="L1:AA1"/>
     <mergeCell ref="A2:K2"/>
@@ -2147,6 +2154,7 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AC5:AD5"/>
     <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="O4:P4"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:D9"/>
@@ -2163,7 +2171,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A4:B7"/>
     <mergeCell ref="V8:Z8"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="W7:X7"/>
@@ -2175,18 +2182,7 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="O7:P7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O4:P4"/>
     <mergeCell ref="BG14:BH14"/>
     <mergeCell ref="BG15:BH17"/>
     <mergeCell ref="BG4:BG5"/>
@@ -2247,6 +2243,12 @@
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="S7:T7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:X6"/>
@@ -2257,6 +2259,10 @@
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AA6:AB6"/>
     <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="U10:V10"/>
     <mergeCell ref="W9:X9"/>
@@ -2281,8 +2287,6 @@
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
     <mergeCell ref="BD9:BE9"/>
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="Y10:Z10"/>
@@ -2303,6 +2307,10 @@
     <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="AV9:AW9"/>
     <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="CA12:CB12"/>
     <mergeCell ref="CC12:CD12"/>
     <mergeCell ref="CE12:CF12"/>
@@ -2321,13 +2329,15 @@
     <mergeCell ref="BS11:BT11"/>
     <mergeCell ref="BU11:BV11"/>
     <mergeCell ref="BW11:BX11"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.12310606060606061" right="3.787878787878788E-2" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;9&amp;=$companyName&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16&amp;=$reportName&amp;R&amp;"ＭＳ ゴシック,標準"&amp;9&amp;D　&amp;T　
+    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;7&amp;=$companyName&amp;C&amp;"ＭＳ ゴシック,標準"&amp;16&amp;=$reportName&amp;R&amp;"ＭＳ ゴシック,標準"&amp;7&amp;D　&amp;T　
 page&amp;P</oddHeader>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR002_FS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK_clone\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0B8FDA-B94B-4E57-94CF-0DE55C17C6D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B614192-1B09-4CE2-8A65-40A0756FD914}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>&amp;=I18N.KWR002_212(bean)</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>&amp;=reportDayHead.lower(horizontal,noadd,skip:1)</t>
-  </si>
-  <si>
-    <t>&amp;=I18N.KWR002_235(bean)</t>
   </si>
   <si>
     <t>&amp;=I18N.KWR002_222(bean)</t>
@@ -571,7 +568,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,6 +586,228 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
@@ -610,242 +829,14 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1168,7 +1159,7 @@
   <dimension ref="A1:CH17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="9.75" customHeight="1"/>
@@ -1181,225 +1172,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:86" ht="11.25" customHeight="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="87" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="88"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="14"/>
-      <c r="BJ1" s="15"/>
-      <c r="BK1" s="14"/>
-      <c r="BL1" s="15"/>
-      <c r="BM1" s="14"/>
-      <c r="BN1" s="15"/>
-      <c r="BO1" s="14"/>
-      <c r="BP1" s="15"/>
-      <c r="BQ1" s="14"/>
-      <c r="BR1" s="15"/>
-      <c r="BS1" s="14"/>
-      <c r="BT1" s="15"/>
-      <c r="BU1" s="14"/>
-      <c r="BV1" s="15"/>
-      <c r="BW1" s="14"/>
-      <c r="BX1" s="15"/>
-      <c r="BY1" s="14"/>
-      <c r="BZ1" s="15"/>
-      <c r="CA1" s="14"/>
-      <c r="CB1" s="15"/>
-      <c r="CC1" s="14"/>
-      <c r="CD1" s="15"/>
-      <c r="CE1" s="16"/>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="14"/>
-      <c r="CH1" s="16"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="BG1" s="86"/>
+      <c r="BH1" s="84"/>
+      <c r="BI1" s="74"/>
+      <c r="BJ1" s="75"/>
+      <c r="BK1" s="74"/>
+      <c r="BL1" s="75"/>
+      <c r="BM1" s="74"/>
+      <c r="BN1" s="75"/>
+      <c r="BO1" s="74"/>
+      <c r="BP1" s="75"/>
+      <c r="BQ1" s="74"/>
+      <c r="BR1" s="75"/>
+      <c r="BS1" s="74"/>
+      <c r="BT1" s="75"/>
+      <c r="BU1" s="74"/>
+      <c r="BV1" s="75"/>
+      <c r="BW1" s="74"/>
+      <c r="BX1" s="75"/>
+      <c r="BY1" s="74"/>
+      <c r="BZ1" s="75"/>
+      <c r="CA1" s="74"/>
+      <c r="CB1" s="75"/>
+      <c r="CC1" s="74"/>
+      <c r="CD1" s="75"/>
+      <c r="CE1" s="76"/>
+      <c r="CF1" s="75"/>
+      <c r="CG1" s="74"/>
+      <c r="CH1" s="76"/>
     </row>
     <row r="2" spans="1:86" ht="11.25" customHeight="1">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="90" t="s">
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="BG2" s="13"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="9"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="9"/>
-      <c r="BM2" s="7"/>
-      <c r="BN2" s="9"/>
-      <c r="BO2" s="7"/>
-      <c r="BP2" s="9"/>
-      <c r="BQ2" s="7"/>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="7"/>
-      <c r="BT2" s="9"/>
-      <c r="BU2" s="7"/>
-      <c r="BV2" s="9"/>
-      <c r="BW2" s="7"/>
-      <c r="BX2" s="9"/>
-      <c r="BY2" s="7"/>
-      <c r="BZ2" s="9"/>
-      <c r="CA2" s="7"/>
-      <c r="CB2" s="9"/>
-      <c r="CC2" s="7"/>
-      <c r="CD2" s="9"/>
-      <c r="CE2" s="8"/>
-      <c r="CF2" s="9"/>
-      <c r="CG2" s="7"/>
-      <c r="CH2" s="8"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="BG2" s="87"/>
+      <c r="BH2" s="85"/>
+      <c r="BI2" s="81"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="81"/>
+      <c r="BL2" s="83"/>
+      <c r="BM2" s="81"/>
+      <c r="BN2" s="83"/>
+      <c r="BO2" s="81"/>
+      <c r="BP2" s="83"/>
+      <c r="BQ2" s="81"/>
+      <c r="BR2" s="83"/>
+      <c r="BS2" s="81"/>
+      <c r="BT2" s="83"/>
+      <c r="BU2" s="81"/>
+      <c r="BV2" s="83"/>
+      <c r="BW2" s="81"/>
+      <c r="BX2" s="83"/>
+      <c r="BY2" s="81"/>
+      <c r="BZ2" s="83"/>
+      <c r="CA2" s="81"/>
+      <c r="CB2" s="83"/>
+      <c r="CC2" s="81"/>
+      <c r="CD2" s="83"/>
+      <c r="CE2" s="82"/>
+      <c r="CF2" s="83"/>
+      <c r="CG2" s="81"/>
+      <c r="CH2" s="82"/>
     </row>
     <row r="3" spans="1:86" ht="11.25" customHeight="1">
-      <c r="A3" s="91" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="88"/>
-      <c r="AD3" s="88"/>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
     </row>
     <row r="4" spans="1:86" ht="9.6" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="26" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="27"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="90"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
+      <c r="AJ4" s="73"/>
+      <c r="AK4" s="73"/>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
@@ -1416,81 +1415,81 @@
       <c r="BA4" s="3"/>
       <c r="BB4" s="3"/>
       <c r="BC4" s="3"/>
-      <c r="BD4" s="23"/>
-      <c r="BE4" s="23"/>
+      <c r="BD4" s="73"/>
+      <c r="BE4" s="73"/>
       <c r="BG4" s="60"/>
       <c r="BH4" s="62"/>
-      <c r="BI4" s="19"/>
-      <c r="BJ4" s="28"/>
-      <c r="BK4" s="19"/>
-      <c r="BL4" s="28"/>
-      <c r="BM4" s="19"/>
-      <c r="BN4" s="28"/>
-      <c r="BO4" s="19"/>
-      <c r="BP4" s="28"/>
-      <c r="BQ4" s="19"/>
-      <c r="BR4" s="28"/>
-      <c r="BS4" s="19"/>
-      <c r="BT4" s="28"/>
-      <c r="BU4" s="19"/>
-      <c r="BV4" s="28"/>
-      <c r="BW4" s="19"/>
-      <c r="BX4" s="28"/>
-      <c r="BY4" s="19"/>
-      <c r="BZ4" s="28"/>
-      <c r="CA4" s="19"/>
-      <c r="CB4" s="28"/>
-      <c r="CC4" s="19"/>
-      <c r="CD4" s="28"/>
-      <c r="CE4" s="20"/>
-      <c r="CF4" s="28"/>
-      <c r="CG4" s="19"/>
-      <c r="CH4" s="20"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="49"/>
+      <c r="BK4" s="48"/>
+      <c r="BL4" s="49"/>
+      <c r="BM4" s="48"/>
+      <c r="BN4" s="49"/>
+      <c r="BO4" s="48"/>
+      <c r="BP4" s="49"/>
+      <c r="BQ4" s="48"/>
+      <c r="BR4" s="49"/>
+      <c r="BS4" s="48"/>
+      <c r="BT4" s="49"/>
+      <c r="BU4" s="48"/>
+      <c r="BV4" s="49"/>
+      <c r="BW4" s="48"/>
+      <c r="BX4" s="49"/>
+      <c r="BY4" s="48"/>
+      <c r="BZ4" s="49"/>
+      <c r="CA4" s="48"/>
+      <c r="CB4" s="49"/>
+      <c r="CC4" s="48"/>
+      <c r="CD4" s="49"/>
+      <c r="CE4" s="50"/>
+      <c r="CF4" s="49"/>
+      <c r="CG4" s="48"/>
+      <c r="CH4" s="50"/>
     </row>
     <row r="5" spans="1:86" ht="9.6" customHeight="1">
-      <c r="A5" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="29" t="s">
+      <c r="A5" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="30"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="40"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
+      <c r="AL5" s="73"/>
+      <c r="AM5" s="73"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
@@ -1507,79 +1506,79 @@
       <c r="BA5" s="3"/>
       <c r="BB5" s="3"/>
       <c r="BC5" s="3"/>
-      <c r="BD5" s="23"/>
-      <c r="BE5" s="23"/>
+      <c r="BD5" s="73"/>
+      <c r="BE5" s="73"/>
       <c r="BG5" s="61"/>
       <c r="BH5" s="63"/>
-      <c r="BI5" s="21"/>
-      <c r="BJ5" s="22"/>
-      <c r="BK5" s="21"/>
-      <c r="BL5" s="22"/>
-      <c r="BM5" s="21"/>
-      <c r="BN5" s="22"/>
-      <c r="BO5" s="21"/>
-      <c r="BP5" s="22"/>
-      <c r="BQ5" s="21"/>
-      <c r="BR5" s="22"/>
-      <c r="BS5" s="21"/>
-      <c r="BT5" s="22"/>
-      <c r="BU5" s="21"/>
-      <c r="BV5" s="22"/>
-      <c r="BW5" s="21"/>
-      <c r="BX5" s="22"/>
-      <c r="BY5" s="21"/>
-      <c r="BZ5" s="22"/>
-      <c r="CA5" s="21"/>
-      <c r="CB5" s="22"/>
-      <c r="CC5" s="21"/>
-      <c r="CD5" s="22"/>
-      <c r="CE5" s="71"/>
-      <c r="CF5" s="22"/>
-      <c r="CG5" s="21"/>
-      <c r="CH5" s="71"/>
+      <c r="BI5" s="32"/>
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="33"/>
+      <c r="BM5" s="32"/>
+      <c r="BN5" s="33"/>
+      <c r="BO5" s="32"/>
+      <c r="BP5" s="33"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="32"/>
+      <c r="BT5" s="33"/>
+      <c r="BU5" s="32"/>
+      <c r="BV5" s="33"/>
+      <c r="BW5" s="32"/>
+      <c r="BX5" s="33"/>
+      <c r="BY5" s="32"/>
+      <c r="BZ5" s="33"/>
+      <c r="CA5" s="32"/>
+      <c r="CB5" s="33"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="33"/>
+      <c r="CE5" s="51"/>
+      <c r="CF5" s="33"/>
+      <c r="CG5" s="32"/>
+      <c r="CH5" s="51"/>
     </row>
     <row r="6" spans="1:86" ht="9.6" customHeight="1" thickBot="1">
-      <c r="A6" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="18"/>
+      <c r="A6" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="42"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="23"/>
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="73"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
@@ -1596,49 +1595,49 @@
       <c r="BA6" s="3"/>
       <c r="BB6" s="3"/>
       <c r="BC6" s="3"/>
-      <c r="BD6" s="23"/>
-      <c r="BE6" s="23"/>
+      <c r="BD6" s="73"/>
+      <c r="BE6" s="73"/>
     </row>
     <row r="7" spans="1:86" ht="9.6" customHeight="1" thickBot="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="25"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="44"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="23"/>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="73"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
       <c r="AP7" s="3"/>
@@ -1655,8 +1654,8 @@
       <c r="BA7" s="3"/>
       <c r="BB7" s="3"/>
       <c r="BC7" s="3"/>
-      <c r="BD7" s="23"/>
-      <c r="BE7" s="23"/>
+      <c r="BD7" s="73"/>
+      <c r="BE7" s="73"/>
       <c r="BG7" s="64" t="s">
         <v>0</v>
       </c>
@@ -1692,112 +1691,112 @@
     </row>
     <row r="8" spans="1:86" ht="6.6" customHeight="1" thickBot="1">
       <c r="U8" s="4"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="47"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="49"/>
-      <c r="AJ8" s="49"/>
-      <c r="AK8" s="49"/>
-      <c r="AL8" s="76"/>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="77"/>
-      <c r="AP8" s="77"/>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="77"/>
-      <c r="AS8" s="77"/>
-      <c r="AT8" s="77"/>
-      <c r="AU8" s="77"/>
-      <c r="AV8" s="77"/>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="77"/>
-      <c r="AY8" s="77"/>
-      <c r="AZ8" s="77"/>
-      <c r="BA8" s="77"/>
-      <c r="BB8" s="77"/>
-      <c r="BC8" s="77"/>
-      <c r="BD8" s="78"/>
-      <c r="BE8" s="78"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="36"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="38"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="38"/>
+      <c r="BD8" s="39"/>
+      <c r="BE8" s="39"/>
     </row>
     <row r="9" spans="1:86" ht="10.199999999999999" customHeight="1" thickBot="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="27"/>
-      <c r="AD9" s="32" t="s">
+      <c r="D9" s="68"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="22"/>
+      <c r="AD9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AE9" s="34" t="s">
+      <c r="AE9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AF9" s="36" t="s">
+      <c r="AF9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AG9" s="79"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="26"/>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="26"/>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="79"/>
-      <c r="BE9" s="80"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="21"/>
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="20"/>
       <c r="BG9" s="64" t="s">
         <v>2</v>
       </c>
@@ -1836,98 +1835,98 @@
       <c r="CH9" s="66"/>
     </row>
     <row r="10" spans="1:86" ht="10.199999999999999" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="39" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="81"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="39" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="24"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="29"/>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="29"/>
-      <c r="AM10" s="38"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="38"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="38"/>
-      <c r="AR10" s="29"/>
-      <c r="AS10" s="38"/>
-      <c r="AT10" s="29"/>
-      <c r="AU10" s="38"/>
-      <c r="AV10" s="29"/>
-      <c r="AW10" s="38"/>
-      <c r="AX10" s="29"/>
-      <c r="AY10" s="38"/>
-      <c r="AZ10" s="29"/>
-      <c r="BA10" s="38"/>
-      <c r="BB10" s="29"/>
-      <c r="BC10" s="38"/>
-      <c r="BD10" s="82"/>
-      <c r="BE10" s="83"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="13"/>
     </row>
     <row r="11" spans="1:86" ht="9" customHeight="1">
-      <c r="BG11" s="84" t="s">
+      <c r="BG11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="BH11" s="84"/>
+      <c r="BH11" s="14"/>
       <c r="BI11" s="5"/>
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
       <c r="BN11" s="5"/>
-      <c r="BO11" s="72"/>
-      <c r="BP11" s="72"/>
-      <c r="BQ11" s="72"/>
-      <c r="BR11" s="72"/>
-      <c r="BS11" s="72"/>
-      <c r="BT11" s="85"/>
-      <c r="BU11" s="73"/>
-      <c r="BV11" s="75"/>
-      <c r="BW11" s="73"/>
-      <c r="BX11" s="75"/>
-      <c r="BY11" s="73"/>
-      <c r="BZ11" s="75"/>
-      <c r="CA11" s="73"/>
-      <c r="CB11" s="75"/>
-      <c r="CC11" s="73"/>
-      <c r="CD11" s="75"/>
-      <c r="CE11" s="74"/>
-      <c r="CF11" s="75"/>
-      <c r="CG11" s="73"/>
-      <c r="CH11" s="74"/>
+      <c r="BO11" s="15"/>
+      <c r="BP11" s="15"/>
+      <c r="BQ11" s="15"/>
+      <c r="BR11" s="15"/>
+      <c r="BS11" s="15"/>
+      <c r="BT11" s="16"/>
+      <c r="BU11" s="17"/>
+      <c r="BV11" s="18"/>
+      <c r="BW11" s="17"/>
+      <c r="BX11" s="18"/>
+      <c r="BY11" s="17"/>
+      <c r="BZ11" s="18"/>
+      <c r="CA11" s="17"/>
+      <c r="CB11" s="18"/>
+      <c r="CC11" s="17"/>
+      <c r="CD11" s="18"/>
+      <c r="CE11" s="47"/>
+      <c r="CF11" s="18"/>
+      <c r="CG11" s="17"/>
+      <c r="CH11" s="47"/>
     </row>
     <row r="12" spans="1:86" ht="9" customHeight="1">
       <c r="BG12" s="67"/>
@@ -1938,26 +1937,26 @@
       <c r="BL12" s="6"/>
       <c r="BM12" s="6"/>
       <c r="BN12" s="6"/>
-      <c r="BO12" s="68"/>
-      <c r="BP12" s="68"/>
-      <c r="BQ12" s="68"/>
-      <c r="BR12" s="68"/>
-      <c r="BS12" s="68"/>
-      <c r="BT12" s="69"/>
-      <c r="BU12" s="70"/>
-      <c r="BV12" s="69"/>
-      <c r="BW12" s="70"/>
-      <c r="BX12" s="69"/>
-      <c r="BY12" s="70"/>
-      <c r="BZ12" s="69"/>
-      <c r="CA12" s="70"/>
-      <c r="CB12" s="69"/>
-      <c r="CC12" s="70"/>
-      <c r="CD12" s="69"/>
-      <c r="CE12" s="68"/>
-      <c r="CF12" s="69"/>
-      <c r="CG12" s="70"/>
-      <c r="CH12" s="68"/>
+      <c r="BO12" s="9"/>
+      <c r="BP12" s="9"/>
+      <c r="BQ12" s="9"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="9"/>
+      <c r="BT12" s="8"/>
+      <c r="BU12" s="7"/>
+      <c r="BV12" s="8"/>
+      <c r="BW12" s="7"/>
+      <c r="BX12" s="8"/>
+      <c r="BY12" s="7"/>
+      <c r="BZ12" s="8"/>
+      <c r="CA12" s="7"/>
+      <c r="CB12" s="8"/>
+      <c r="CC12" s="7"/>
+      <c r="CD12" s="8"/>
+      <c r="CE12" s="9"/>
+      <c r="CF12" s="8"/>
+      <c r="CG12" s="7"/>
+      <c r="CH12" s="9"/>
     </row>
     <row r="13" spans="1:86" ht="9" customHeight="1"/>
     <row r="14" spans="1:86" ht="9" customHeight="1">
@@ -1977,47 +1976,169 @@
       <c r="BH17" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
-    <mergeCell ref="CA12:CB12"/>
-    <mergeCell ref="CC12:CD12"/>
-    <mergeCell ref="CE12:CF12"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:AY10"/>
-    <mergeCell ref="AZ10:BA10"/>
-    <mergeCell ref="BB10:BC10"/>
-    <mergeCell ref="BD10:BE10"/>
-    <mergeCell ref="BY12:BZ12"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BQ11:BR11"/>
-    <mergeCell ref="BS11:BT11"/>
-    <mergeCell ref="BU11:BV11"/>
-    <mergeCell ref="BW11:BX11"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AJ10:AK10"/>
-    <mergeCell ref="AL10:AM10"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
+  <mergeCells count="226">
+    <mergeCell ref="A3:AL3"/>
+    <mergeCell ref="K1:AL1"/>
+    <mergeCell ref="T2:AL2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="CG2:CH2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="BU2:BV2"/>
+    <mergeCell ref="BS2:BT2"/>
+    <mergeCell ref="BQ2:BR2"/>
+    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BM2:BN2"/>
+    <mergeCell ref="BK2:BL2"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="BY2:BZ2"/>
+    <mergeCell ref="BH1:BH2"/>
+    <mergeCell ref="BG1:BG2"/>
+    <mergeCell ref="CA2:CB2"/>
+    <mergeCell ref="CC2:CD2"/>
+    <mergeCell ref="CE2:CF2"/>
+    <mergeCell ref="BU1:BV1"/>
+    <mergeCell ref="BS1:BT1"/>
+    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BK1:BL1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="CG1:CH1"/>
+    <mergeCell ref="BW1:BX1"/>
+    <mergeCell ref="BY1:BZ1"/>
+    <mergeCell ref="CA1:CB1"/>
+    <mergeCell ref="CC1:CD1"/>
+    <mergeCell ref="CE1:CF1"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="CG4:CH4"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="AL5:AM7"/>
+    <mergeCell ref="BD5:BE7"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="V8:Z8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="BG14:BH14"/>
+    <mergeCell ref="BG15:BH17"/>
+    <mergeCell ref="BG4:BG5"/>
+    <mergeCell ref="BH4:BH5"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BG7:BM7"/>
+    <mergeCell ref="BN7:CH7"/>
+    <mergeCell ref="BG9:BK9"/>
+    <mergeCell ref="BL9:BP9"/>
+    <mergeCell ref="BQ9:BV9"/>
+    <mergeCell ref="BW9:CH9"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BO12:BP12"/>
+    <mergeCell ref="BQ12:BR12"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="BW12:BX12"/>
+    <mergeCell ref="CG12:CH12"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="BO11:BP11"/>
+    <mergeCell ref="CG11:CH11"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="BY11:BZ11"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC4:CD4"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="CE4:CF4"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CA11:CB11"/>
+    <mergeCell ref="CC11:CD11"/>
+    <mergeCell ref="CE11:CF11"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U5:V5"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="U10:V10"/>
     <mergeCell ref="W9:X9"/>
@@ -2042,169 +2163,46 @@
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="CG11:CH11"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="BY11:BZ11"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC4:CD4"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="CE4:CF4"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CA11:CB11"/>
-    <mergeCell ref="CC11:CD11"/>
-    <mergeCell ref="CE11:CF11"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="BG14:BH14"/>
-    <mergeCell ref="BG15:BH17"/>
-    <mergeCell ref="BG4:BG5"/>
-    <mergeCell ref="BH4:BH5"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BG7:BM7"/>
-    <mergeCell ref="BN7:CH7"/>
-    <mergeCell ref="BG9:BK9"/>
-    <mergeCell ref="BL9:BP9"/>
-    <mergeCell ref="BQ9:BV9"/>
-    <mergeCell ref="BW9:CH9"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BO12:BP12"/>
-    <mergeCell ref="BQ12:BR12"/>
-    <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="BW12:BX12"/>
-    <mergeCell ref="CG12:CH12"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="BO11:BP11"/>
-    <mergeCell ref="V8:Z8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="CG4:CH4"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="AL5:AM7"/>
-    <mergeCell ref="BD5:BE7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="BQ1:BR1"/>
-    <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BK1:BL1"/>
-    <mergeCell ref="BI1:BJ1"/>
-    <mergeCell ref="CG1:CH1"/>
-    <mergeCell ref="BW1:BX1"/>
-    <mergeCell ref="BY1:BZ1"/>
-    <mergeCell ref="CA1:CB1"/>
-    <mergeCell ref="CC1:CD1"/>
-    <mergeCell ref="CE1:CF1"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K1:AA1"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="CG2:CH2"/>
-    <mergeCell ref="BW2:BX2"/>
-    <mergeCell ref="BU2:BV2"/>
-    <mergeCell ref="BS2:BT2"/>
-    <mergeCell ref="BQ2:BR2"/>
-    <mergeCell ref="BO2:BP2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="BY2:BZ2"/>
-    <mergeCell ref="BH1:BH2"/>
-    <mergeCell ref="BG1:BG2"/>
-    <mergeCell ref="CA2:CB2"/>
-    <mergeCell ref="CC2:CD2"/>
-    <mergeCell ref="CE2:CF2"/>
-    <mergeCell ref="BU1:BV1"/>
-    <mergeCell ref="BS1:BT1"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AJ10:AK10"/>
+    <mergeCell ref="AL10:AM10"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="CA12:CB12"/>
+    <mergeCell ref="CC12:CD12"/>
+    <mergeCell ref="CE12:CF12"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:AY10"/>
+    <mergeCell ref="AZ10:BA10"/>
+    <mergeCell ref="BB10:BC10"/>
+    <mergeCell ref="BD10:BE10"/>
+    <mergeCell ref="BY12:BZ12"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BQ11:BR11"/>
+    <mergeCell ref="BS11:BT11"/>
+    <mergeCell ref="BU11:BV11"/>
+    <mergeCell ref="BW11:BX11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
